--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -4630,7 +4630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4774,9 +4774,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5096,10 +5093,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1805" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="X1811" sqref="X1811"/>
+      <selection pane="bottomLeft" activeCell="X1448" sqref="X1448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5594,49 +5591,49 @@
       <c r="I1" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5664,7 +5661,7 @@
       <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>1056</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -15793,7 +15790,7 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="39"/>
-      <c r="I257" s="56" t="s">
+      <c r="I257" s="55" t="s">
         <v>1047</v>
       </c>
       <c r="J257" s="46">
@@ -15811,7 +15808,7 @@
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="N257" s="57" t="s">
+      <c r="N257" s="56" t="s">
         <v>719</v>
       </c>
       <c r="O257" s="33"/>
@@ -15825,7 +15822,7 @@
       <c r="U257" s="7"/>
       <c r="V257" s="7"/>
       <c r="W257" s="7"/>
-      <c r="X257" s="57" t="s">
+      <c r="X257" s="56" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -20045,7 +20042,7 @@
       <c r="F365" s="19"/>
       <c r="G365" s="19"/>
       <c r="H365" s="39"/>
-      <c r="I365" s="56" t="s">
+      <c r="I365" s="55" t="s">
         <v>1042</v>
       </c>
       <c r="J365" s="46">
@@ -20063,7 +20060,7 @@
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="N365" s="57" t="s">
+      <c r="N365" s="56" t="s">
         <v>22</v>
       </c>
       <c r="O365" s="33"/>
@@ -20077,7 +20074,7 @@
       <c r="U365" s="7"/>
       <c r="V365" s="7"/>
       <c r="W365" s="7"/>
-      <c r="X365" s="57" t="s">
+      <c r="X365" s="56" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -21703,7 +21700,7 @@
       <c r="F408" s="19"/>
       <c r="G408" s="19"/>
       <c r="H408" s="19"/>
-      <c r="I408" s="56" t="s">
+      <c r="I408" s="55" t="s">
         <v>1041</v>
       </c>
       <c r="J408" s="46">
@@ -21721,7 +21718,7 @@
         <f t="shared" si="14"/>
         <v>43</v>
       </c>
-      <c r="N408" s="57" t="s">
+      <c r="N408" s="56" t="s">
         <v>651</v>
       </c>
       <c r="O408" s="33"/>
@@ -21735,7 +21732,7 @@
       <c r="U408" s="7"/>
       <c r="V408" s="7"/>
       <c r="W408" s="7"/>
-      <c r="X408" s="57" t="s">
+      <c r="X408" s="56" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -33072,7 +33069,7 @@
       <c r="F700" s="19"/>
       <c r="G700" s="19"/>
       <c r="H700" s="19"/>
-      <c r="I700" s="56" t="s">
+      <c r="I700" s="55" t="s">
         <v>1030</v>
       </c>
       <c r="J700" s="46">
@@ -33090,7 +33087,7 @@
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="N700" s="57" t="s">
+      <c r="N700" s="56" t="s">
         <v>1175</v>
       </c>
       <c r="O700" s="33" t="s">
@@ -33104,7 +33101,7 @@
       <c r="U700" s="7"/>
       <c r="V700" s="7"/>
       <c r="W700" s="7"/>
-      <c r="X700" s="57" t="s">
+      <c r="X700" s="56" t="s">
         <v>728</v>
       </c>
     </row>
@@ -33279,7 +33276,7 @@
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="N705" s="57" t="s">
+      <c r="N705" s="56" t="s">
         <v>1175</v>
       </c>
       <c r="O705" s="6" t="s">
@@ -33302,7 +33299,7 @@
       <c r="F706" s="19"/>
       <c r="G706" s="19"/>
       <c r="H706" s="19"/>
-      <c r="I706" s="56" t="s">
+      <c r="I706" s="55" t="s">
         <v>1030</v>
       </c>
       <c r="J706" s="46">
@@ -33320,7 +33317,7 @@
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="N706" s="57" t="s">
+      <c r="N706" s="56" t="s">
         <v>719</v>
       </c>
       <c r="O706" s="7"/>
@@ -33334,7 +33331,7 @@
       <c r="U706" s="7"/>
       <c r="V706" s="7"/>
       <c r="W706" s="7"/>
-      <c r="X706" s="57" t="s">
+      <c r="X706" s="56" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -36223,7 +36220,7 @@
       <c r="F783" s="19"/>
       <c r="G783" s="19"/>
       <c r="H783" s="19"/>
-      <c r="I783" s="56" t="s">
+      <c r="I783" s="55" t="s">
         <v>1029</v>
       </c>
       <c r="J783" s="46">
@@ -36241,7 +36238,7 @@
         <f t="shared" si="26"/>
         <v>77</v>
       </c>
-      <c r="N783" s="57" t="s">
+      <c r="N783" s="56" t="s">
         <v>688</v>
       </c>
       <c r="O783" s="7"/>
@@ -36255,7 +36252,7 @@
       <c r="U783" s="7"/>
       <c r="V783" s="7"/>
       <c r="W783" s="7"/>
-      <c r="X783" s="57" t="s">
+      <c r="X783" s="56" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -36361,10 +36358,10 @@
       <c r="P786" s="7"/>
       <c r="Q786" s="7"/>
       <c r="R786" s="7"/>
-      <c r="S786" s="62" t="s">
+      <c r="S786" s="61" t="s">
         <v>1439</v>
       </c>
-      <c r="T786" s="62" t="s">
+      <c r="T786" s="61" t="s">
         <v>1442</v>
       </c>
       <c r="U786" s="7"/>
@@ -39171,7 +39168,7 @@
       <c r="U859" s="7"/>
       <c r="V859" s="7"/>
       <c r="W859" s="7"/>
-      <c r="X859" s="57" t="s">
+      <c r="X859" s="56" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -44828,7 +44825,7 @@
       <c r="F1008" s="19"/>
       <c r="G1008" s="19"/>
       <c r="H1008" s="19"/>
-      <c r="I1008" s="56" t="s">
+      <c r="I1008" s="55" t="s">
         <v>1017</v>
       </c>
       <c r="J1008" s="46">
@@ -44846,7 +44843,7 @@
         <f t="shared" si="34"/>
         <v>19</v>
       </c>
-      <c r="N1008" s="57" t="s">
+      <c r="N1008" s="56" t="s">
         <v>580</v>
       </c>
       <c r="O1008" s="33"/>
@@ -44858,7 +44855,7 @@
       <c r="U1008" s="7"/>
       <c r="V1008" s="7"/>
       <c r="W1008" s="7"/>
-      <c r="X1008" s="57"/>
+      <c r="X1008" s="56"/>
     </row>
     <row r="1009" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1009" s="19"/>
@@ -47479,7 +47476,7 @@
         <f t="shared" si="36"/>
         <v>10</v>
       </c>
-      <c r="N1077" s="57" t="s">
+      <c r="N1077" s="56" t="s">
         <v>1261</v>
       </c>
       <c r="O1077" s="6" t="s">
@@ -53858,7 +53855,7 @@
         <f t="shared" si="40"/>
         <v>20</v>
       </c>
-      <c r="N1245" s="57" t="s">
+      <c r="N1245" s="56" t="s">
         <v>1056</v>
       </c>
       <c r="O1245" s="6" t="s">
@@ -53872,7 +53869,7 @@
       <c r="U1245" s="7"/>
       <c r="V1245" s="7"/>
       <c r="W1245" s="7"/>
-      <c r="X1245" s="57"/>
+      <c r="X1245" s="56"/>
     </row>
     <row r="1246" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1246" s="19"/>
@@ -57602,10 +57599,10 @@
         <f t="shared" si="44"/>
         <v>118</v>
       </c>
-      <c r="N1343" s="57" t="s">
+      <c r="N1343" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="O1343" s="60" t="s">
+      <c r="O1343" s="59" t="s">
         <v>1064</v>
       </c>
       <c r="P1343" s="7" t="s">
@@ -57618,7 +57615,7 @@
       <c r="U1343" s="7"/>
       <c r="V1343" s="7"/>
       <c r="W1343" s="7"/>
-      <c r="X1343" s="59" t="s">
+      <c r="X1343" s="58" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -59876,7 +59873,7 @@
         <f t="shared" si="46"/>
         <v>59</v>
       </c>
-      <c r="N1402" s="57" t="s">
+      <c r="N1402" s="56" t="s">
         <v>1314</v>
       </c>
       <c r="O1402" s="6"/>
@@ -61643,7 +61640,7 @@
       <c r="U1448" s="7"/>
       <c r="V1448" s="7"/>
       <c r="W1448" s="7"/>
-      <c r="X1448" s="50" t="s">
+      <c r="X1448" s="56" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -63238,7 +63235,7 @@
       <c r="F1491" s="19"/>
       <c r="G1491" s="19"/>
       <c r="H1491" s="19"/>
-      <c r="I1491" s="56" t="s">
+      <c r="I1491" s="55" t="s">
         <v>1004</v>
       </c>
       <c r="J1491" s="46">
@@ -63256,7 +63253,7 @@
         <f t="shared" si="48"/>
         <v>148</v>
       </c>
-      <c r="N1491" s="57" t="s">
+      <c r="N1491" s="56" t="s">
         <v>184</v>
       </c>
       <c r="O1491" s="33"/>
@@ -63270,7 +63267,7 @@
       <c r="U1491" s="7"/>
       <c r="V1491" s="7"/>
       <c r="W1491" s="7"/>
-      <c r="X1491" s="57" t="s">
+      <c r="X1491" s="56" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -63595,7 +63592,7 @@
         <f t="shared" si="48"/>
         <v>9</v>
       </c>
-      <c r="N1500" s="50" t="s">
+      <c r="N1500" s="56" t="s">
         <v>371</v>
       </c>
       <c r="O1500" s="6"/>
@@ -63609,7 +63606,7 @@
       <c r="U1500" s="7"/>
       <c r="V1500" s="7"/>
       <c r="W1500" s="7"/>
-      <c r="X1500" s="50" t="s">
+      <c r="X1500" s="56" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -67983,7 +67980,7 @@
         <f t="shared" si="52"/>
         <v>141</v>
       </c>
-      <c r="N1632" s="63" t="s">
+      <c r="N1632" s="62" t="s">
         <v>288</v>
       </c>
       <c r="X1632" s="43"/>
@@ -69234,13 +69231,13 @@
         <f t="shared" si="54"/>
         <v>33</v>
       </c>
-      <c r="N1680" s="57" t="s">
+      <c r="N1680" s="56" t="s">
         <v>273</v>
       </c>
       <c r="P1680" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="X1680" s="57" t="s">
+      <c r="X1680" s="56" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -69292,7 +69289,7 @@
         <f t="shared" si="54"/>
         <v>35</v>
       </c>
-      <c r="N1682" s="57" t="s">
+      <c r="N1682" s="56" t="s">
         <v>1261</v>
       </c>
       <c r="X1682" s="43"/>
@@ -69924,7 +69921,7 @@
       <c r="X1706" s="43"/>
     </row>
     <row r="1707" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1707" s="56" t="s">
+      <c r="I1707" s="55" t="s">
         <v>999</v>
       </c>
       <c r="J1707" s="46">
@@ -69942,15 +69939,15 @@
         <f t="shared" si="54"/>
         <v>60</v>
       </c>
-      <c r="N1707" s="57" t="s">
+      <c r="N1707" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="O1707" s="58"/>
+      <c r="O1707" s="57"/>
       <c r="P1707" s="7" t="s">
         <v>1074</v>
       </c>
       <c r="U1707" s="7"/>
-      <c r="X1707" s="57" t="s">
+      <c r="X1707" s="56" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -72317,7 +72314,7 @@
       <c r="N1797" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="U1797" s="61" t="s">
+      <c r="U1797" s="60" t="s">
         <v>1451</v>
       </c>
       <c r="X1797" s="43"/>
@@ -72344,7 +72341,7 @@
       <c r="N1798" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="U1798" s="61" t="s">
+      <c r="U1798" s="60" t="s">
         <v>1441</v>
       </c>
       <c r="X1798" s="43"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1481">
   <si>
     <t>Passage</t>
   </si>
@@ -4295,9 +4295,6 @@
     <t>uqBe ityuqBe |</t>
   </si>
   <si>
-    <t>janma#nIq ||</t>
-  </si>
-  <si>
     <t>vaqriqvoqvitta#rA |</t>
   </si>
   <si>
@@ -4361,9 +4358,6 @@
     <t>vis</t>
   </si>
   <si>
-    <t>se?re?</t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
@@ -4421,9 +4415,6 @@
     <t>saq(gg)qskRuqtamiti# sa(gg)skRuqtam ||</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>uqvityu# ||</t>
   </si>
   <si>
@@ -4458,6 +4449,27 @@
   </si>
   <si>
     <t>jyotiqShetiq jyoti#ShA ||</t>
+  </si>
+  <si>
+    <t>janma#nI ||</t>
+  </si>
+  <si>
+    <t>RE?</t>
+  </si>
+  <si>
+    <t>ShoqDaqSinaq iti# ShoDaqSine$ ||</t>
+  </si>
+  <si>
+    <t>NE+NRE</t>
+  </si>
+  <si>
+    <t>NE+NSE+??</t>
+  </si>
+  <si>
+    <t>se?</t>
+  </si>
+  <si>
+    <t>NRE+se?</t>
   </si>
 </sst>
 </file>
@@ -4583,7 +4595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4599,6 +4611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4630,7 +4648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4805,11 +4823,39 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5093,10 +5139,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1802" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="X1448" sqref="X1448"/>
+      <selection pane="bottomLeft" activeCell="U1798" sqref="U1798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5111,14 +5157,15 @@
     <col min="10" max="10" width="12.85546875" style="46" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="17" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="5" customWidth="1"/>
     <col min="14" max="14" width="39.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="17" width="5.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="22" width="18.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="89.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="265" width="9.140625" style="2"/>
@@ -5839,7 +5886,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -8618,7 +8665,7 @@
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="43" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="74" spans="1:24" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9629,7 +9676,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
@@ -10091,10 +10138,10 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T111" s="7" t="s">
         <v>1439</v>
-      </c>
-      <c r="T111" s="7" t="s">
-        <v>1440</v>
       </c>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
@@ -10327,7 +10374,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
@@ -10907,10 +10954,10 @@
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
       <c r="S132" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T132" s="7" t="s">
         <v>1439</v>
-      </c>
-      <c r="T132" s="7" t="s">
-        <v>1440</v>
       </c>
       <c r="U132" s="7"/>
       <c r="V132" s="7"/>
@@ -10987,10 +11034,10 @@
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
       <c r="S134" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T134" s="7" t="s">
         <v>1439</v>
-      </c>
-      <c r="T134" s="7" t="s">
-        <v>1440</v>
       </c>
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
@@ -11998,10 +12045,10 @@
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
       <c r="S160" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
@@ -12388,10 +12435,10 @@
       <c r="Q170" s="7"/>
       <c r="R170" s="7"/>
       <c r="S170" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="T170" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
@@ -12548,10 +12595,10 @@
       <c r="Q174" s="7"/>
       <c r="R174" s="7"/>
       <c r="S174" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="T174" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
@@ -13138,10 +13185,10 @@
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
       <c r="S189" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="T189" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="U189" s="7"/>
       <c r="V189" s="7"/>
@@ -13218,10 +13265,10 @@
       <c r="Q191" s="7"/>
       <c r="R191" s="7"/>
       <c r="S191" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T191" s="7" t="s">
         <v>1439</v>
-      </c>
-      <c r="T191" s="7" t="s">
-        <v>1440</v>
       </c>
       <c r="U191" s="7"/>
       <c r="V191" s="7"/>
@@ -14634,7 +14681,7 @@
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
       <c r="U227" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
@@ -17084,7 +17131,7 @@
       <c r="S289" s="7"/>
       <c r="T289" s="7"/>
       <c r="U289" s="37" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
@@ -17834,7 +17881,7 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="37" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V308" s="7"/>
       <c r="W308" s="7"/>
@@ -18030,7 +18077,7 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="37" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V313" s="7"/>
       <c r="W313" s="7"/>
@@ -21156,7 +21203,7 @@
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V393" s="7"/>
       <c r="W393" s="7"/>
@@ -22192,7 +22239,7 @@
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V420" s="7"/>
       <c r="W420" s="7"/>
@@ -22784,7 +22831,7 @@
       <c r="S435" s="7"/>
       <c r="T435" s="7"/>
       <c r="U435" s="7" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V435" s="7"/>
       <c r="W435" s="7"/>
@@ -23328,13 +23375,13 @@
       <c r="F450" s="19"/>
       <c r="G450" s="19"/>
       <c r="H450" s="19"/>
-      <c r="I450" s="48" t="s">
+      <c r="I450" s="55" t="s">
         <v>1040</v>
       </c>
       <c r="J450" s="46">
         <v>12</v>
       </c>
-      <c r="K450" s="16">
+      <c r="K450" s="5">
         <f t="shared" si="15"/>
         <v>449</v>
       </c>
@@ -23346,7 +23393,7 @@
         <f t="shared" si="16"/>
         <v>42</v>
       </c>
-      <c r="N450" s="43" t="s">
+      <c r="N450" s="56" t="s">
         <v>651</v>
       </c>
       <c r="O450" s="7"/>
@@ -23360,7 +23407,7 @@
       <c r="U450" s="7"/>
       <c r="V450" s="7"/>
       <c r="W450" s="7"/>
-      <c r="X450" s="43" t="s">
+      <c r="X450" s="56" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -24324,7 +24371,7 @@
       <c r="S475" s="7"/>
       <c r="T475" s="7"/>
       <c r="U475" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V475" s="7"/>
       <c r="W475" s="7"/>
@@ -29616,7 +29663,7 @@
       <c r="S611" s="7"/>
       <c r="T611" s="7"/>
       <c r="U611" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V611" s="7"/>
       <c r="W611" s="7"/>
@@ -30476,12 +30523,12 @@
       <c r="Q633" s="7"/>
       <c r="R633" s="7"/>
       <c r="S633" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T633" s="7"/>
       <c r="U633" s="7"/>
       <c r="V633" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="W633" s="7"/>
       <c r="X633" s="43"/>
@@ -30632,7 +30679,7 @@
       <c r="Q637" s="7"/>
       <c r="R637" s="7"/>
       <c r="S637" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="T637" s="7"/>
       <c r="U637" s="7"/>
@@ -31608,12 +31655,12 @@
       <c r="Q662" s="7"/>
       <c r="R662" s="7"/>
       <c r="S662" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T662" s="7"/>
       <c r="U662" s="7"/>
       <c r="V662" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="W662" s="7"/>
       <c r="X662" s="43"/>
@@ -31804,12 +31851,12 @@
       <c r="Q667" s="7"/>
       <c r="R667" s="7"/>
       <c r="S667" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T667" s="7"/>
       <c r="U667" s="7"/>
       <c r="V667" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="W667" s="7"/>
       <c r="X667" s="43" t="s">
@@ -32348,12 +32395,12 @@
       <c r="Q681" s="7"/>
       <c r="R681" s="7"/>
       <c r="S681" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T681" s="7"/>
       <c r="U681" s="7"/>
       <c r="V681" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="W681" s="7"/>
       <c r="X681" s="43"/>
@@ -33630,7 +33677,7 @@
       <c r="V714" s="7"/>
       <c r="W714" s="7"/>
       <c r="X714" s="43" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="715" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -34499,7 +34546,7 @@
         <v>31</v>
       </c>
       <c r="N737" s="43" t="s">
-        <v>1422</v>
+        <v>1474</v>
       </c>
       <c r="O737" s="6" t="s">
         <v>1075</v>
@@ -35112,7 +35159,7 @@
       <c r="Q753" s="7"/>
       <c r="R753" s="7"/>
       <c r="S753" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="T753" s="7"/>
       <c r="U753" s="7"/>
@@ -35158,7 +35205,7 @@
       <c r="V754" s="7"/>
       <c r="W754" s="7"/>
       <c r="X754" s="43" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="755" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -35487,7 +35534,7 @@
         <v>57</v>
       </c>
       <c r="N763" s="43" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="O763" s="6" t="s">
         <v>1064</v>
@@ -36358,11 +36405,11 @@
       <c r="P786" s="7"/>
       <c r="Q786" s="7"/>
       <c r="R786" s="7"/>
-      <c r="S786" s="61" t="s">
-        <v>1439</v>
-      </c>
-      <c r="T786" s="61" t="s">
-        <v>1442</v>
+      <c r="S786" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T786" s="7" t="s">
+        <v>1441</v>
       </c>
       <c r="U786" s="7"/>
       <c r="V786" s="7"/>
@@ -37242,10 +37289,10 @@
       <c r="Q809" s="7"/>
       <c r="R809" s="7"/>
       <c r="S809" s="37" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="T809" s="37" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="U809" s="7"/>
       <c r="V809" s="7"/>
@@ -37704,7 +37751,7 @@
       <c r="Q821" s="7"/>
       <c r="R821" s="7"/>
       <c r="S821" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="T821" s="7"/>
       <c r="U821" s="7"/>
@@ -37821,7 +37868,7 @@
       <c r="S824" s="7"/>
       <c r="T824" s="7"/>
       <c r="U824" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V824" s="7"/>
       <c r="W824" s="7"/>
@@ -39157,7 +39204,7 @@
         <v>3</v>
       </c>
       <c r="N859" s="43" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="O859" s="6"/>
       <c r="P859" s="7"/>
@@ -39169,7 +39216,7 @@
       <c r="V859" s="7"/>
       <c r="W859" s="7"/>
       <c r="X859" s="56" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="860" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -39352,7 +39399,7 @@
         <v>8</v>
       </c>
       <c r="N864" s="44" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="O864" s="6"/>
       <c r="P864" s="7"/>
@@ -39922,7 +39969,7 @@
         <v>8</v>
       </c>
       <c r="N879" s="43" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="O879" s="6"/>
       <c r="P879" s="7"/>
@@ -40267,7 +40314,7 @@
         <v>17</v>
       </c>
       <c r="N888" s="43" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O888" s="6" t="s">
         <v>1064</v>
@@ -41490,7 +41537,7 @@
       <c r="V920" s="7"/>
       <c r="W920" s="7"/>
       <c r="X920" s="43" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="921" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -41667,7 +41714,7 @@
         <v>5</v>
       </c>
       <c r="N925" s="43" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="O925" s="7" t="s">
         <v>1075</v>
@@ -41681,7 +41728,7 @@
       <c r="V925" s="7"/>
       <c r="W925" s="7"/>
       <c r="X925" s="43" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="926" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -41719,7 +41766,7 @@
       <c r="S926" s="7"/>
       <c r="T926" s="7"/>
       <c r="U926" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V926" s="7"/>
       <c r="W926" s="7"/>
@@ -41825,7 +41872,7 @@
         <v>9</v>
       </c>
       <c r="N929" s="43" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="O929" s="6" t="s">
         <v>1075</v>
@@ -43323,7 +43370,7 @@
       <c r="Q968" s="7"/>
       <c r="R968" s="7"/>
       <c r="S968" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="T968" s="7"/>
       <c r="U968" s="7"/>
@@ -43440,7 +43487,7 @@
       <c r="Q971" s="7"/>
       <c r="R971" s="7"/>
       <c r="S971" s="7" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="T971" s="7"/>
       <c r="U971" s="7"/>
@@ -43787,7 +43834,7 @@
       <c r="Q980" s="7"/>
       <c r="R980" s="7"/>
       <c r="S980" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="T980" s="7"/>
       <c r="U980" s="7"/>
@@ -43905,7 +43952,9 @@
       <c r="R983" s="7"/>
       <c r="S983" s="7"/>
       <c r="T983" s="7"/>
-      <c r="U983" s="7"/>
+      <c r="U983" s="7" t="s">
+        <v>1454</v>
+      </c>
       <c r="V983" s="7"/>
       <c r="W983" s="7"/>
       <c r="X983" s="43"/>
@@ -43934,7 +43983,7 @@
         <v>14</v>
       </c>
       <c r="N984" s="44" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="O984" s="6" t="s">
         <v>1075</v>
@@ -43948,7 +43997,7 @@
       <c r="V984" s="7"/>
       <c r="W984" s="7"/>
       <c r="X984" s="44" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="985" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -44095,7 +44144,7 @@
       <c r="S988" s="7"/>
       <c r="T988" s="7"/>
       <c r="U988" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V988" s="7"/>
       <c r="W988" s="7"/>
@@ -47908,7 +47957,7 @@
       <c r="W1088" s="7"/>
       <c r="X1088" s="43"/>
     </row>
-    <row r="1089" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1089" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1089" s="19"/>
       <c r="F1089" s="19"/>
       <c r="G1089" s="19"/>
@@ -47945,7 +47994,7 @@
       <c r="W1089" s="7"/>
       <c r="X1089" s="43"/>
     </row>
-    <row r="1090" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1090" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1090" s="19"/>
       <c r="F1090" s="19"/>
       <c r="G1090" s="19"/>
@@ -47982,7 +48031,7 @@
       <c r="W1090" s="7"/>
       <c r="X1090" s="43"/>
     </row>
-    <row r="1091" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1091" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1091" s="19"/>
       <c r="F1091" s="19"/>
       <c r="G1091" s="19"/>
@@ -48019,7 +48068,7 @@
       <c r="W1091" s="7"/>
       <c r="X1091" s="43"/>
     </row>
-    <row r="1092" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1092" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1092" s="19"/>
       <c r="F1092" s="19"/>
       <c r="G1092" s="19"/>
@@ -48056,48 +48105,50 @@
       <c r="W1092" s="7"/>
       <c r="X1092" s="43"/>
     </row>
-    <row r="1093" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="E1093" s="19"/>
-      <c r="F1093" s="19"/>
-      <c r="G1093" s="19"/>
-      <c r="H1093" s="39"/>
-      <c r="I1093" s="48" t="s">
+    <row r="1093" spans="3:24" s="72" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1093" s="69"/>
+      <c r="D1093" s="62"/>
+      <c r="E1093" s="63"/>
+      <c r="F1093" s="63"/>
+      <c r="G1093" s="63"/>
+      <c r="H1093" s="70"/>
+      <c r="I1093" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="J1093" s="46">
+      <c r="J1093" s="65">
         <v>38</v>
       </c>
-      <c r="K1093" s="16">
+      <c r="K1093" s="66">
         <f t="shared" si="37"/>
         <v>1092</v>
       </c>
-      <c r="L1093" s="5">
+      <c r="L1093" s="66">
         <f t="shared" si="37"/>
         <v>26</v>
       </c>
-      <c r="M1093" s="5">
+      <c r="M1093" s="66">
         <f t="shared" si="36"/>
         <v>26</v>
       </c>
-      <c r="N1093" s="43" t="s">
+      <c r="N1093" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="O1093" s="6"/>
-      <c r="P1093" s="7" t="s">
+      <c r="O1093" s="71"/>
+      <c r="P1093" s="68" t="s">
         <v>1074</v>
       </c>
-      <c r="Q1093" s="7"/>
-      <c r="R1093" s="7"/>
-      <c r="S1093" s="7"/>
-      <c r="T1093" s="7"/>
-      <c r="U1093" s="7"/>
-      <c r="V1093" s="7"/>
-      <c r="W1093" s="7"/>
-      <c r="X1093" s="43" t="s">
+      <c r="Q1093" s="68"/>
+      <c r="R1093" s="68"/>
+      <c r="S1093" s="68"/>
+      <c r="T1093" s="68"/>
+      <c r="U1093" s="68"/>
+      <c r="V1093" s="68"/>
+      <c r="W1093" s="68"/>
+      <c r="X1093" s="67" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1094" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1094" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1094" s="19"/>
       <c r="F1094" s="19"/>
       <c r="G1094" s="19"/>
@@ -48132,7 +48183,7 @@
       <c r="W1094" s="7"/>
       <c r="X1094" s="43"/>
     </row>
-    <row r="1095" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1095" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1095" s="19"/>
       <c r="F1095" s="19"/>
       <c r="G1095" s="19"/>
@@ -48169,7 +48220,7 @@
       <c r="W1095" s="7"/>
       <c r="X1095" s="43"/>
     </row>
-    <row r="1096" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1096" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1096" s="19"/>
       <c r="F1096" s="19"/>
       <c r="G1096" s="19"/>
@@ -48208,7 +48259,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1097" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1097" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1097" s="19"/>
       <c r="F1097" s="19"/>
       <c r="G1097" s="19"/>
@@ -48245,7 +48296,7 @@
       <c r="W1097" s="7"/>
       <c r="X1097" s="43"/>
     </row>
-    <row r="1098" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1098" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1098" s="19"/>
       <c r="F1098" s="19"/>
       <c r="G1098" s="19"/>
@@ -48286,7 +48337,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="1099" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1099" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1099" s="19"/>
       <c r="F1099" s="19"/>
       <c r="G1099" s="19"/>
@@ -48323,7 +48374,7 @@
       <c r="W1099" s="7"/>
       <c r="X1099" s="43"/>
     </row>
-    <row r="1100" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1100" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1100" s="19"/>
       <c r="F1100" s="19"/>
       <c r="G1100" s="19"/>
@@ -48360,7 +48411,7 @@
       <c r="W1100" s="7"/>
       <c r="X1100" s="43"/>
     </row>
-    <row r="1101" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1101" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1101" s="19"/>
       <c r="F1101" s="19"/>
       <c r="G1101" s="19"/>
@@ -48397,7 +48448,7 @@
       <c r="W1101" s="7"/>
       <c r="X1101" s="43"/>
     </row>
-    <row r="1102" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1102" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1102" s="19"/>
       <c r="F1102" s="19"/>
       <c r="G1102" s="19"/>
@@ -48436,7 +48487,7 @@
       <c r="W1102" s="7"/>
       <c r="X1102" s="43"/>
     </row>
-    <row r="1103" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1103" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1103" s="19"/>
       <c r="F1103" s="19"/>
       <c r="G1103" s="19"/>
@@ -48473,7 +48524,7 @@
       <c r="W1103" s="7"/>
       <c r="X1103" s="43"/>
     </row>
-    <row r="1104" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1104" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1104" s="19"/>
       <c r="F1104" s="19"/>
       <c r="G1104" s="19"/>
@@ -48996,7 +49047,9 @@
       <c r="R1117" s="7"/>
       <c r="S1117" s="7"/>
       <c r="T1117" s="7"/>
-      <c r="U1117" s="7"/>
+      <c r="U1117" s="7" t="s">
+        <v>1475</v>
+      </c>
       <c r="V1117" s="7"/>
       <c r="W1117" s="7"/>
       <c r="X1117" s="43"/>
@@ -49366,7 +49419,7 @@
         <v>11</v>
       </c>
       <c r="N1127" s="43" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O1127" s="7"/>
       <c r="P1127" s="7"/>
@@ -49982,7 +50035,7 @@
       <c r="V1143" s="7"/>
       <c r="W1143" s="7"/>
       <c r="X1143" s="43" t="s">
-        <v>1083</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1144" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -50976,7 +51029,7 @@
       <c r="V1169" s="7"/>
       <c r="W1169" s="7"/>
       <c r="X1169" s="43" t="s">
-        <v>1083</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1170" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -51008,12 +51061,12 @@
       <c r="Q1170" s="7"/>
       <c r="R1170" s="7"/>
       <c r="S1170" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T1170" s="7"/>
       <c r="U1170" s="7"/>
       <c r="V1170" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="W1170" s="7"/>
       <c r="X1170" s="43"/>
@@ -51208,7 +51261,7 @@
       <c r="V1175" s="7"/>
       <c r="W1175" s="7"/>
       <c r="X1175" s="43" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1176" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -52384,12 +52437,12 @@
       <c r="Q1206" s="7"/>
       <c r="R1206" s="7"/>
       <c r="S1206" s="7" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="T1206" s="7"/>
       <c r="U1206" s="7"/>
       <c r="V1206" s="7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="W1206" s="7"/>
       <c r="X1206" s="43"/>
@@ -52649,10 +52702,10 @@
       <c r="Q1213" s="7"/>
       <c r="R1213" s="7"/>
       <c r="S1213" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="T1213" s="7" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="U1213" s="7"/>
       <c r="V1213" s="7"/>
@@ -53981,7 +54034,7 @@
       <c r="R1248" s="7"/>
       <c r="S1248" s="7"/>
       <c r="T1248" s="7"/>
-      <c r="U1248" s="7"/>
+      <c r="U1248" s="37"/>
       <c r="V1248" s="7"/>
       <c r="W1248" s="7"/>
       <c r="X1248" s="43"/>
@@ -54360,7 +54413,7 @@
       <c r="S1258" s="7"/>
       <c r="T1258" s="7"/>
       <c r="U1258" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V1258" s="7"/>
       <c r="W1258" s="7"/>
@@ -54927,10 +54980,10 @@
       <c r="Q1273" s="7"/>
       <c r="R1273" s="7"/>
       <c r="S1273" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="T1273" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U1273" s="7"/>
       <c r="V1273" s="7"/>
@@ -55540,7 +55593,7 @@
       <c r="S1289" s="7"/>
       <c r="T1289" s="7"/>
       <c r="U1289" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V1289" s="7"/>
       <c r="W1289" s="7"/>
@@ -55694,7 +55747,7 @@
       <c r="S1293" s="7"/>
       <c r="T1293" s="7"/>
       <c r="U1293" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V1293" s="7"/>
       <c r="W1293" s="7"/>
@@ -56718,11 +56771,11 @@
       <c r="P1320" s="7"/>
       <c r="Q1320" s="7"/>
       <c r="R1320" s="7"/>
-      <c r="S1320" s="7" t="s">
-        <v>1439</v>
-      </c>
-      <c r="T1320" s="7" t="s">
-        <v>1442</v>
+      <c r="S1320" s="37" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T1320" s="37" t="s">
+        <v>1441</v>
       </c>
       <c r="U1320" s="7"/>
       <c r="V1320" s="7"/>
@@ -56903,7 +56956,7 @@
         <v>100</v>
       </c>
       <c r="N1325" s="43" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="O1325" s="6"/>
       <c r="P1325" s="7"/>
@@ -56951,7 +57004,7 @@
       <c r="S1326" s="7"/>
       <c r="T1326" s="7"/>
       <c r="U1326" s="7" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V1326" s="7"/>
       <c r="W1326" s="7"/>
@@ -57616,7 +57669,7 @@
       <c r="V1343" s="7"/>
       <c r="W1343" s="7"/>
       <c r="X1343" s="58" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1344" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -57956,7 +58009,7 @@
       <c r="S1352" s="7"/>
       <c r="T1352" s="7"/>
       <c r="U1352" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V1352" s="7"/>
       <c r="W1352" s="7"/>
@@ -58342,10 +58395,10 @@
       <c r="Q1362" s="7"/>
       <c r="R1362" s="7"/>
       <c r="S1362" s="37" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="T1362" s="37" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="U1362" s="7"/>
       <c r="V1362" s="7"/>
@@ -58526,7 +58579,7 @@
         <v>24</v>
       </c>
       <c r="N1367" s="43" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="O1367" s="6" t="s">
         <v>1064</v>
@@ -59234,9 +59287,7 @@
       <c r="R1385" s="7"/>
       <c r="S1385" s="7"/>
       <c r="T1385" s="7"/>
-      <c r="U1385" s="7" t="s">
-        <v>1464</v>
-      </c>
+      <c r="U1385" s="7"/>
       <c r="V1385" s="7"/>
       <c r="W1385" s="7"/>
       <c r="X1385" s="43"/>
@@ -59465,7 +59516,7 @@
       <c r="S1391" s="7"/>
       <c r="T1391" s="7"/>
       <c r="U1391" s="7" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="V1391" s="7"/>
       <c r="W1391" s="7"/>
@@ -59806,9 +59857,7 @@
       <c r="R1400" s="7"/>
       <c r="S1400" s="7"/>
       <c r="T1400" s="7"/>
-      <c r="U1400" s="7" t="s">
-        <v>1464</v>
-      </c>
+      <c r="U1400" s="7"/>
       <c r="V1400" s="7"/>
       <c r="W1400" s="7"/>
       <c r="X1400" s="43"/>
@@ -59957,7 +60006,7 @@
       <c r="S1404" s="7"/>
       <c r="T1404" s="7"/>
       <c r="U1404" s="7" t="s">
-        <v>1441</v>
+        <v>1477</v>
       </c>
       <c r="V1404" s="7"/>
       <c r="W1404" s="7"/>
@@ -60679,7 +60728,9 @@
       <c r="R1423" s="7"/>
       <c r="S1423" s="7"/>
       <c r="T1423" s="7"/>
-      <c r="U1423" s="7"/>
+      <c r="U1423" s="7" t="s">
+        <v>1454</v>
+      </c>
       <c r="V1423" s="7"/>
       <c r="W1423" s="7"/>
       <c r="X1423" s="43"/>
@@ -61062,7 +61113,7 @@
       <c r="S1433" s="7"/>
       <c r="T1433" s="7"/>
       <c r="U1433" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="V1433" s="7"/>
       <c r="W1433" s="7"/>
@@ -61440,12 +61491,12 @@
       <c r="Q1443" s="7"/>
       <c r="R1443" s="7"/>
       <c r="S1443" s="7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="T1443" s="7"/>
       <c r="U1443" s="7"/>
       <c r="V1443" s="7" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="W1443" s="7"/>
       <c r="X1443" s="43"/>
@@ -61595,7 +61646,7 @@
       <c r="S1447" s="7"/>
       <c r="T1447" s="7"/>
       <c r="U1447" s="7" t="s">
-        <v>1441</v>
+        <v>1478</v>
       </c>
       <c r="V1447" s="7"/>
       <c r="W1447" s="7"/>
@@ -61641,7 +61692,7 @@
       <c r="V1448" s="7"/>
       <c r="W1448" s="7"/>
       <c r="X1448" s="56" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1449" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -61982,7 +62033,7 @@
       <c r="V1457" s="7"/>
       <c r="W1457" s="7"/>
       <c r="X1457" s="43" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1458" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -62512,7 +62563,7 @@
       <c r="V1471" s="7"/>
       <c r="W1471" s="7"/>
       <c r="X1471" s="43" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1472" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -62850,10 +62901,10 @@
       <c r="Q1480" s="7"/>
       <c r="R1480" s="7"/>
       <c r="S1480" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="T1480" s="7" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="U1480" s="7"/>
       <c r="V1480" s="7"/>
@@ -63607,7 +63658,7 @@
       <c r="V1500" s="7"/>
       <c r="W1500" s="7"/>
       <c r="X1500" s="56" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1501" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -63755,11 +63806,11 @@
       <c r="P1504" s="7"/>
       <c r="Q1504" s="7"/>
       <c r="R1504" s="7"/>
-      <c r="S1504" s="7" t="s">
-        <v>1443</v>
-      </c>
-      <c r="T1504" s="7" t="s">
+      <c r="S1504" s="37" t="s">
         <v>1442</v>
+      </c>
+      <c r="T1504" s="37" t="s">
+        <v>1441</v>
       </c>
       <c r="U1504" s="7"/>
       <c r="V1504" s="7"/>
@@ -64218,10 +64269,10 @@
       <c r="Q1516" s="7"/>
       <c r="R1516" s="7"/>
       <c r="S1516" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="T1516" s="7" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="U1516" s="7"/>
       <c r="V1516" s="7"/>
@@ -64303,12 +64354,12 @@
       <c r="S1518" s="7"/>
       <c r="T1518" s="7"/>
       <c r="U1518" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V1518" s="7"/>
       <c r="W1518" s="7"/>
       <c r="X1518" s="43" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1519" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -64912,9 +64963,7 @@
       <c r="R1534" s="7"/>
       <c r="S1534" s="7"/>
       <c r="T1534" s="7"/>
-      <c r="U1534" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="U1534" s="7"/>
       <c r="V1534" s="7"/>
       <c r="W1534" s="7"/>
       <c r="X1534" s="43"/>
@@ -65303,7 +65352,9 @@
       <c r="R1544" s="7"/>
       <c r="S1544" s="7"/>
       <c r="T1544" s="7"/>
-      <c r="U1544" s="7"/>
+      <c r="U1544" s="7" t="s">
+        <v>1449</v>
+      </c>
       <c r="V1544" s="7"/>
       <c r="W1544" s="7"/>
       <c r="X1544" s="43" t="s">
@@ -65678,7 +65729,7 @@
       <c r="Q1554" s="7"/>
       <c r="R1554" s="7"/>
       <c r="S1554" s="7" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="T1554" s="7"/>
       <c r="U1554" s="7"/>
@@ -65721,10 +65772,10 @@
       <c r="Q1555" s="7"/>
       <c r="R1555" s="7"/>
       <c r="S1555" s="37" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="T1555" s="37" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U1555" s="7"/>
       <c r="V1555" s="7"/>
@@ -67980,7 +68031,7 @@
         <f t="shared" si="52"/>
         <v>141</v>
       </c>
-      <c r="N1632" s="62" t="s">
+      <c r="N1632" s="61" t="s">
         <v>288</v>
       </c>
       <c r="X1632" s="43"/>
@@ -68035,7 +68086,7 @@
         <v>1076</v>
       </c>
       <c r="U1634" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1634" s="43"/>
     </row>
@@ -68140,7 +68191,7 @@
         <v>1074</v>
       </c>
       <c r="X1638" s="43" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1639" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68166,12 +68217,12 @@
         <v>246</v>
       </c>
       <c r="S1639" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T1639" s="7"/>
       <c r="U1639" s="7"/>
       <c r="V1639" s="7" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="X1639" s="43"/>
     </row>
@@ -68197,6 +68248,9 @@
       <c r="N1640" s="43" t="s">
         <v>84</v>
       </c>
+      <c r="U1640" s="60" t="s">
+        <v>1479</v>
+      </c>
       <c r="X1640" s="43"/>
     </row>
     <row r="1641" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68518,6 +68572,9 @@
       <c r="N1653" s="43" t="s">
         <v>292</v>
       </c>
+      <c r="U1653" s="1" t="s">
+        <v>1454</v>
+      </c>
       <c r="X1653" s="43"/>
     </row>
     <row r="1654" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68649,7 +68706,7 @@
         <v>159</v>
       </c>
       <c r="U1658" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1658" s="43"/>
     </row>
@@ -68729,7 +68786,7 @@
         <v>84</v>
       </c>
       <c r="U1661" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="X1661" s="43"/>
     </row>
@@ -68759,7 +68816,7 @@
         <v>1064</v>
       </c>
       <c r="U1662" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1662" s="43" t="s">
         <v>286</v>
@@ -68791,7 +68848,7 @@
         <v>1074</v>
       </c>
       <c r="X1663" s="43" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1664" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68971,7 +69028,7 @@
         <v>84</v>
       </c>
       <c r="U1670" s="7" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="X1670" s="43"/>
     </row>
@@ -69053,7 +69110,7 @@
         <v>278</v>
       </c>
       <c r="U1673" s="7" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="X1673" s="43"/>
     </row>
@@ -69238,7 +69295,7 @@
         <v>1074</v>
       </c>
       <c r="X1680" s="56" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1681" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -69497,7 +69554,7 @@
         <v>1076</v>
       </c>
       <c r="U1690" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="X1690" s="43"/>
     </row>
@@ -70167,8 +70224,8 @@
       <c r="P1715" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="U1715" s="7" t="s">
-        <v>1456</v>
+      <c r="U1715" s="37" t="s">
+        <v>1480</v>
       </c>
       <c r="X1715" s="43" t="s">
         <v>250</v>
@@ -70224,7 +70281,7 @@
         <v>1076</v>
       </c>
       <c r="U1717" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1717" s="43"/>
     </row>
@@ -70355,12 +70412,12 @@
         <v>246</v>
       </c>
       <c r="S1722" s="7" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="T1722" s="7"/>
       <c r="U1722" s="7"/>
       <c r="V1722" s="7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="X1722" s="43"/>
     </row>
@@ -70696,7 +70753,7 @@
         <v>84</v>
       </c>
       <c r="U1735" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="X1735" s="43"/>
     </row>
@@ -70888,7 +70945,7 @@
         <v>84</v>
       </c>
       <c r="U1742" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="X1742" s="43"/>
     </row>
@@ -71045,7 +71102,7 @@
         <v>232</v>
       </c>
       <c r="U1748" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1748" s="43"/>
     </row>
@@ -71330,7 +71387,7 @@
         <v>84</v>
       </c>
       <c r="U1759" s="7" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="X1759" s="43"/>
     </row>
@@ -71407,7 +71464,7 @@
         <v>115</v>
       </c>
       <c r="N1762" s="43" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="X1762" s="43"/>
     </row>
@@ -71569,7 +71626,9 @@
       <c r="N1768" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="U1768" s="7"/>
+      <c r="U1768" s="37" t="s">
+        <v>1454</v>
+      </c>
       <c r="X1768" s="43"/>
     </row>
     <row r="1769" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -71620,7 +71679,7 @@
         <v>98</v>
       </c>
       <c r="U1770" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="X1770" s="43"/>
     </row>
@@ -72314,8 +72373,8 @@
       <c r="N1797" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="U1797" s="60" t="s">
-        <v>1451</v>
+      <c r="U1797" s="1" t="s">
+        <v>1449</v>
       </c>
       <c r="X1797" s="43"/>
     </row>
@@ -72342,7 +72401,7 @@
         <v>201</v>
       </c>
       <c r="U1798" s="60" t="s">
-        <v>1441</v>
+        <v>1477</v>
       </c>
       <c r="X1798" s="43"/>
     </row>
@@ -72574,7 +72633,7 @@
         <v>84</v>
       </c>
       <c r="U1807" s="7" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="X1807" s="43"/>
     </row>
@@ -72679,7 +72738,7 @@
         <v>1074</v>
       </c>
       <c r="X1811" s="43" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1812" spans="9:24" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 1.4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.4'!$C$1:$X$1812</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.4'!$C$1:$X$1811</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1475">
   <si>
     <t>Passage</t>
   </si>
@@ -4346,48 +4346,27 @@
     <t>Vis</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
     <t>r</t>
   </si>
   <si>
-    <t>vis</t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
     <t>ngmv</t>
   </si>
   <si>
-    <t>N(gm)</t>
-  </si>
-  <si>
     <t>caqmU |</t>
   </si>
   <si>
-    <t>ntN</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>NSE</t>
   </si>
   <si>
-    <t>n(gm)</t>
-  </si>
-  <si>
-    <t>S(gg)</t>
-  </si>
-  <si>
-    <t>n(s)</t>
-  </si>
-  <si>
     <t>aqstvitya#stu ||</t>
   </si>
   <si>
@@ -4409,18 +4388,12 @@
     <t>ngmr</t>
   </si>
   <si>
-    <t>R(s)</t>
-  </si>
-  <si>
     <t>saq(gg)qskRuqtamiti# sa(gg)skRuqtam ||</t>
   </si>
   <si>
     <t>uqvityu# ||</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>aqsRuqkShmaqhItya#sRukShmahi |</t>
   </si>
   <si>
@@ -4470,6 +4443,15 @@
   </si>
   <si>
     <t>NRE+se?</t>
+  </si>
+  <si>
+    <t>ngg</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -4595,7 +4577,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4611,12 +4593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4648,7 +4624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4825,37 +4801,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5139,10 +5084,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1802" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1798" sqref="U1798"/>
+      <selection pane="bottomLeft" activeCell="T1796" sqref="T1796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5886,7 +5831,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -8665,7 +8610,7 @@
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="43" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="74" spans="1:24" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10140,9 +10085,7 @@
       <c r="S111" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T111" s="7" t="s">
-        <v>1439</v>
-      </c>
+      <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
@@ -10374,7 +10317,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
@@ -10956,9 +10899,7 @@
       <c r="S132" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T132" s="7" t="s">
-        <v>1439</v>
-      </c>
+      <c r="T132" s="7"/>
       <c r="U132" s="7"/>
       <c r="V132" s="7"/>
       <c r="W132" s="7"/>
@@ -11036,9 +10977,7 @@
       <c r="S134" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T134" s="7" t="s">
-        <v>1439</v>
-      </c>
+      <c r="T134" s="7"/>
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
@@ -12047,9 +11986,7 @@
       <c r="S160" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T160" s="7" t="s">
-        <v>1441</v>
-      </c>
+      <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
@@ -12437,9 +12374,7 @@
       <c r="S170" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T170" s="7" t="s">
-        <v>1441</v>
-      </c>
+      <c r="T170" s="7"/>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
@@ -12595,11 +12530,9 @@
       <c r="Q174" s="7"/>
       <c r="R174" s="7"/>
       <c r="S174" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T174" s="7" t="s">
-        <v>1441</v>
-      </c>
+        <v>1438</v>
+      </c>
+      <c r="T174" s="7"/>
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
       <c r="W174" s="7"/>
@@ -13185,11 +13118,9 @@
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
       <c r="S189" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T189" s="7" t="s">
-        <v>1439</v>
-      </c>
+        <v>1438</v>
+      </c>
+      <c r="T189" s="7"/>
       <c r="U189" s="7"/>
       <c r="V189" s="7"/>
       <c r="W189" s="7"/>
@@ -13267,9 +13198,7 @@
       <c r="S191" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T191" s="7" t="s">
-        <v>1439</v>
-      </c>
+      <c r="T191" s="7"/>
       <c r="U191" s="7"/>
       <c r="V191" s="7"/>
       <c r="W191" s="7"/>
@@ -14681,7 +14610,7 @@
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
       <c r="U227" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
@@ -17131,7 +17060,7 @@
       <c r="S289" s="7"/>
       <c r="T289" s="7"/>
       <c r="U289" s="37" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
@@ -17881,7 +17810,7 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="37" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V308" s="7"/>
       <c r="W308" s="7"/>
@@ -18077,7 +18006,7 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="37" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V313" s="7"/>
       <c r="W313" s="7"/>
@@ -21203,7 +21132,7 @@
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V393" s="7"/>
       <c r="W393" s="7"/>
@@ -22239,7 +22168,7 @@
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
       <c r="U420" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V420" s="7"/>
       <c r="W420" s="7"/>
@@ -22831,7 +22760,7 @@
       <c r="S435" s="7"/>
       <c r="T435" s="7"/>
       <c r="U435" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V435" s="7"/>
       <c r="W435" s="7"/>
@@ -24371,7 +24300,7 @@
       <c r="S475" s="7"/>
       <c r="T475" s="7"/>
       <c r="U475" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V475" s="7"/>
       <c r="W475" s="7"/>
@@ -29663,7 +29592,7 @@
       <c r="S611" s="7"/>
       <c r="T611" s="7"/>
       <c r="U611" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V611" s="7"/>
       <c r="W611" s="7"/>
@@ -30523,12 +30452,12 @@
       <c r="Q633" s="7"/>
       <c r="R633" s="7"/>
       <c r="S633" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T633" s="7"/>
       <c r="U633" s="7"/>
       <c r="V633" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W633" s="7"/>
       <c r="X633" s="43"/>
@@ -30679,7 +30608,7 @@
       <c r="Q637" s="7"/>
       <c r="R637" s="7"/>
       <c r="S637" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="T637" s="7"/>
       <c r="U637" s="7"/>
@@ -31655,12 +31584,12 @@
       <c r="Q662" s="7"/>
       <c r="R662" s="7"/>
       <c r="S662" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T662" s="7"/>
       <c r="U662" s="7"/>
       <c r="V662" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W662" s="7"/>
       <c r="X662" s="43"/>
@@ -31851,12 +31780,12 @@
       <c r="Q667" s="7"/>
       <c r="R667" s="7"/>
       <c r="S667" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T667" s="7"/>
       <c r="U667" s="7"/>
       <c r="V667" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W667" s="7"/>
       <c r="X667" s="43" t="s">
@@ -32395,12 +32324,12 @@
       <c r="Q681" s="7"/>
       <c r="R681" s="7"/>
       <c r="S681" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T681" s="7"/>
       <c r="U681" s="7"/>
       <c r="V681" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W681" s="7"/>
       <c r="X681" s="43"/>
@@ -33677,7 +33606,7 @@
       <c r="V714" s="7"/>
       <c r="W714" s="7"/>
       <c r="X714" s="43" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="715" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -34546,7 +34475,7 @@
         <v>31</v>
       </c>
       <c r="N737" s="43" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="O737" s="6" t="s">
         <v>1075</v>
@@ -35159,7 +35088,7 @@
       <c r="Q753" s="7"/>
       <c r="R753" s="7"/>
       <c r="S753" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="T753" s="7"/>
       <c r="U753" s="7"/>
@@ -35205,7 +35134,7 @@
       <c r="V754" s="7"/>
       <c r="W754" s="7"/>
       <c r="X754" s="43" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="755" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -36408,9 +36337,7 @@
       <c r="S786" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T786" s="7" t="s">
-        <v>1441</v>
-      </c>
+      <c r="T786" s="7"/>
       <c r="U786" s="7"/>
       <c r="V786" s="7"/>
       <c r="W786" s="7"/>
@@ -37288,11 +37215,11 @@
       <c r="P809" s="7"/>
       <c r="Q809" s="7"/>
       <c r="R809" s="7"/>
-      <c r="S809" s="37" t="s">
-        <v>1442</v>
+      <c r="S809" s="7" t="s">
+        <v>1438</v>
       </c>
       <c r="T809" s="37" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="U809" s="7"/>
       <c r="V809" s="7"/>
@@ -37751,7 +37678,7 @@
       <c r="Q821" s="7"/>
       <c r="R821" s="7"/>
       <c r="S821" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="T821" s="7"/>
       <c r="U821" s="7"/>
@@ -37868,7 +37795,7 @@
       <c r="S824" s="7"/>
       <c r="T824" s="7"/>
       <c r="U824" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V824" s="7"/>
       <c r="W824" s="7"/>
@@ -39204,7 +39131,7 @@
         <v>3</v>
       </c>
       <c r="N859" s="43" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="O859" s="6"/>
       <c r="P859" s="7"/>
@@ -39216,7 +39143,7 @@
       <c r="V859" s="7"/>
       <c r="W859" s="7"/>
       <c r="X859" s="56" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="860" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -41766,7 +41693,7 @@
       <c r="S926" s="7"/>
       <c r="T926" s="7"/>
       <c r="U926" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V926" s="7"/>
       <c r="W926" s="7"/>
@@ -41872,7 +41799,7 @@
         <v>9</v>
       </c>
       <c r="N929" s="43" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="O929" s="6" t="s">
         <v>1075</v>
@@ -43370,7 +43297,7 @@
       <c r="Q968" s="7"/>
       <c r="R968" s="7"/>
       <c r="S968" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="T968" s="7"/>
       <c r="U968" s="7"/>
@@ -43834,7 +43761,7 @@
       <c r="Q980" s="7"/>
       <c r="R980" s="7"/>
       <c r="S980" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="T980" s="7"/>
       <c r="U980" s="7"/>
@@ -43953,7 +43880,7 @@
       <c r="S983" s="7"/>
       <c r="T983" s="7"/>
       <c r="U983" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V983" s="7"/>
       <c r="W983" s="7"/>
@@ -43997,7 +43924,7 @@
       <c r="V984" s="7"/>
       <c r="W984" s="7"/>
       <c r="X984" s="44" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="985" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -44144,7 +44071,7 @@
       <c r="S988" s="7"/>
       <c r="T988" s="7"/>
       <c r="U988" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V988" s="7"/>
       <c r="W988" s="7"/>
@@ -47957,7 +47884,7 @@
       <c r="W1088" s="7"/>
       <c r="X1088" s="43"/>
     </row>
-    <row r="1089" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1089" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1089" s="19"/>
       <c r="F1089" s="19"/>
       <c r="G1089" s="19"/>
@@ -47994,7 +47921,7 @@
       <c r="W1089" s="7"/>
       <c r="X1089" s="43"/>
     </row>
-    <row r="1090" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1090" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1090" s="19"/>
       <c r="F1090" s="19"/>
       <c r="G1090" s="19"/>
@@ -48031,7 +47958,7 @@
       <c r="W1090" s="7"/>
       <c r="X1090" s="43"/>
     </row>
-    <row r="1091" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1091" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1091" s="19"/>
       <c r="F1091" s="19"/>
       <c r="G1091" s="19"/>
@@ -48068,7 +47995,7 @@
       <c r="W1091" s="7"/>
       <c r="X1091" s="43"/>
     </row>
-    <row r="1092" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1092" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1092" s="19"/>
       <c r="F1092" s="19"/>
       <c r="G1092" s="19"/>
@@ -48105,50 +48032,48 @@
       <c r="W1092" s="7"/>
       <c r="X1092" s="43"/>
     </row>
-    <row r="1093" spans="3:24" s="72" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C1093" s="69"/>
-      <c r="D1093" s="62"/>
-      <c r="E1093" s="63"/>
-      <c r="F1093" s="63"/>
-      <c r="G1093" s="63"/>
-      <c r="H1093" s="70"/>
-      <c r="I1093" s="64" t="s">
+    <row r="1093" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="E1093" s="19"/>
+      <c r="F1093" s="19"/>
+      <c r="G1093" s="19"/>
+      <c r="H1093" s="39"/>
+      <c r="I1093" s="55" t="s">
         <v>1014</v>
       </c>
-      <c r="J1093" s="65">
+      <c r="J1093" s="46">
         <v>38</v>
       </c>
-      <c r="K1093" s="66">
+      <c r="K1093" s="5">
         <f t="shared" si="37"/>
         <v>1092</v>
       </c>
-      <c r="L1093" s="66">
+      <c r="L1093" s="5">
         <f t="shared" si="37"/>
         <v>26</v>
       </c>
-      <c r="M1093" s="66">
+      <c r="M1093" s="5">
         <f t="shared" si="36"/>
         <v>26</v>
       </c>
-      <c r="N1093" s="67" t="s">
+      <c r="N1093" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="O1093" s="71"/>
-      <c r="P1093" s="68" t="s">
+      <c r="O1093" s="33"/>
+      <c r="P1093" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="Q1093" s="68"/>
-      <c r="R1093" s="68"/>
-      <c r="S1093" s="68"/>
-      <c r="T1093" s="68"/>
-      <c r="U1093" s="68"/>
-      <c r="V1093" s="68"/>
-      <c r="W1093" s="68"/>
-      <c r="X1093" s="67" t="s">
+      <c r="Q1093" s="7"/>
+      <c r="R1093" s="7"/>
+      <c r="S1093" s="7"/>
+      <c r="T1093" s="7"/>
+      <c r="U1093" s="7"/>
+      <c r="V1093" s="7"/>
+      <c r="W1093" s="7"/>
+      <c r="X1093" s="56" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1094" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1094" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1094" s="19"/>
       <c r="F1094" s="19"/>
       <c r="G1094" s="19"/>
@@ -48183,7 +48108,7 @@
       <c r="W1094" s="7"/>
       <c r="X1094" s="43"/>
     </row>
-    <row r="1095" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1095" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1095" s="19"/>
       <c r="F1095" s="19"/>
       <c r="G1095" s="19"/>
@@ -48220,7 +48145,7 @@
       <c r="W1095" s="7"/>
       <c r="X1095" s="43"/>
     </row>
-    <row r="1096" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1096" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1096" s="19"/>
       <c r="F1096" s="19"/>
       <c r="G1096" s="19"/>
@@ -48259,7 +48184,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1097" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1097" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1097" s="19"/>
       <c r="F1097" s="19"/>
       <c r="G1097" s="19"/>
@@ -48296,7 +48221,7 @@
       <c r="W1097" s="7"/>
       <c r="X1097" s="43"/>
     </row>
-    <row r="1098" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1098" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1098" s="19"/>
       <c r="F1098" s="19"/>
       <c r="G1098" s="19"/>
@@ -48337,7 +48262,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="1099" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1099" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1099" s="19"/>
       <c r="F1099" s="19"/>
       <c r="G1099" s="19"/>
@@ -48374,7 +48299,7 @@
       <c r="W1099" s="7"/>
       <c r="X1099" s="43"/>
     </row>
-    <row r="1100" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1100" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1100" s="19"/>
       <c r="F1100" s="19"/>
       <c r="G1100" s="19"/>
@@ -48411,7 +48336,7 @@
       <c r="W1100" s="7"/>
       <c r="X1100" s="43"/>
     </row>
-    <row r="1101" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1101" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1101" s="19"/>
       <c r="F1101" s="19"/>
       <c r="G1101" s="19"/>
@@ -48448,7 +48373,7 @@
       <c r="W1101" s="7"/>
       <c r="X1101" s="43"/>
     </row>
-    <row r="1102" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1102" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1102" s="19"/>
       <c r="F1102" s="19"/>
       <c r="G1102" s="19"/>
@@ -48487,7 +48412,7 @@
       <c r="W1102" s="7"/>
       <c r="X1102" s="43"/>
     </row>
-    <row r="1103" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1103" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1103" s="19"/>
       <c r="F1103" s="19"/>
       <c r="G1103" s="19"/>
@@ -48524,7 +48449,7 @@
       <c r="W1103" s="7"/>
       <c r="X1103" s="43"/>
     </row>
-    <row r="1104" spans="3:24" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1104" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1104" s="19"/>
       <c r="F1104" s="19"/>
       <c r="G1104" s="19"/>
@@ -49047,8 +48972,8 @@
       <c r="R1117" s="7"/>
       <c r="S1117" s="7"/>
       <c r="T1117" s="7"/>
-      <c r="U1117" s="7" t="s">
-        <v>1475</v>
+      <c r="U1117" s="37" t="s">
+        <v>1466</v>
       </c>
       <c r="V1117" s="7"/>
       <c r="W1117" s="7"/>
@@ -50035,7 +49960,7 @@
       <c r="V1143" s="7"/>
       <c r="W1143" s="7"/>
       <c r="X1143" s="43" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1144" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -51029,7 +50954,7 @@
       <c r="V1169" s="7"/>
       <c r="W1169" s="7"/>
       <c r="X1169" s="43" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1170" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -51061,12 +50986,12 @@
       <c r="Q1170" s="7"/>
       <c r="R1170" s="7"/>
       <c r="S1170" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T1170" s="7"/>
       <c r="U1170" s="7"/>
       <c r="V1170" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W1170" s="7"/>
       <c r="X1170" s="43"/>
@@ -52437,12 +52362,12 @@
       <c r="Q1206" s="7"/>
       <c r="R1206" s="7"/>
       <c r="S1206" s="7" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="T1206" s="7"/>
       <c r="U1206" s="7"/>
       <c r="V1206" s="7" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="W1206" s="7"/>
       <c r="X1206" s="43"/>
@@ -52702,11 +52627,9 @@
       <c r="Q1213" s="7"/>
       <c r="R1213" s="7"/>
       <c r="S1213" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T1213" s="7" t="s">
-        <v>1460</v>
-      </c>
+        <v>1438</v>
+      </c>
+      <c r="T1213" s="7"/>
       <c r="U1213" s="7"/>
       <c r="V1213" s="7"/>
       <c r="W1213" s="7"/>
@@ -54413,7 +54336,7 @@
       <c r="S1258" s="7"/>
       <c r="T1258" s="7"/>
       <c r="U1258" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V1258" s="7"/>
       <c r="W1258" s="7"/>
@@ -54982,9 +54905,7 @@
       <c r="S1273" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T1273" s="7" t="s">
-        <v>1441</v>
-      </c>
+      <c r="T1273" s="37"/>
       <c r="U1273" s="7"/>
       <c r="V1273" s="7"/>
       <c r="W1273" s="7"/>
@@ -55593,7 +55514,7 @@
       <c r="S1289" s="7"/>
       <c r="T1289" s="7"/>
       <c r="U1289" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V1289" s="7"/>
       <c r="W1289" s="7"/>
@@ -55747,7 +55668,7 @@
       <c r="S1293" s="7"/>
       <c r="T1293" s="7"/>
       <c r="U1293" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V1293" s="7"/>
       <c r="W1293" s="7"/>
@@ -56771,11 +56692,11 @@
       <c r="P1320" s="7"/>
       <c r="Q1320" s="7"/>
       <c r="R1320" s="7"/>
-      <c r="S1320" s="37" t="s">
+      <c r="S1320" s="7" t="s">
         <v>1438</v>
       </c>
       <c r="T1320" s="37" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="U1320" s="7"/>
       <c r="V1320" s="7"/>
@@ -57004,7 +56925,7 @@
       <c r="S1326" s="7"/>
       <c r="T1326" s="7"/>
       <c r="U1326" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V1326" s="7"/>
       <c r="W1326" s="7"/>
@@ -57669,7 +57590,7 @@
       <c r="V1343" s="7"/>
       <c r="W1343" s="7"/>
       <c r="X1343" s="58" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1344" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -58009,7 +57930,7 @@
       <c r="S1352" s="7"/>
       <c r="T1352" s="7"/>
       <c r="U1352" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V1352" s="7"/>
       <c r="W1352" s="7"/>
@@ -58395,10 +58316,10 @@
       <c r="Q1362" s="7"/>
       <c r="R1362" s="7"/>
       <c r="S1362" s="37" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="T1362" s="37" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
       <c r="U1362" s="7"/>
       <c r="V1362" s="7"/>
@@ -59515,8 +59436,8 @@
       <c r="R1391" s="7"/>
       <c r="S1391" s="7"/>
       <c r="T1391" s="7"/>
-      <c r="U1391" s="7" t="s">
-        <v>1470</v>
+      <c r="U1391" s="37" t="s">
+        <v>1461</v>
       </c>
       <c r="V1391" s="7"/>
       <c r="W1391" s="7"/>
@@ -60006,7 +59927,7 @@
       <c r="S1404" s="7"/>
       <c r="T1404" s="7"/>
       <c r="U1404" s="7" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="V1404" s="7"/>
       <c r="W1404" s="7"/>
@@ -60729,7 +60650,7 @@
       <c r="S1423" s="7"/>
       <c r="T1423" s="7"/>
       <c r="U1423" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="V1423" s="7"/>
       <c r="W1423" s="7"/>
@@ -61113,7 +61034,7 @@
       <c r="S1433" s="7"/>
       <c r="T1433" s="7"/>
       <c r="U1433" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="V1433" s="7"/>
       <c r="W1433" s="7"/>
@@ -61491,12 +61412,12 @@
       <c r="Q1443" s="7"/>
       <c r="R1443" s="7"/>
       <c r="S1443" s="7" t="s">
-        <v>1450</v>
+        <v>1472</v>
       </c>
       <c r="T1443" s="7"/>
       <c r="U1443" s="7"/>
       <c r="V1443" s="7" t="s">
-        <v>1451</v>
+        <v>1473</v>
       </c>
       <c r="W1443" s="7"/>
       <c r="X1443" s="43"/>
@@ -61646,7 +61567,7 @@
       <c r="S1447" s="7"/>
       <c r="T1447" s="7"/>
       <c r="U1447" s="7" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="V1447" s="7"/>
       <c r="W1447" s="7"/>
@@ -61692,7 +61613,7 @@
       <c r="V1448" s="7"/>
       <c r="W1448" s="7"/>
       <c r="X1448" s="56" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1449" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -62903,9 +62824,7 @@
       <c r="S1480" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T1480" s="7" t="s">
-        <v>1452</v>
-      </c>
+      <c r="T1480" s="7"/>
       <c r="U1480" s="7"/>
       <c r="V1480" s="7"/>
       <c r="W1480" s="7"/>
@@ -63658,7 +63577,7 @@
       <c r="V1500" s="7"/>
       <c r="W1500" s="7"/>
       <c r="X1500" s="56" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1501" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -63806,11 +63725,11 @@
       <c r="P1504" s="7"/>
       <c r="Q1504" s="7"/>
       <c r="R1504" s="7"/>
-      <c r="S1504" s="37" t="s">
-        <v>1442</v>
+      <c r="S1504" s="7" t="s">
+        <v>1438</v>
       </c>
       <c r="T1504" s="37" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="U1504" s="7"/>
       <c r="V1504" s="7"/>
@@ -64271,9 +64190,7 @@
       <c r="S1516" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T1516" s="7" t="s">
-        <v>1437</v>
-      </c>
+      <c r="T1516" s="7"/>
       <c r="U1516" s="7"/>
       <c r="V1516" s="7"/>
       <c r="W1516" s="7"/>
@@ -64354,12 +64271,12 @@
       <c r="S1518" s="7"/>
       <c r="T1518" s="7"/>
       <c r="U1518" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V1518" s="7"/>
       <c r="W1518" s="7"/>
       <c r="X1518" s="43" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1519" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -65353,7 +65270,7 @@
       <c r="S1544" s="7"/>
       <c r="T1544" s="7"/>
       <c r="U1544" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="V1544" s="7"/>
       <c r="W1544" s="7"/>
@@ -65728,9 +65645,7 @@
       <c r="P1554" s="7"/>
       <c r="Q1554" s="7"/>
       <c r="R1554" s="7"/>
-      <c r="S1554" s="7" t="s">
-        <v>1463</v>
-      </c>
+      <c r="S1554" s="7"/>
       <c r="T1554" s="7"/>
       <c r="U1554" s="7"/>
       <c r="V1554" s="7"/>
@@ -65771,11 +65686,11 @@
       </c>
       <c r="Q1555" s="7"/>
       <c r="R1555" s="7"/>
-      <c r="S1555" s="37" t="s">
-        <v>1442</v>
+      <c r="S1555" s="7" t="s">
+        <v>1438</v>
       </c>
       <c r="T1555" s="37" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="U1555" s="7"/>
       <c r="V1555" s="7"/>
@@ -68086,7 +68001,7 @@
         <v>1076</v>
       </c>
       <c r="U1634" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X1634" s="43"/>
     </row>
@@ -68191,7 +68106,7 @@
         <v>1074</v>
       </c>
       <c r="X1638" s="43" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1639" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68217,12 +68132,12 @@
         <v>246</v>
       </c>
       <c r="S1639" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T1639" s="7"/>
       <c r="U1639" s="7"/>
       <c r="V1639" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1639" s="43"/>
     </row>
@@ -68249,7 +68164,7 @@
         <v>84</v>
       </c>
       <c r="U1640" s="60" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="X1640" s="43"/>
     </row>
@@ -68572,8 +68487,8 @@
       <c r="N1653" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="U1653" s="1" t="s">
-        <v>1454</v>
+      <c r="U1653" s="7" t="s">
+        <v>1447</v>
       </c>
       <c r="X1653" s="43"/>
     </row>
@@ -68705,8 +68620,8 @@
       <c r="N1658" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="U1658" s="1" t="s">
-        <v>1440</v>
+      <c r="U1658" s="7" t="s">
+        <v>1439</v>
       </c>
       <c r="X1658" s="43"/>
     </row>
@@ -68786,7 +68701,7 @@
         <v>84</v>
       </c>
       <c r="U1661" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="X1661" s="43"/>
     </row>
@@ -68816,7 +68731,7 @@
         <v>1064</v>
       </c>
       <c r="U1662" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X1662" s="43" t="s">
         <v>286</v>
@@ -68848,7 +68763,7 @@
         <v>1074</v>
       </c>
       <c r="X1663" s="43" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1664" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -69028,7 +68943,7 @@
         <v>84</v>
       </c>
       <c r="U1670" s="7" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="X1670" s="43"/>
     </row>
@@ -69110,7 +69025,7 @@
         <v>278</v>
       </c>
       <c r="U1673" s="7" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="X1673" s="43"/>
     </row>
@@ -69295,7 +69210,7 @@
         <v>1074</v>
       </c>
       <c r="X1680" s="56" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1681" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -69554,7 +69469,7 @@
         <v>1076</v>
       </c>
       <c r="U1690" s="1" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="X1690" s="43"/>
     </row>
@@ -70225,7 +70140,7 @@
         <v>1074</v>
       </c>
       <c r="U1715" s="37" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="X1715" s="43" t="s">
         <v>250</v>
@@ -70281,7 +70196,7 @@
         <v>1076</v>
       </c>
       <c r="U1717" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X1717" s="43"/>
     </row>
@@ -70412,12 +70327,12 @@
         <v>246</v>
       </c>
       <c r="S1722" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="T1722" s="7"/>
       <c r="U1722" s="7"/>
       <c r="V1722" s="7" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="X1722" s="43"/>
     </row>
@@ -70753,7 +70668,7 @@
         <v>84</v>
       </c>
       <c r="U1735" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="X1735" s="43"/>
     </row>
@@ -70945,7 +70860,7 @@
         <v>84</v>
       </c>
       <c r="U1742" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="X1742" s="43"/>
     </row>
@@ -71102,7 +71017,7 @@
         <v>232</v>
       </c>
       <c r="U1748" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X1748" s="43"/>
     </row>
@@ -71387,7 +71302,7 @@
         <v>84</v>
       </c>
       <c r="U1759" s="7" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="X1759" s="43"/>
     </row>
@@ -71627,7 +71542,7 @@
         <v>210</v>
       </c>
       <c r="U1768" s="37" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="X1768" s="43"/>
     </row>
@@ -71679,7 +71594,7 @@
         <v>98</v>
       </c>
       <c r="U1770" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="X1770" s="43"/>
     </row>
@@ -72373,8 +72288,8 @@
       <c r="N1797" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="U1797" s="1" t="s">
-        <v>1449</v>
+      <c r="U1797" s="7" t="s">
+        <v>1445</v>
       </c>
       <c r="X1797" s="43"/>
     </row>
@@ -72400,8 +72315,8 @@
       <c r="N1798" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="U1798" s="60" t="s">
-        <v>1477</v>
+      <c r="U1798" s="37" t="s">
+        <v>1468</v>
       </c>
       <c r="X1798" s="43"/>
     </row>
@@ -72633,7 +72548,7 @@
         <v>84</v>
       </c>
       <c r="U1807" s="7" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="X1807" s="43"/>
     </row>
@@ -72738,7 +72653,7 @@
         <v>1074</v>
       </c>
       <c r="X1811" s="43" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1812" spans="9:24" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1476">
   <si>
     <t>Passage</t>
   </si>
@@ -4452,6 +4452,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Vis+SV</t>
   </si>
 </sst>
 </file>
@@ -5085,9 +5088,9 @@
   <dimension ref="A1:X1812"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="T1796" sqref="T1796"/>
+      <selection pane="bottomLeft" activeCell="S753" sqref="S753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -54903,7 +54906,7 @@
       <c r="Q1273" s="7"/>
       <c r="R1273" s="7"/>
       <c r="S1273" s="7" t="s">
-        <v>1438</v>
+        <v>1475</v>
       </c>
       <c r="T1273" s="37"/>
       <c r="U1273" s="7"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="1477">
   <si>
     <t>Passage</t>
   </si>
@@ -4455,6 +4455,9 @@
   </si>
   <si>
     <t>Vis+SV</t>
+  </si>
+  <si>
+    <t>EL+U</t>
   </si>
 </sst>
 </file>
@@ -5087,10 +5090,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S753" sqref="S753"/>
+      <selection pane="bottomLeft" activeCell="T981" sqref="T981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -43764,9 +43767,11 @@
       <c r="Q980" s="7"/>
       <c r="R980" s="7"/>
       <c r="S980" s="7" t="s">
-        <v>1441</v>
-      </c>
-      <c r="T980" s="7"/>
+        <v>1476</v>
+      </c>
+      <c r="T980" s="7" t="s">
+        <v>1444</v>
+      </c>
       <c r="U980" s="7"/>
       <c r="V980" s="7"/>
       <c r="W980" s="7"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -4630,7 +4630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4806,6 +4806,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5090,10 +5093,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1549" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="T981" sqref="T981"/>
+      <selection pane="bottomLeft" activeCell="S1544" sqref="S1544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -65282,7 +65285,7 @@
       </c>
       <c r="V1544" s="7"/>
       <c r="W1544" s="7"/>
-      <c r="X1544" s="43" t="s">
+      <c r="X1544" s="62" t="s">
         <v>1342</v>
       </c>
     </row>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="1485">
   <si>
     <t>Passage</t>
   </si>
@@ -4349,9 +4349,6 @@
     <t>NE</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
@@ -4409,9 +4406,6 @@
     <t>mRuqDaqyantaq iti#  mRuDaqyanta#H ||</t>
   </si>
   <si>
-    <t>N(h)+R(?)</t>
-  </si>
-  <si>
     <t>NE+re?</t>
   </si>
   <si>
@@ -4454,10 +4448,40 @@
     <t>P</t>
   </si>
   <si>
-    <t>Vis+SV</t>
-  </si>
-  <si>
     <t>EL+U</t>
+  </si>
+  <si>
+    <t>S[o]+N[s]</t>
+  </si>
+  <si>
+    <t>P[s]+S[H]+N[s]</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]+N[s]</t>
+  </si>
+  <si>
+    <t>P[o]+S[H]+N[s]</t>
+  </si>
+  <si>
+    <t>P[r]+S[H]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[H]+N[H]</t>
+  </si>
+  <si>
+    <t>P[s]+S[o]+N[o]</t>
+  </si>
+  <si>
+    <t>P[H]+S[o]+N[s]</t>
+  </si>
+  <si>
+    <t>P[H]+S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>S[r]+P?</t>
   </si>
 </sst>
 </file>
@@ -4630,7 +4654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4810,6 +4834,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5093,10 +5120,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1549" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S1544" sqref="S1544"/>
+      <selection pane="bottomLeft" activeCell="V1722" sqref="V1722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5117,10 +5144,10 @@
     <col min="16" max="17" width="5.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="89.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="265" width="9.140625" style="2"/>
     <col min="266" max="266" width="9.28515625" style="2" customWidth="1"/>
@@ -5840,7 +5867,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -8619,7 +8646,7 @@
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="43" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="74" spans="1:24" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9632,7 +9659,9 @@
       <c r="S99" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="T99" s="7"/>
+      <c r="T99" s="7" t="s">
+        <v>1472</v>
+      </c>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
@@ -10094,7 +10123,9 @@
       <c r="S111" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T111" s="7"/>
+      <c r="T111" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
@@ -10908,7 +10939,9 @@
       <c r="S132" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T132" s="7"/>
+      <c r="T132" s="7" t="s">
+        <v>1478</v>
+      </c>
       <c r="U132" s="7"/>
       <c r="V132" s="7"/>
       <c r="W132" s="7"/>
@@ -10986,7 +11019,9 @@
       <c r="S134" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T134" s="7"/>
+      <c r="T134" s="7" t="s">
+        <v>1475</v>
+      </c>
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
@@ -11995,7 +12030,9 @@
       <c r="S160" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T160" s="7"/>
+      <c r="T160" s="7" t="s">
+        <v>1476</v>
+      </c>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
@@ -12383,7 +12420,9 @@
       <c r="S170" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T170" s="7"/>
+      <c r="T170" s="7" t="s">
+        <v>1477</v>
+      </c>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
@@ -12541,7 +12580,9 @@
       <c r="S174" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T174" s="7"/>
+      <c r="T174" s="7" t="s">
+        <v>1476</v>
+      </c>
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
       <c r="W174" s="7"/>
@@ -13129,7 +13170,9 @@
       <c r="S189" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T189" s="7"/>
+      <c r="T189" s="7" t="s">
+        <v>1478</v>
+      </c>
       <c r="U189" s="7"/>
       <c r="V189" s="7"/>
       <c r="W189" s="7"/>
@@ -13207,7 +13250,9 @@
       <c r="S191" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T191" s="7"/>
+      <c r="T191" s="7" t="s">
+        <v>1475</v>
+      </c>
       <c r="U191" s="7"/>
       <c r="V191" s="7"/>
       <c r="W191" s="7"/>
@@ -17069,7 +17114,7 @@
       <c r="S289" s="7"/>
       <c r="T289" s="7"/>
       <c r="U289" s="37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
@@ -17819,7 +17864,7 @@
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
       <c r="U308" s="37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V308" s="7"/>
       <c r="W308" s="7"/>
@@ -18015,7 +18060,7 @@
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
       <c r="U313" s="37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V313" s="7"/>
       <c r="W313" s="7"/>
@@ -21141,7 +21186,7 @@
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
       <c r="U393" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V393" s="7"/>
       <c r="W393" s="7"/>
@@ -22769,7 +22814,7 @@
       <c r="S435" s="7"/>
       <c r="T435" s="7"/>
       <c r="U435" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V435" s="7"/>
       <c r="W435" s="7"/>
@@ -30461,13 +30506,13 @@
       <c r="Q633" s="7"/>
       <c r="R633" s="7"/>
       <c r="S633" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T633" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T633" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U633" s="7"/>
-      <c r="V633" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V633" s="7"/>
       <c r="W633" s="7"/>
       <c r="X633" s="43"/>
     </row>
@@ -30617,7 +30662,7 @@
       <c r="Q637" s="7"/>
       <c r="R637" s="7"/>
       <c r="S637" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="T637" s="7"/>
       <c r="U637" s="7"/>
@@ -31593,13 +31638,13 @@
       <c r="Q662" s="7"/>
       <c r="R662" s="7"/>
       <c r="S662" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T662" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T662" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U662" s="7"/>
-      <c r="V662" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V662" s="7"/>
       <c r="W662" s="7"/>
       <c r="X662" s="43"/>
     </row>
@@ -31789,13 +31834,13 @@
       <c r="Q667" s="7"/>
       <c r="R667" s="7"/>
       <c r="S667" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T667" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T667" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U667" s="7"/>
-      <c r="V667" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V667" s="7"/>
       <c r="W667" s="7"/>
       <c r="X667" s="43" t="s">
         <v>746</v>
@@ -32333,13 +32378,13 @@
       <c r="Q681" s="7"/>
       <c r="R681" s="7"/>
       <c r="S681" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T681" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T681" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U681" s="7"/>
-      <c r="V681" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V681" s="7"/>
       <c r="W681" s="7"/>
       <c r="X681" s="43"/>
     </row>
@@ -33615,7 +33660,7 @@
       <c r="V714" s="7"/>
       <c r="W714" s="7"/>
       <c r="X714" s="43" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="715" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -34484,7 +34529,7 @@
         <v>31</v>
       </c>
       <c r="N737" s="43" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="O737" s="6" t="s">
         <v>1075</v>
@@ -35097,7 +35142,7 @@
       <c r="Q753" s="7"/>
       <c r="R753" s="7"/>
       <c r="S753" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="T753" s="7"/>
       <c r="U753" s="7"/>
@@ -35143,7 +35188,7 @@
       <c r="V754" s="7"/>
       <c r="W754" s="7"/>
       <c r="X754" s="43" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="755" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -36346,7 +36391,9 @@
       <c r="S786" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T786" s="7"/>
+      <c r="T786" s="7" t="s">
+        <v>1479</v>
+      </c>
       <c r="U786" s="7"/>
       <c r="V786" s="7"/>
       <c r="W786" s="7"/>
@@ -37228,7 +37275,7 @@
         <v>1438</v>
       </c>
       <c r="T809" s="37" t="s">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="U809" s="7"/>
       <c r="V809" s="7"/>
@@ -37687,7 +37734,7 @@
       <c r="Q821" s="7"/>
       <c r="R821" s="7"/>
       <c r="S821" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="T821" s="7"/>
       <c r="U821" s="7"/>
@@ -39140,7 +39187,7 @@
         <v>3</v>
       </c>
       <c r="N859" s="43" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O859" s="6"/>
       <c r="P859" s="7"/>
@@ -39152,7 +39199,7 @@
       <c r="V859" s="7"/>
       <c r="W859" s="7"/>
       <c r="X859" s="56" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="860" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -41808,7 +41855,7 @@
         <v>9</v>
       </c>
       <c r="N929" s="43" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O929" s="6" t="s">
         <v>1075</v>
@@ -43306,7 +43353,7 @@
       <c r="Q968" s="7"/>
       <c r="R968" s="7"/>
       <c r="S968" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="T968" s="7"/>
       <c r="U968" s="7"/>
@@ -43425,7 +43472,9 @@
       <c r="S971" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="T971" s="7"/>
+      <c r="T971" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U971" s="7"/>
       <c r="V971" s="7"/>
       <c r="W971" s="7"/>
@@ -43770,10 +43819,10 @@
       <c r="Q980" s="7"/>
       <c r="R980" s="7"/>
       <c r="S980" s="7" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="T980" s="7" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="U980" s="7"/>
       <c r="V980" s="7"/>
@@ -43891,7 +43940,7 @@
       <c r="S983" s="7"/>
       <c r="T983" s="7"/>
       <c r="U983" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V983" s="7"/>
       <c r="W983" s="7"/>
@@ -43935,7 +43984,7 @@
       <c r="V984" s="7"/>
       <c r="W984" s="7"/>
       <c r="X984" s="44" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="985" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -48984,7 +49033,7 @@
       <c r="S1117" s="7"/>
       <c r="T1117" s="7"/>
       <c r="U1117" s="37" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="V1117" s="7"/>
       <c r="W1117" s="7"/>
@@ -49971,7 +50020,7 @@
       <c r="V1143" s="7"/>
       <c r="W1143" s="7"/>
       <c r="X1143" s="43" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1144" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -50965,7 +51014,7 @@
       <c r="V1169" s="7"/>
       <c r="W1169" s="7"/>
       <c r="X1169" s="43" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1170" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -50997,13 +51046,13 @@
       <c r="Q1170" s="7"/>
       <c r="R1170" s="7"/>
       <c r="S1170" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T1170" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T1170" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U1170" s="7"/>
-      <c r="V1170" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V1170" s="7"/>
       <c r="W1170" s="7"/>
       <c r="X1170" s="43"/>
     </row>
@@ -52373,13 +52422,13 @@
       <c r="Q1206" s="7"/>
       <c r="R1206" s="7"/>
       <c r="S1206" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="T1206" s="7"/>
+        <v>1451</v>
+      </c>
+      <c r="T1206" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U1206" s="7"/>
-      <c r="V1206" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V1206" s="7"/>
       <c r="W1206" s="7"/>
       <c r="X1206" s="43"/>
     </row>
@@ -52640,7 +52689,9 @@
       <c r="S1213" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T1213" s="7"/>
+      <c r="T1213" s="7" t="s">
+        <v>1481</v>
+      </c>
       <c r="U1213" s="7"/>
       <c r="V1213" s="7"/>
       <c r="W1213" s="7"/>
@@ -53968,7 +54019,7 @@
       <c r="R1248" s="7"/>
       <c r="S1248" s="7"/>
       <c r="T1248" s="7"/>
-      <c r="U1248" s="37"/>
+      <c r="U1248" s="7"/>
       <c r="V1248" s="7"/>
       <c r="W1248" s="7"/>
       <c r="X1248" s="43"/>
@@ -54914,9 +54965,11 @@
       <c r="Q1273" s="7"/>
       <c r="R1273" s="7"/>
       <c r="S1273" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="T1273" s="37"/>
+        <v>1438</v>
+      </c>
+      <c r="T1273" s="37" t="s">
+        <v>1480</v>
+      </c>
       <c r="U1273" s="7"/>
       <c r="V1273" s="7"/>
       <c r="W1273" s="7"/>
@@ -56707,7 +56760,7 @@
         <v>1438</v>
       </c>
       <c r="T1320" s="37" t="s">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="U1320" s="7"/>
       <c r="V1320" s="7"/>
@@ -56936,7 +56989,7 @@
       <c r="S1326" s="7"/>
       <c r="T1326" s="7"/>
       <c r="U1326" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V1326" s="7"/>
       <c r="W1326" s="7"/>
@@ -57601,7 +57654,7 @@
       <c r="V1343" s="7"/>
       <c r="W1343" s="7"/>
       <c r="X1343" s="58" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1344" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -58326,11 +58379,11 @@
       <c r="P1362" s="7"/>
       <c r="Q1362" s="7"/>
       <c r="R1362" s="7"/>
-      <c r="S1362" s="37" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T1362" s="37" t="s">
-        <v>1474</v>
+      <c r="S1362" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="T1362" s="7" t="s">
+        <v>1472</v>
       </c>
       <c r="U1362" s="7"/>
       <c r="V1362" s="7"/>
@@ -59448,7 +59501,7 @@
       <c r="S1391" s="7"/>
       <c r="T1391" s="7"/>
       <c r="U1391" s="37" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="V1391" s="7"/>
       <c r="W1391" s="7"/>
@@ -59938,7 +59991,7 @@
       <c r="S1404" s="7"/>
       <c r="T1404" s="7"/>
       <c r="U1404" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="V1404" s="7"/>
       <c r="W1404" s="7"/>
@@ -60661,7 +60714,7 @@
       <c r="S1423" s="7"/>
       <c r="T1423" s="7"/>
       <c r="U1423" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V1423" s="7"/>
       <c r="W1423" s="7"/>
@@ -61045,7 +61098,7 @@
       <c r="S1433" s="7"/>
       <c r="T1433" s="7"/>
       <c r="U1433" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="V1433" s="7"/>
       <c r="W1433" s="7"/>
@@ -61423,13 +61476,13 @@
       <c r="Q1443" s="7"/>
       <c r="R1443" s="7"/>
       <c r="S1443" s="7" t="s">
-        <v>1472</v>
-      </c>
-      <c r="T1443" s="7"/>
+        <v>1470</v>
+      </c>
+      <c r="T1443" s="7" t="s">
+        <v>1471</v>
+      </c>
       <c r="U1443" s="7"/>
-      <c r="V1443" s="7" t="s">
-        <v>1473</v>
-      </c>
+      <c r="V1443" s="7"/>
       <c r="W1443" s="7"/>
       <c r="X1443" s="43"/>
     </row>
@@ -61577,8 +61630,8 @@
       <c r="R1447" s="7"/>
       <c r="S1447" s="7"/>
       <c r="T1447" s="7"/>
-      <c r="U1447" s="7" t="s">
-        <v>1469</v>
+      <c r="U1447" s="63" t="s">
+        <v>1467</v>
       </c>
       <c r="V1447" s="7"/>
       <c r="W1447" s="7"/>
@@ -61624,7 +61677,7 @@
       <c r="V1448" s="7"/>
       <c r="W1448" s="7"/>
       <c r="X1448" s="56" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1449" spans="5:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -62835,7 +62888,9 @@
       <c r="S1480" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="T1480" s="7"/>
+      <c r="T1480" s="7" t="s">
+        <v>1482</v>
+      </c>
       <c r="U1480" s="7"/>
       <c r="V1480" s="7"/>
       <c r="W1480" s="7"/>
@@ -63588,7 +63643,7 @@
       <c r="V1500" s="7"/>
       <c r="W1500" s="7"/>
       <c r="X1500" s="56" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1501" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -63740,7 +63795,7 @@
         <v>1438</v>
       </c>
       <c r="T1504" s="37" t="s">
-        <v>1440</v>
+        <v>1483</v>
       </c>
       <c r="U1504" s="7"/>
       <c r="V1504" s="7"/>
@@ -64199,9 +64254,11 @@
       <c r="Q1516" s="7"/>
       <c r="R1516" s="7"/>
       <c r="S1516" s="7" t="s">
-        <v>1438</v>
-      </c>
-      <c r="T1516" s="7"/>
+        <v>1437</v>
+      </c>
+      <c r="T1516" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U1516" s="7"/>
       <c r="V1516" s="7"/>
       <c r="W1516" s="7"/>
@@ -64287,7 +64344,7 @@
       <c r="V1518" s="7"/>
       <c r="W1518" s="7"/>
       <c r="X1518" s="43" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1519" spans="4:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -65281,7 +65338,7 @@
       <c r="S1544" s="7"/>
       <c r="T1544" s="7"/>
       <c r="U1544" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="V1544" s="7"/>
       <c r="W1544" s="7"/>
@@ -65701,7 +65758,7 @@
         <v>1438</v>
       </c>
       <c r="T1555" s="37" t="s">
-        <v>1440</v>
+        <v>1484</v>
       </c>
       <c r="U1555" s="7"/>
       <c r="V1555" s="7"/>
@@ -68117,7 +68174,7 @@
         <v>1074</v>
       </c>
       <c r="X1638" s="43" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1639" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68143,13 +68200,13 @@
         <v>246</v>
       </c>
       <c r="S1639" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T1639" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T1639" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U1639" s="7"/>
-      <c r="V1639" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V1639" s="7"/>
       <c r="X1639" s="43"/>
     </row>
     <row r="1640" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68175,7 +68232,7 @@
         <v>84</v>
       </c>
       <c r="U1640" s="60" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="X1640" s="43"/>
     </row>
@@ -68499,7 +68556,7 @@
         <v>292</v>
       </c>
       <c r="U1653" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X1653" s="43"/>
     </row>
@@ -68712,7 +68769,7 @@
         <v>84</v>
       </c>
       <c r="U1661" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1661" s="43"/>
     </row>
@@ -68774,7 +68831,7 @@
         <v>1074</v>
       </c>
       <c r="X1663" s="43" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1664" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -68954,7 +69011,7 @@
         <v>84</v>
       </c>
       <c r="U1670" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="X1670" s="43"/>
     </row>
@@ -69036,7 +69093,7 @@
         <v>278</v>
       </c>
       <c r="U1673" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X1673" s="43"/>
     </row>
@@ -69221,7 +69278,7 @@
         <v>1074</v>
       </c>
       <c r="X1680" s="56" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1681" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -69480,7 +69537,7 @@
         <v>1076</v>
       </c>
       <c r="U1690" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X1690" s="43"/>
     </row>
@@ -70151,7 +70208,7 @@
         <v>1074</v>
       </c>
       <c r="U1715" s="37" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="X1715" s="43" t="s">
         <v>250</v>
@@ -70338,13 +70395,13 @@
         <v>246</v>
       </c>
       <c r="S1722" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T1722" s="7"/>
+        <v>1441</v>
+      </c>
+      <c r="T1722" s="7" t="s">
+        <v>1443</v>
+      </c>
       <c r="U1722" s="7"/>
-      <c r="V1722" s="7" t="s">
-        <v>1444</v>
-      </c>
+      <c r="V1722" s="7"/>
       <c r="X1722" s="43"/>
     </row>
     <row r="1723" spans="9:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -70679,7 +70736,7 @@
         <v>84</v>
       </c>
       <c r="U1735" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1735" s="43"/>
     </row>
@@ -70871,7 +70928,7 @@
         <v>84</v>
       </c>
       <c r="U1742" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1742" s="43"/>
     </row>
@@ -71313,7 +71370,7 @@
         <v>84</v>
       </c>
       <c r="U1759" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1759" s="43"/>
     </row>
@@ -71553,7 +71610,7 @@
         <v>210</v>
       </c>
       <c r="U1768" s="37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X1768" s="43"/>
     </row>
@@ -72300,7 +72357,7 @@
         <v>84</v>
       </c>
       <c r="U1797" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="X1797" s="43"/>
     </row>
@@ -72327,7 +72384,7 @@
         <v>201</v>
       </c>
       <c r="U1798" s="37" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="X1798" s="43"/>
     </row>
@@ -72559,7 +72616,7 @@
         <v>84</v>
       </c>
       <c r="U1807" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="X1807" s="43"/>
     </row>
@@ -72664,7 +72721,7 @@
         <v>1074</v>
       </c>
       <c r="X1811" s="43" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1812" spans="9:24" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -5120,10 +5120,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1069" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1722" sqref="V1722"/>
+      <selection pane="bottomLeft" activeCell="N1077" sqref="N1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="1479">
   <si>
     <t>Passage</t>
   </si>
@@ -5095,10 +5095,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1800" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A973" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1807" sqref="U1807"/>
+      <selection pane="bottomLeft" activeCell="T981" sqref="T981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -41844,9 +41844,7 @@
       <c r="S980" s="7" t="s">
         <v>1464</v>
       </c>
-      <c r="T980" s="7" t="s">
-        <v>1439</v>
-      </c>
+      <c r="T980" s="7"/>
       <c r="U980" s="7"/>
       <c r="V980" s="43"/>
     </row>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="1495">
   <si>
     <t>Passage</t>
   </si>
@@ -4452,19 +4452,85 @@
   </si>
   <si>
     <t>S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>GS-1.4-1</t>
+  </si>
+  <si>
+    <t>GS-1.4-2</t>
+  </si>
+  <si>
+    <t>GS-1.4-3</t>
+  </si>
+  <si>
+    <t>GS-1.4-4</t>
+  </si>
+  <si>
+    <t>GS-1.4-5</t>
+  </si>
+  <si>
+    <t>GS-1.4-6</t>
+  </si>
+  <si>
+    <t>GS-1.4-7</t>
+  </si>
+  <si>
+    <t>GS-1.4-8</t>
+  </si>
+  <si>
+    <t>GS-1.4-9</t>
+  </si>
+  <si>
+    <t>GS-1.4-10</t>
+  </si>
+  <si>
+    <t>GS-1.4-11</t>
+  </si>
+  <si>
+    <t>GS-1.4-12</t>
+  </si>
+  <si>
+    <t>GS-1.4-13</t>
+  </si>
+  <si>
+    <t>GS-1.4-14</t>
+  </si>
+  <si>
+    <t>GS-1.4-15</t>
+  </si>
+  <si>
+    <t>GS-1.4-16</t>
+  </si>
+  <si>
+    <t>GS-1.4-17</t>
+  </si>
+  <si>
+    <t>GS-1.4-18</t>
+  </si>
+  <si>
+    <t>GS-1.4-19</t>
+  </si>
+  <si>
+    <t>GS-1.4-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4617,183 +4683,214 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5077,10 +5174,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1799" sqref="U1799"/>
+      <selection pane="bottomLeft" activeCell="G1127" sqref="A1127:XFD1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8150,7 +8247,9 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="H66" s="62" t="s">
+        <v>1475</v>
+      </c>
       <c r="I66" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8189,7 +8288,9 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="H67" s="62" t="s">
+        <v>1475</v>
+      </c>
       <c r="I67" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8228,7 +8329,9 @@
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="H68" s="62" t="s">
+        <v>1475</v>
+      </c>
       <c r="I68" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8267,7 +8370,9 @@
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="H69" s="62" t="s">
+        <v>1475</v>
+      </c>
       <c r="I69" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8306,7 +8411,9 @@
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="H70" s="62" t="s">
+        <v>1475</v>
+      </c>
       <c r="I70" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8941,7 +9048,9 @@
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
+      <c r="H87" s="62" t="s">
+        <v>1476</v>
+      </c>
       <c r="I87" s="47" t="s">
         <v>1047</v>
       </c>
@@ -8977,7 +9086,9 @@
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+      <c r="H88" s="62" t="s">
+        <v>1476</v>
+      </c>
       <c r="I88" s="47" t="s">
         <v>1047</v>
       </c>
@@ -9013,7 +9124,9 @@
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="H89" s="62" t="s">
+        <v>1476</v>
+      </c>
       <c r="I89" s="47" t="s">
         <v>1047</v>
       </c>
@@ -9049,7 +9162,9 @@
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
+      <c r="H90" s="62" t="s">
+        <v>1476</v>
+      </c>
       <c r="I90" s="47" t="s">
         <v>1047</v>
       </c>
@@ -9088,7 +9203,9 @@
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
+      <c r="H91" s="62" t="s">
+        <v>1476</v>
+      </c>
       <c r="I91" s="47" t="s">
         <v>1047</v>
       </c>
@@ -10639,7 +10756,9 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
+      <c r="H133" s="62" t="s">
+        <v>1477</v>
+      </c>
       <c r="I133" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10675,7 +10794,9 @@
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
+      <c r="H134" s="62" t="s">
+        <v>1477</v>
+      </c>
       <c r="I134" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10715,7 +10836,9 @@
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
+      <c r="H135" s="62" t="s">
+        <v>1477</v>
+      </c>
       <c r="I135" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10859,7 +10982,9 @@
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
+      <c r="H139" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I139" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10895,7 +11020,9 @@
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
+      <c r="H140" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I140" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10931,7 +11058,9 @@
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
+      <c r="H141" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I141" s="47" t="s">
         <v>1046</v>
       </c>
@@ -10967,7 +11096,9 @@
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
+      <c r="H142" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I142" s="47" t="s">
         <v>1046</v>
       </c>
@@ -11003,7 +11134,9 @@
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
+      <c r="H143" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I143" s="47" t="s">
         <v>1046</v>
       </c>
@@ -11039,7 +11172,9 @@
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
+      <c r="H144" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I144" s="47" t="s">
         <v>1046</v>
       </c>
@@ -11077,7 +11212,9 @@
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
+      <c r="H145" s="62" t="s">
+        <v>1478</v>
+      </c>
       <c r="I145" s="47" t="s">
         <v>1046</v>
       </c>
@@ -12116,7 +12253,9 @@
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
+      <c r="H173" s="62" t="s">
+        <v>1479</v>
+      </c>
       <c r="I173" s="47" t="s">
         <v>1045</v>
       </c>
@@ -12156,7 +12295,9 @@
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
+      <c r="H174" s="62" t="s">
+        <v>1479</v>
+      </c>
       <c r="I174" s="47" t="s">
         <v>1045</v>
       </c>
@@ -12196,7 +12337,9 @@
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
+      <c r="H175" s="62" t="s">
+        <v>1479</v>
+      </c>
       <c r="I175" s="47" t="s">
         <v>1045</v>
       </c>
@@ -12232,7 +12375,9 @@
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
       <c r="G176" s="38"/>
-      <c r="H176" s="35"/>
+      <c r="H176" s="62" t="s">
+        <v>1479</v>
+      </c>
       <c r="I176" s="47" t="s">
         <v>1045</v>
       </c>
@@ -12976,7 +13121,9 @@
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
+      <c r="H196" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I196" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13012,7 +13159,9 @@
       <c r="E197" s="19"/>
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
+      <c r="H197" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I197" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13048,7 +13197,9 @@
       <c r="E198" s="19"/>
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
+      <c r="H198" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I198" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13084,7 +13235,9 @@
       <c r="E199" s="19"/>
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
+      <c r="H199" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I199" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13120,7 +13273,9 @@
       <c r="E200" s="19"/>
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
+      <c r="H200" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I200" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13156,7 +13311,9 @@
       <c r="E201" s="19"/>
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
-      <c r="H201" s="38"/>
+      <c r="H201" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I201" s="47" t="s">
         <v>1045</v>
       </c>
@@ -13194,7 +13351,9 @@
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
-      <c r="H202" s="38"/>
+      <c r="H202" s="62" t="s">
+        <v>1480</v>
+      </c>
       <c r="I202" s="47" t="s">
         <v>1045</v>
       </c>
@@ -14058,7 +14217,9 @@
       <c r="E225" s="19"/>
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
+      <c r="H225" s="62" t="s">
+        <v>1482</v>
+      </c>
       <c r="I225" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14098,7 +14259,9 @@
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
+      <c r="H226" s="62" t="s">
+        <v>1482</v>
+      </c>
       <c r="I226" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14134,7 +14297,9 @@
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
+      <c r="H227" s="62" t="s">
+        <v>1482</v>
+      </c>
       <c r="I227" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14172,7 +14337,9 @@
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
+      <c r="H228" s="62" t="s">
+        <v>1482</v>
+      </c>
       <c r="I228" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14658,7 +14825,9 @@
       <c r="E241" s="19"/>
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
-      <c r="H241" s="38"/>
+      <c r="H241" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I241" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14696,7 +14865,9 @@
       <c r="E242" s="19"/>
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
-      <c r="H242" s="38"/>
+      <c r="H242" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I242" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14736,7 +14907,9 @@
       <c r="E243" s="19"/>
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
-      <c r="H243" s="38"/>
+      <c r="H243" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I243" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14774,7 +14947,9 @@
       <c r="E244" s="19"/>
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
+      <c r="H244" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I244" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14810,7 +14985,9 @@
       <c r="E245" s="19"/>
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
+      <c r="H245" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I245" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14846,7 +15023,9 @@
       <c r="E246" s="19"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
+      <c r="H246" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I246" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14882,7 +15061,9 @@
       <c r="E247" s="19"/>
       <c r="F247" s="38"/>
       <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
+      <c r="H247" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I247" s="47" t="s">
         <v>1044</v>
       </c>
@@ -14918,7 +15099,9 @@
       <c r="E248" s="19"/>
       <c r="F248" s="38"/>
       <c r="G248" s="19"/>
-      <c r="H248" s="19"/>
+      <c r="H248" s="62" t="s">
+        <v>1481</v>
+      </c>
       <c r="I248" s="47" t="s">
         <v>1044</v>
       </c>
@@ -15522,7 +15705,9 @@
       <c r="E264" s="19"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
+      <c r="H264" s="62" t="s">
+        <v>1483</v>
+      </c>
       <c r="I264" s="47" t="s">
         <v>1043</v>
       </c>
@@ -15558,7 +15743,9 @@
       <c r="E265" s="19"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
-      <c r="H265" s="19"/>
+      <c r="H265" s="62" t="s">
+        <v>1483</v>
+      </c>
       <c r="I265" s="47" t="s">
         <v>1043</v>
       </c>
@@ -15594,7 +15781,9 @@
       <c r="E266" s="19"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
-      <c r="H266" s="19"/>
+      <c r="H266" s="62" t="s">
+        <v>1483</v>
+      </c>
       <c r="I266" s="47" t="s">
         <v>1043</v>
       </c>
@@ -15630,7 +15819,9 @@
       <c r="E267" s="19"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
-      <c r="H267" s="38"/>
+      <c r="H267" s="62" t="s">
+        <v>1483</v>
+      </c>
       <c r="I267" s="47" t="s">
         <v>1043</v>
       </c>
@@ -15666,7 +15857,9 @@
       <c r="E268" s="19"/>
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
-      <c r="H268" s="38"/>
+      <c r="H268" s="62" t="s">
+        <v>1483</v>
+      </c>
       <c r="I268" s="47" t="s">
         <v>1043</v>
       </c>
@@ -16830,7 +17023,9 @@
       <c r="E299" s="19"/>
       <c r="F299" s="19"/>
       <c r="G299" s="38"/>
-      <c r="H299" s="35"/>
+      <c r="H299" s="62" t="s">
+        <v>1484</v>
+      </c>
       <c r="I299" s="47" t="s">
         <v>1041</v>
       </c>
@@ -16866,7 +17061,9 @@
       <c r="E300" s="19"/>
       <c r="F300" s="19"/>
       <c r="G300" s="38"/>
-      <c r="H300" s="35"/>
+      <c r="H300" s="62" t="s">
+        <v>1484</v>
+      </c>
       <c r="I300" s="47" t="s">
         <v>1041</v>
       </c>
@@ -16904,7 +17101,9 @@
       <c r="E301" s="19"/>
       <c r="F301" s="19"/>
       <c r="G301" s="38"/>
-      <c r="H301" s="35"/>
+      <c r="H301" s="62" t="s">
+        <v>1484</v>
+      </c>
       <c r="I301" s="47" t="s">
         <v>1041</v>
       </c>
@@ -16940,7 +17139,9 @@
       <c r="E302" s="19"/>
       <c r="F302" s="19"/>
       <c r="G302" s="19"/>
-      <c r="H302" s="19"/>
+      <c r="H302" s="62" t="s">
+        <v>1484</v>
+      </c>
       <c r="I302" s="47" t="s">
         <v>1041</v>
       </c>
@@ -19580,7 +19781,9 @@
       <c r="E373" s="19"/>
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
-      <c r="H373" s="19"/>
+      <c r="H373" s="62" t="s">
+        <v>1485</v>
+      </c>
       <c r="I373" s="47" t="s">
         <v>1038</v>
       </c>
@@ -19616,7 +19819,9 @@
       <c r="E374" s="19"/>
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
-      <c r="H374" s="19"/>
+      <c r="H374" s="62" t="s">
+        <v>1485</v>
+      </c>
       <c r="I374" s="47" t="s">
         <v>1038</v>
       </c>
@@ -19652,7 +19857,9 @@
       <c r="E375" s="19"/>
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
-      <c r="H375" s="19"/>
+      <c r="H375" s="62" t="s">
+        <v>1485</v>
+      </c>
       <c r="I375" s="47" t="s">
         <v>1038</v>
       </c>
@@ -23652,7 +23859,9 @@
       <c r="E484" s="19"/>
       <c r="F484" s="19"/>
       <c r="G484" s="19"/>
-      <c r="H484" s="19"/>
+      <c r="H484" s="62" t="s">
+        <v>1486</v>
+      </c>
       <c r="I484" s="47" t="s">
         <v>1035</v>
       </c>
@@ -23688,7 +23897,9 @@
       <c r="E485" s="19"/>
       <c r="F485" s="19"/>
       <c r="G485" s="19"/>
-      <c r="H485" s="19"/>
+      <c r="H485" s="62" t="s">
+        <v>1486</v>
+      </c>
       <c r="I485" s="47" t="s">
         <v>1035</v>
       </c>
@@ -23724,7 +23935,9 @@
       <c r="E486" s="19"/>
       <c r="F486" s="19"/>
       <c r="G486" s="19"/>
-      <c r="H486" s="19"/>
+      <c r="H486" s="62" t="s">
+        <v>1486</v>
+      </c>
       <c r="I486" s="47" t="s">
         <v>1035</v>
       </c>
@@ -23762,7 +23975,9 @@
       <c r="E487" s="19"/>
       <c r="F487" s="19"/>
       <c r="G487" s="19"/>
-      <c r="H487" s="19"/>
+      <c r="H487" s="62" t="s">
+        <v>1486</v>
+      </c>
       <c r="I487" s="47" t="s">
         <v>1035</v>
       </c>
@@ -23798,7 +24013,7 @@
       <c r="E488" s="19"/>
       <c r="F488" s="19"/>
       <c r="G488" s="19"/>
-      <c r="H488" s="19"/>
+      <c r="H488" s="62"/>
       <c r="I488" s="47" t="s">
         <v>1035</v>
       </c>
@@ -24246,7 +24461,9 @@
       <c r="E500" s="19"/>
       <c r="F500" s="19"/>
       <c r="G500" s="19"/>
-      <c r="H500" s="19"/>
+      <c r="H500" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="I500" s="47" t="s">
         <v>1035</v>
       </c>
@@ -24282,7 +24499,9 @@
       <c r="E501" s="19"/>
       <c r="F501" s="19"/>
       <c r="G501" s="19"/>
-      <c r="H501" s="19"/>
+      <c r="H501" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="I501" s="47" t="s">
         <v>1035</v>
       </c>
@@ -24322,7 +24541,9 @@
       <c r="E502" s="19"/>
       <c r="F502" s="19"/>
       <c r="G502" s="19"/>
-      <c r="H502" s="19"/>
+      <c r="H502" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="I502" s="47" t="s">
         <v>1035</v>
       </c>
@@ -25480,7 +25701,9 @@
       <c r="E534" s="19"/>
       <c r="F534" s="19"/>
       <c r="G534" s="19"/>
-      <c r="H534" s="19"/>
+      <c r="H534" s="62" t="s">
+        <v>1488</v>
+      </c>
       <c r="I534" s="47" t="s">
         <v>1034</v>
       </c>
@@ -25520,7 +25743,9 @@
       <c r="E535" s="19"/>
       <c r="F535" s="19"/>
       <c r="G535" s="19"/>
-      <c r="H535" s="19"/>
+      <c r="H535" s="62" t="s">
+        <v>1488</v>
+      </c>
       <c r="I535" s="47" t="s">
         <v>1034</v>
       </c>
@@ -25556,7 +25781,9 @@
       <c r="E536" s="19"/>
       <c r="F536" s="19"/>
       <c r="G536" s="19"/>
-      <c r="H536" s="19"/>
+      <c r="H536" s="62" t="s">
+        <v>1488</v>
+      </c>
       <c r="I536" s="47" t="s">
         <v>1034</v>
       </c>
@@ -25596,7 +25823,9 @@
       <c r="E537" s="19"/>
       <c r="F537" s="19"/>
       <c r="G537" s="19"/>
-      <c r="H537" s="19"/>
+      <c r="H537" s="62" t="s">
+        <v>1488</v>
+      </c>
       <c r="I537" s="47" t="s">
         <v>1034</v>
       </c>
@@ -25636,7 +25865,9 @@
       <c r="E538" s="19"/>
       <c r="F538" s="19"/>
       <c r="G538" s="19"/>
-      <c r="H538" s="19"/>
+      <c r="H538" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I538" s="47" t="s">
         <v>1033</v>
       </c>
@@ -25674,7 +25905,9 @@
       <c r="E539" s="19"/>
       <c r="F539" s="19"/>
       <c r="G539" s="19"/>
-      <c r="H539" s="19"/>
+      <c r="H539" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I539" s="47" t="s">
         <v>1033</v>
       </c>
@@ -25712,7 +25945,9 @@
       <c r="E540" s="19"/>
       <c r="F540" s="19"/>
       <c r="G540" s="19"/>
-      <c r="H540" s="19"/>
+      <c r="H540" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I540" s="47" t="s">
         <v>1033</v>
       </c>
@@ -25748,7 +25983,9 @@
       <c r="E541" s="19"/>
       <c r="F541" s="19"/>
       <c r="G541" s="19"/>
-      <c r="H541" s="19"/>
+      <c r="H541" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I541" s="47" t="s">
         <v>1033</v>
       </c>
@@ -25784,7 +26021,9 @@
       <c r="E542" s="19"/>
       <c r="F542" s="19"/>
       <c r="G542" s="19"/>
-      <c r="H542" s="19"/>
+      <c r="H542" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I542" s="47" t="s">
         <v>1033</v>
       </c>
@@ -25820,7 +26059,9 @@
       <c r="E543" s="19"/>
       <c r="F543" s="19"/>
       <c r="G543" s="19"/>
-      <c r="H543" s="19"/>
+      <c r="H543" s="62" t="s">
+        <v>1489</v>
+      </c>
       <c r="I543" s="47" t="s">
         <v>1033</v>
       </c>
@@ -32036,7 +32277,9 @@
       <c r="E711" s="19"/>
       <c r="F711" s="19"/>
       <c r="G711" s="19"/>
-      <c r="H711" s="19"/>
+      <c r="H711" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I711" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32071,7 +32314,9 @@
       <c r="E712" s="19"/>
       <c r="F712" s="19"/>
       <c r="G712" s="19"/>
-      <c r="H712" s="19"/>
+      <c r="H712" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I712" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32106,7 +32351,9 @@
       <c r="E713" s="19"/>
       <c r="F713" s="19"/>
       <c r="G713" s="19"/>
-      <c r="H713" s="19"/>
+      <c r="H713" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I713" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32141,7 +32388,9 @@
       <c r="E714" s="19"/>
       <c r="F714" s="19"/>
       <c r="G714" s="19"/>
-      <c r="H714" s="19"/>
+      <c r="H714" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I714" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32180,7 +32429,9 @@
       <c r="E715" s="19"/>
       <c r="F715" s="19"/>
       <c r="G715" s="19"/>
-      <c r="H715" s="19"/>
+      <c r="H715" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I715" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32219,7 +32470,9 @@
       <c r="E716" s="19"/>
       <c r="F716" s="19"/>
       <c r="G716" s="19"/>
-      <c r="H716" s="19"/>
+      <c r="H716" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I716" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32254,7 +32507,9 @@
       <c r="E717" s="19"/>
       <c r="F717" s="19"/>
       <c r="G717" s="19"/>
-      <c r="H717" s="19"/>
+      <c r="H717" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I717" s="47" t="s">
         <v>1026</v>
       </c>
@@ -32289,7 +32544,9 @@
       <c r="E718" s="19"/>
       <c r="F718" s="19"/>
       <c r="G718" s="19"/>
-      <c r="H718" s="19"/>
+      <c r="H718" s="62" t="s">
+        <v>1490</v>
+      </c>
       <c r="I718" s="47" t="s">
         <v>1026</v>
       </c>
@@ -34772,7 +35029,9 @@
       <c r="E787" s="19"/>
       <c r="F787" s="19"/>
       <c r="G787" s="19"/>
-      <c r="H787" s="19"/>
+      <c r="H787" s="62" t="s">
+        <v>1493</v>
+      </c>
       <c r="I787" s="47" t="s">
         <v>1025</v>
       </c>
@@ -34807,7 +35066,9 @@
       <c r="E788" s="19"/>
       <c r="F788" s="19"/>
       <c r="G788" s="19"/>
-      <c r="H788" s="19"/>
+      <c r="H788" s="62" t="s">
+        <v>1493</v>
+      </c>
       <c r="I788" s="47" t="s">
         <v>1025</v>
       </c>
@@ -34842,7 +35103,9 @@
       <c r="E789" s="19"/>
       <c r="F789" s="19"/>
       <c r="G789" s="19"/>
-      <c r="H789" s="19"/>
+      <c r="H789" s="62" t="s">
+        <v>1493</v>
+      </c>
       <c r="I789" s="47" t="s">
         <v>1025</v>
       </c>
@@ -34877,7 +35140,9 @@
       <c r="E790" s="19"/>
       <c r="F790" s="19"/>
       <c r="G790" s="19"/>
-      <c r="H790" s="19"/>
+      <c r="H790" s="62" t="s">
+        <v>1493</v>
+      </c>
       <c r="I790" s="47" t="s">
         <v>1025</v>
       </c>
@@ -34917,7 +35182,9 @@
       <c r="E791" s="19"/>
       <c r="F791" s="19"/>
       <c r="G791" s="19"/>
-      <c r="H791" s="19"/>
+      <c r="H791" s="62" t="s">
+        <v>1493</v>
+      </c>
       <c r="I791" s="47" t="s">
         <v>1025</v>
       </c>
@@ -37546,7 +37813,7 @@
       <c r="E863" s="19"/>
       <c r="F863" s="19"/>
       <c r="G863" s="19"/>
-      <c r="H863" s="19"/>
+      <c r="H863" s="62"/>
       <c r="I863" s="47" t="s">
         <v>1021</v>
       </c>
@@ -37581,7 +37848,9 @@
       <c r="E864" s="19"/>
       <c r="F864" s="19"/>
       <c r="G864" s="19"/>
-      <c r="H864" s="19"/>
+      <c r="H864" s="62" t="s">
+        <v>1491</v>
+      </c>
       <c r="I864" s="47" t="s">
         <v>1021</v>
       </c>
@@ -37616,7 +37885,9 @@
       <c r="E865" s="19"/>
       <c r="F865" s="19"/>
       <c r="G865" s="19"/>
-      <c r="H865" s="19"/>
+      <c r="H865" s="62" t="s">
+        <v>1491</v>
+      </c>
       <c r="I865" s="47" t="s">
         <v>1021</v>
       </c>
@@ -39632,7 +39903,9 @@
       <c r="E921" s="19"/>
       <c r="F921" s="19"/>
       <c r="G921" s="19"/>
-      <c r="H921" s="19"/>
+      <c r="H921" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I921" s="47" t="s">
         <v>1018</v>
       </c>
@@ -39669,7 +39942,9 @@
       <c r="E922" s="19"/>
       <c r="F922" s="19"/>
       <c r="G922" s="19"/>
-      <c r="H922" s="19"/>
+      <c r="H922" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I922" s="47" t="s">
         <v>1018</v>
       </c>
@@ -39704,7 +39979,9 @@
       <c r="E923" s="19"/>
       <c r="F923" s="19"/>
       <c r="G923" s="19"/>
-      <c r="H923" s="19"/>
+      <c r="H923" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I923" s="47" t="s">
         <v>1018</v>
       </c>
@@ -39739,7 +40016,9 @@
       <c r="E924" s="19"/>
       <c r="F924" s="19"/>
       <c r="G924" s="19"/>
-      <c r="H924" s="19"/>
+      <c r="H924" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I924" s="47" t="s">
         <v>1018</v>
       </c>
@@ -39774,7 +40053,9 @@
       <c r="E925" s="19"/>
       <c r="F925" s="19"/>
       <c r="G925" s="19"/>
-      <c r="H925" s="19"/>
+      <c r="H925" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I925" s="47" t="s">
         <v>1018</v>
       </c>
@@ -39813,7 +40094,9 @@
       <c r="E926" s="19"/>
       <c r="F926" s="19"/>
       <c r="G926" s="19"/>
-      <c r="H926" s="19"/>
+      <c r="H926" s="62" t="s">
+        <v>1492</v>
+      </c>
       <c r="I926" s="47" t="s">
         <v>1018</v>
       </c>
@@ -46851,11 +47134,13 @@
       <c r="U1120" s="7"/>
       <c r="V1120" s="42"/>
     </row>
-    <row r="1121" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1121" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1121" s="19"/>
       <c r="F1121" s="19"/>
       <c r="G1121" s="19"/>
-      <c r="H1121" s="35"/>
+      <c r="H1121" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1121" s="47" t="s">
         <v>1009</v>
       </c>
@@ -46886,11 +47171,13 @@
       <c r="U1121" s="7"/>
       <c r="V1121" s="42"/>
     </row>
-    <row r="1122" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1122" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1122" s="19"/>
       <c r="F1122" s="19"/>
       <c r="G1122" s="19"/>
-      <c r="H1122" s="35"/>
+      <c r="H1122" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1122" s="47" t="s">
         <v>1009</v>
       </c>
@@ -46921,11 +47208,13 @@
       <c r="U1122" s="7"/>
       <c r="V1122" s="42"/>
     </row>
-    <row r="1123" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1123" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1123" s="19"/>
       <c r="F1123" s="19"/>
       <c r="G1123" s="19"/>
-      <c r="H1123" s="35"/>
+      <c r="H1123" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1123" s="47" t="s">
         <v>1009</v>
       </c>
@@ -46958,11 +47247,13 @@
       <c r="U1123" s="7"/>
       <c r="V1123" s="42"/>
     </row>
-    <row r="1124" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1124" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1124" s="19"/>
       <c r="F1124" s="19"/>
       <c r="G1124" s="19"/>
-      <c r="H1124" s="19"/>
+      <c r="H1124" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1124" s="47" t="s">
         <v>1009</v>
       </c>
@@ -46997,11 +47288,13 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1125" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1125" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1125" s="19"/>
       <c r="F1125" s="19"/>
       <c r="G1125" s="19"/>
-      <c r="H1125" s="19"/>
+      <c r="H1125" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1125" s="47" t="s">
         <v>1009</v>
       </c>
@@ -47034,11 +47327,13 @@
       <c r="U1125" s="7"/>
       <c r="V1125" s="42"/>
     </row>
-    <row r="1126" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1126" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1126" s="19"/>
       <c r="F1126" s="19"/>
       <c r="G1126" s="19"/>
-      <c r="H1126" s="19"/>
+      <c r="H1126" s="62" t="s">
+        <v>1494</v>
+      </c>
       <c r="I1126" s="47" t="s">
         <v>1009</v>
       </c>
@@ -47069,42 +47364,46 @@
       <c r="U1126" s="7"/>
       <c r="V1126" s="42"/>
     </row>
-    <row r="1127" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="E1127" s="19"/>
-      <c r="F1127" s="19"/>
-      <c r="G1127" s="19"/>
-      <c r="H1127" s="19"/>
-      <c r="I1127" s="47" t="s">
+    <row r="1127" spans="3:22" s="72" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1127" s="63"/>
+      <c r="D1127" s="64"/>
+      <c r="E1127" s="65"/>
+      <c r="F1127" s="65"/>
+      <c r="G1127" s="65"/>
+      <c r="H1127" s="66" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I1127" s="67" t="s">
         <v>1009</v>
       </c>
-      <c r="J1127" s="45">
+      <c r="J1127" s="68">
         <v>40</v>
       </c>
-      <c r="K1127" s="16">
+      <c r="K1127" s="69">
         <f t="shared" si="37"/>
         <v>1126</v>
       </c>
-      <c r="L1127" s="5">
+      <c r="L1127" s="69">
         <f t="shared" si="37"/>
         <v>11</v>
       </c>
-      <c r="M1127" s="5">
+      <c r="M1127" s="69">
         <f t="shared" si="36"/>
         <v>11</v>
       </c>
-      <c r="N1127" s="42" t="s">
+      <c r="N1127" s="70" t="s">
         <v>1425</v>
       </c>
-      <c r="O1127" s="7"/>
-      <c r="P1127" s="7"/>
-      <c r="Q1127" s="7"/>
-      <c r="R1127" s="7"/>
-      <c r="S1127" s="7"/>
-      <c r="T1127" s="7"/>
-      <c r="U1127" s="7"/>
-      <c r="V1127" s="42"/>
-    </row>
-    <row r="1128" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="O1127" s="71"/>
+      <c r="P1127" s="71"/>
+      <c r="Q1127" s="71"/>
+      <c r="R1127" s="71"/>
+      <c r="S1127" s="71"/>
+      <c r="T1127" s="71"/>
+      <c r="U1127" s="71"/>
+      <c r="V1127" s="70"/>
+    </row>
+    <row r="1128" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1128" s="19"/>
       <c r="F1128" s="19"/>
       <c r="G1128" s="19"/>
@@ -47139,7 +47438,7 @@
       <c r="U1128" s="7"/>
       <c r="V1128" s="42"/>
     </row>
-    <row r="1129" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1129" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1129" s="19"/>
       <c r="F1129" s="19"/>
       <c r="G1129" s="19"/>
@@ -47174,7 +47473,7 @@
       <c r="U1129" s="7"/>
       <c r="V1129" s="42"/>
     </row>
-    <row r="1130" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1130" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1130" s="19"/>
       <c r="F1130" s="19"/>
       <c r="G1130" s="19"/>
@@ -47209,7 +47508,7 @@
       <c r="U1130" s="7"/>
       <c r="V1130" s="42"/>
     </row>
-    <row r="1131" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1131" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1131" s="19"/>
       <c r="F1131" s="19"/>
       <c r="G1131" s="19"/>
@@ -47244,7 +47543,7 @@
       <c r="U1131" s="7"/>
       <c r="V1131" s="42"/>
     </row>
-    <row r="1132" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1132" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1132" s="19"/>
       <c r="F1132" s="19"/>
       <c r="G1132" s="19"/>
@@ -47285,7 +47584,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="1133" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1133" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1133" s="19"/>
       <c r="F1133" s="19"/>
       <c r="G1133" s="19"/>
@@ -47324,7 +47623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="1134" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1134" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1134" s="19"/>
       <c r="F1134" s="19"/>
       <c r="G1134" s="19"/>
@@ -47359,7 +47658,7 @@
       <c r="U1134" s="7"/>
       <c r="V1134" s="42"/>
     </row>
-    <row r="1135" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1135" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1135" s="19"/>
       <c r="F1135" s="19"/>
       <c r="G1135" s="19"/>
@@ -47394,7 +47693,7 @@
       <c r="U1135" s="7"/>
       <c r="V1135" s="42"/>
     </row>
-    <row r="1136" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1136" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1136" s="19"/>
       <c r="F1136" s="19"/>
       <c r="G1136" s="19"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="1488">
   <si>
     <t>Passage</t>
   </si>
@@ -4479,19 +4479,37 @@
   </si>
   <si>
     <t xml:space="preserve">jyotiqShetiq jyoti#ShA </t>
+  </si>
+  <si>
+    <t>PS-8.25</t>
+  </si>
+  <si>
+    <t>PS-6.5</t>
+  </si>
+  <si>
+    <t>PS-11.16</t>
+  </si>
+  <si>
+    <t>alopa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4644,180 +4662,186 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5101,10 +5125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1736" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomLeft" activeCell="E1491" sqref="E1491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5112,7 +5136,7 @@
     <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="45" customWidth="1"/>
@@ -10679,7 +10703,9 @@
       <c r="V132" s="42"/>
     </row>
     <row r="133" spans="4:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="D133" s="25"/>
+      <c r="D133" s="61" t="s">
+        <v>1484</v>
+      </c>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
@@ -41302,7 +41328,7 @@
       <c r="U960" s="7"/>
       <c r="V960" s="42"/>
     </row>
-    <row r="961" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E961" s="19"/>
       <c r="F961" s="19"/>
       <c r="G961" s="19"/>
@@ -41341,7 +41367,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="962" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E962" s="19"/>
       <c r="F962" s="19"/>
       <c r="G962" s="19"/>
@@ -41376,7 +41402,7 @@
       <c r="U962" s="7"/>
       <c r="V962" s="42"/>
     </row>
-    <row r="963" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E963" s="19"/>
       <c r="F963" s="19"/>
       <c r="G963" s="19"/>
@@ -41413,7 +41439,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="964" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E964" s="19"/>
       <c r="F964" s="19"/>
       <c r="G964" s="19"/>
@@ -41448,7 +41474,7 @@
       <c r="U964" s="7"/>
       <c r="V964" s="42"/>
     </row>
-    <row r="965" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E965" s="19"/>
       <c r="F965" s="19"/>
       <c r="G965" s="19"/>
@@ -41483,7 +41509,7 @@
       <c r="U965" s="7"/>
       <c r="V965" s="42"/>
     </row>
-    <row r="966" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E966" s="19"/>
       <c r="F966" s="19"/>
       <c r="G966" s="19"/>
@@ -41518,7 +41544,7 @@
       <c r="U966" s="7"/>
       <c r="V966" s="42"/>
     </row>
-    <row r="967" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E967" s="19"/>
       <c r="F967" s="19"/>
       <c r="G967" s="19"/>
@@ -41559,7 +41585,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="968" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="968" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E968" s="19"/>
       <c r="F968" s="19"/>
       <c r="G968" s="19"/>
@@ -41596,7 +41622,7 @@
       <c r="U968" s="7"/>
       <c r="V968" s="42"/>
     </row>
-    <row r="969" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="969" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E969" s="19"/>
       <c r="F969" s="19"/>
       <c r="G969" s="19"/>
@@ -41631,7 +41657,7 @@
       <c r="U969" s="7"/>
       <c r="V969" s="42"/>
     </row>
-    <row r="970" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="970" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E970" s="19"/>
       <c r="F970" s="19"/>
       <c r="G970" s="19"/>
@@ -41672,7 +41698,10 @@
         <v>863</v>
       </c>
     </row>
-    <row r="971" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="971" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="D971" s="61" t="s">
+        <v>1485</v>
+      </c>
       <c r="E971" s="19"/>
       <c r="F971" s="19"/>
       <c r="G971" s="19"/>
@@ -41711,7 +41740,10 @@
       <c r="U971" s="7"/>
       <c r="V971" s="42"/>
     </row>
-    <row r="972" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="972" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="D972" s="61" t="s">
+        <v>1485</v>
+      </c>
       <c r="E972" s="19"/>
       <c r="F972" s="19"/>
       <c r="G972" s="19"/>
@@ -41748,7 +41780,7 @@
       <c r="U972" s="7"/>
       <c r="V972" s="42"/>
     </row>
-    <row r="973" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="973" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E973" s="19"/>
       <c r="F973" s="19"/>
       <c r="G973" s="19"/>
@@ -41785,7 +41817,7 @@
       <c r="U973" s="7"/>
       <c r="V973" s="42"/>
     </row>
-    <row r="974" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="974" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E974" s="19"/>
       <c r="F974" s="19"/>
       <c r="G974" s="19"/>
@@ -41826,7 +41858,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="975" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="975" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E975" s="19"/>
       <c r="F975" s="19"/>
       <c r="G975" s="19"/>
@@ -41861,7 +41893,7 @@
       <c r="U975" s="7"/>
       <c r="V975" s="42"/>
     </row>
-    <row r="976" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="976" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E976" s="19"/>
       <c r="F976" s="19"/>
       <c r="G976" s="19"/>
@@ -52916,7 +52948,7 @@
       <c r="U1280" s="7"/>
       <c r="V1280" s="42"/>
     </row>
-    <row r="1281" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1281" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1281" s="19"/>
       <c r="F1281" s="19"/>
       <c r="G1281" s="19"/>
@@ -52953,7 +52985,7 @@
       <c r="U1281" s="7"/>
       <c r="V1281" s="42"/>
     </row>
-    <row r="1282" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1282" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1282" s="19"/>
       <c r="F1282" s="19"/>
       <c r="G1282" s="19"/>
@@ -52994,7 +53026,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="1283" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1283" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1283" s="19"/>
       <c r="F1283" s="19"/>
       <c r="G1283" s="19"/>
@@ -53029,7 +53061,7 @@
       <c r="U1283" s="7"/>
       <c r="V1283" s="42"/>
     </row>
-    <row r="1284" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1284" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1284" s="19"/>
       <c r="F1284" s="19"/>
       <c r="G1284" s="19"/>
@@ -53064,7 +53096,7 @@
       <c r="U1284" s="7"/>
       <c r="V1284" s="42"/>
     </row>
-    <row r="1285" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1285" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1285" s="19"/>
       <c r="F1285" s="19"/>
       <c r="G1285" s="19"/>
@@ -53103,7 +53135,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="1286" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1286" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1286" s="19"/>
       <c r="F1286" s="19"/>
       <c r="G1286" s="19"/>
@@ -53142,7 +53174,7 @@
       <c r="U1286" s="7"/>
       <c r="V1286" s="42"/>
     </row>
-    <row r="1287" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1287" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1287" s="19"/>
       <c r="F1287" s="19"/>
       <c r="G1287" s="19"/>
@@ -53179,7 +53211,10 @@
       <c r="U1287" s="7"/>
       <c r="V1287" s="42"/>
     </row>
-    <row r="1288" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1288" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="D1288" s="61" t="s">
+        <v>1486</v>
+      </c>
       <c r="E1288" s="19"/>
       <c r="F1288" s="19"/>
       <c r="G1288" s="19"/>
@@ -53216,7 +53251,7 @@
       <c r="U1288" s="7"/>
       <c r="V1288" s="42"/>
     </row>
-    <row r="1289" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1289" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1289" s="19"/>
       <c r="F1289" s="19"/>
       <c r="G1289" s="19"/>
@@ -53257,7 +53292,7 @@
       </c>
       <c r="V1289" s="42"/>
     </row>
-    <row r="1290" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1290" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1290" s="19"/>
       <c r="F1290" s="19"/>
       <c r="G1290" s="19"/>
@@ -53298,7 +53333,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="1291" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1291" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1291" s="19"/>
       <c r="F1291" s="19"/>
       <c r="G1291" s="19"/>
@@ -53333,7 +53368,7 @@
       <c r="U1291" s="7"/>
       <c r="V1291" s="42"/>
     </row>
-    <row r="1292" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1292" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1292" s="19"/>
       <c r="F1292" s="19"/>
       <c r="G1292" s="19"/>
@@ -53368,7 +53403,7 @@
       <c r="U1292" s="7"/>
       <c r="V1292" s="42"/>
     </row>
-    <row r="1293" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1293" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1293" s="19"/>
       <c r="F1293" s="19"/>
       <c r="G1293" s="19"/>
@@ -53405,7 +53440,7 @@
       </c>
       <c r="V1293" s="42"/>
     </row>
-    <row r="1294" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1294" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1294" s="19"/>
       <c r="F1294" s="19"/>
       <c r="G1294" s="19"/>
@@ -53440,7 +53475,7 @@
       <c r="U1294" s="7"/>
       <c r="V1294" s="42"/>
     </row>
-    <row r="1295" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1295" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1295" s="19"/>
       <c r="F1295" s="19"/>
       <c r="G1295" s="19"/>
@@ -53477,7 +53512,7 @@
       <c r="U1295" s="7"/>
       <c r="V1295" s="42"/>
     </row>
-    <row r="1296" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1296" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1296" s="19"/>
       <c r="F1296" s="19"/>
       <c r="G1296" s="19"/>
@@ -54670,7 +54705,7 @@
       <c r="U1328" s="7"/>
       <c r="V1328" s="42"/>
     </row>
-    <row r="1329" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1329" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1329" s="19"/>
       <c r="F1329" s="19"/>
       <c r="G1329" s="19"/>
@@ -54709,7 +54744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="1330" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1330" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1330" s="19"/>
       <c r="F1330" s="19"/>
       <c r="G1330" s="19"/>
@@ -54748,7 +54783,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="1331" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1331" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1331" s="19"/>
       <c r="F1331" s="19"/>
       <c r="G1331" s="19"/>
@@ -54785,7 +54820,7 @@
       <c r="U1331" s="7"/>
       <c r="V1331" s="42"/>
     </row>
-    <row r="1332" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1332" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1332" s="19"/>
       <c r="F1332" s="19"/>
       <c r="G1332" s="19"/>
@@ -54820,7 +54855,7 @@
       <c r="U1332" s="7"/>
       <c r="V1332" s="42"/>
     </row>
-    <row r="1333" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1333" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D1333" s="40"/>
       <c r="E1333" s="19"/>
       <c r="F1333" s="19"/>
@@ -54859,7 +54894,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="1334" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1334" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1334" s="19"/>
       <c r="F1334" s="19"/>
       <c r="G1334" s="19"/>
@@ -54893,7 +54928,7 @@
       <c r="T1334" s="7"/>
       <c r="V1334" s="42"/>
     </row>
-    <row r="1335" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D1335" s="40"/>
       <c r="E1335" s="19"/>
       <c r="F1335" s="19"/>
@@ -54932,7 +54967,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="1336" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1336" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1336" s="19"/>
       <c r="F1336" s="19"/>
       <c r="G1336" s="19"/>
@@ -54967,7 +55002,7 @@
       <c r="U1336" s="7"/>
       <c r="V1336" s="42"/>
     </row>
-    <row r="1337" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1337" s="19"/>
       <c r="F1337" s="19"/>
       <c r="G1337" s="19"/>
@@ -55002,7 +55037,7 @@
       <c r="U1337" s="7"/>
       <c r="V1337" s="42"/>
     </row>
-    <row r="1338" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1338" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1338" s="19"/>
       <c r="F1338" s="19"/>
       <c r="G1338" s="19"/>
@@ -55041,7 +55076,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="1339" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1339" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1339" s="19"/>
       <c r="F1339" s="19"/>
       <c r="G1339" s="19"/>
@@ -55076,7 +55111,7 @@
       <c r="U1339" s="7"/>
       <c r="V1339" s="42"/>
     </row>
-    <row r="1340" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1340" s="19"/>
       <c r="F1340" s="19"/>
       <c r="G1340" s="19"/>
@@ -55111,7 +55146,7 @@
       <c r="U1340" s="7"/>
       <c r="V1340" s="42"/>
     </row>
-    <row r="1341" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1341" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1341" s="19"/>
       <c r="F1341" s="19"/>
       <c r="G1341" s="19"/>
@@ -55146,7 +55181,7 @@
       <c r="U1341" s="7"/>
       <c r="V1341" s="42"/>
     </row>
-    <row r="1342" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1342" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1342" s="19"/>
       <c r="F1342" s="19"/>
       <c r="G1342" s="19"/>
@@ -55181,7 +55216,7 @@
       <c r="U1342" s="7"/>
       <c r="V1342" s="42"/>
     </row>
-    <row r="1343" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1343" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1343" s="19"/>
       <c r="F1343" s="19"/>
       <c r="G1343" s="19"/>
@@ -55222,7 +55257,10 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="1344" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1344" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1344" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1344" s="19"/>
       <c r="F1344" s="19"/>
       <c r="G1344" s="19"/>
@@ -55257,7 +55295,10 @@
       <c r="U1344" s="7"/>
       <c r="V1344" s="42"/>
     </row>
-    <row r="1345" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1345" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1345" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1345" s="19"/>
       <c r="F1345" s="19"/>
       <c r="G1345" s="19"/>
@@ -55294,7 +55335,10 @@
       <c r="U1345" s="7"/>
       <c r="V1345" s="42"/>
     </row>
-    <row r="1346" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1346" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1346" s="19"/>
       <c r="F1346" s="19"/>
       <c r="G1346" s="19"/>
@@ -55329,7 +55373,10 @@
       <c r="U1346" s="7"/>
       <c r="V1346" s="42"/>
     </row>
-    <row r="1347" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1347" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1347" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1347" s="19"/>
       <c r="F1347" s="19"/>
       <c r="G1347" s="19"/>
@@ -55364,7 +55411,10 @@
       <c r="U1347" s="7"/>
       <c r="V1347" s="42"/>
     </row>
-    <row r="1348" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1348" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1348" s="19"/>
       <c r="F1348" s="19"/>
       <c r="G1348" s="19"/>
@@ -55399,7 +55449,10 @@
       <c r="U1348" s="7"/>
       <c r="V1348" s="42"/>
     </row>
-    <row r="1349" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1349" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1349" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1349" s="19"/>
       <c r="F1349" s="19"/>
       <c r="G1349" s="19"/>
@@ -55438,7 +55491,10 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="1350" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1350" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1350" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1350" s="19"/>
       <c r="F1350" s="19"/>
       <c r="G1350" s="19"/>
@@ -55477,7 +55533,10 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="1351" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1351" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1351" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1351" s="19"/>
       <c r="F1351" s="19"/>
       <c r="G1351" s="19"/>
@@ -55512,7 +55571,10 @@
       <c r="U1351" s="7"/>
       <c r="V1351" s="42"/>
     </row>
-    <row r="1352" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1352" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1352" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1352" s="19"/>
       <c r="F1352" s="19"/>
       <c r="G1352" s="19"/>
@@ -55553,7 +55615,10 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="1353" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1353" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1353" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1353" s="19"/>
       <c r="F1353" s="19"/>
       <c r="G1353" s="19"/>
@@ -55588,7 +55653,10 @@
       <c r="U1353" s="7"/>
       <c r="V1353" s="42"/>
     </row>
-    <row r="1354" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1354" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1354" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1354" s="19"/>
       <c r="F1354" s="19"/>
       <c r="G1354" s="19"/>
@@ -55623,7 +55691,10 @@
       <c r="U1354" s="7"/>
       <c r="V1354" s="42"/>
     </row>
-    <row r="1355" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1355" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1355" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1355" s="19"/>
       <c r="F1355" s="19"/>
       <c r="G1355" s="19"/>
@@ -55662,7 +55733,10 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1356" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1356" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1356" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1356" s="19"/>
       <c r="F1356" s="19"/>
       <c r="G1356" s="19"/>
@@ -55701,7 +55775,10 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="1357" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1357" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1357" s="19"/>
       <c r="F1357" s="19"/>
       <c r="G1357" s="19"/>
@@ -55736,7 +55813,10 @@
       <c r="U1357" s="7"/>
       <c r="V1357" s="42"/>
     </row>
-    <row r="1358" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1358" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1358" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1358" s="19"/>
       <c r="F1358" s="19"/>
       <c r="G1358" s="19"/>
@@ -55771,7 +55851,10 @@
       <c r="U1358" s="7"/>
       <c r="V1358" s="42"/>
     </row>
-    <row r="1359" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1359" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1359" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1359" s="19"/>
       <c r="F1359" s="19"/>
       <c r="G1359" s="19"/>
@@ -55810,7 +55893,10 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="1360" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1360" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1360" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1360" s="19"/>
       <c r="F1360" s="19"/>
       <c r="G1360" s="19"/>
@@ -55847,7 +55933,10 @@
       <c r="U1360" s="7"/>
       <c r="V1360" s="42"/>
     </row>
-    <row r="1361" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1361" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1361" s="19"/>
       <c r="F1361" s="19"/>
       <c r="G1361" s="19"/>
@@ -55882,7 +55971,10 @@
       <c r="U1361" s="7"/>
       <c r="V1361" s="42"/>
     </row>
-    <row r="1362" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1362" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1362" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1362" s="19"/>
       <c r="F1362" s="19"/>
       <c r="G1362" s="19"/>
@@ -55921,7 +56013,10 @@
       <c r="U1362" s="7"/>
       <c r="V1362" s="42"/>
     </row>
-    <row r="1363" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1363" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1363" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1363" s="19"/>
       <c r="F1363" s="19"/>
       <c r="G1363" s="19"/>
@@ -55956,7 +56051,10 @@
       <c r="U1363" s="7"/>
       <c r="V1363" s="42"/>
     </row>
-    <row r="1364" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1364" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1364" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1364" s="19"/>
       <c r="F1364" s="19"/>
       <c r="G1364" s="19"/>
@@ -55991,7 +56089,10 @@
       <c r="U1364" s="7"/>
       <c r="V1364" s="42"/>
     </row>
-    <row r="1365" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1365" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1365" s="19"/>
       <c r="F1365" s="19"/>
       <c r="G1365" s="19"/>
@@ -56026,7 +56127,10 @@
       <c r="U1365" s="7"/>
       <c r="V1365" s="42"/>
     </row>
-    <row r="1366" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1366" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1366" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1366" s="19"/>
       <c r="F1366" s="19"/>
       <c r="G1366" s="19"/>
@@ -56063,7 +56167,10 @@
       <c r="U1366" s="7"/>
       <c r="V1366" s="42"/>
     </row>
-    <row r="1367" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1367" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1367" s="19"/>
       <c r="F1367" s="19"/>
       <c r="G1367" s="19"/>
@@ -56102,7 +56209,10 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="1368" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1368" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1368" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1368" s="19"/>
       <c r="F1368" s="19"/>
       <c r="G1368" s="19"/>
@@ -56141,7 +56251,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1369" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1369" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1369" s="19"/>
       <c r="F1369" s="19"/>
       <c r="G1369" s="19"/>
@@ -56178,7 +56291,10 @@
       <c r="U1369" s="7"/>
       <c r="V1369" s="42"/>
     </row>
-    <row r="1370" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1370" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1370" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1370" s="19"/>
       <c r="F1370" s="19"/>
       <c r="G1370" s="19"/>
@@ -56217,7 +56333,10 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="1371" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1371" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1371" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1371" s="19"/>
       <c r="F1371" s="19"/>
       <c r="G1371" s="19"/>
@@ -56254,7 +56373,10 @@
       <c r="U1371" s="7"/>
       <c r="V1371" s="42"/>
     </row>
-    <row r="1372" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1372" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1372" s="19"/>
       <c r="F1372" s="19"/>
       <c r="G1372" s="19"/>
@@ -56289,7 +56411,10 @@
       <c r="U1372" s="7"/>
       <c r="V1372" s="42"/>
     </row>
-    <row r="1373" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1373" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1373" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1373" s="19"/>
       <c r="F1373" s="19"/>
       <c r="G1373" s="19"/>
@@ -56328,7 +56453,10 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="1374" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1374" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1374" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1374" s="19"/>
       <c r="F1374" s="19"/>
       <c r="G1374" s="19"/>
@@ -56363,7 +56491,10 @@
       <c r="U1374" s="7"/>
       <c r="V1374" s="42"/>
     </row>
-    <row r="1375" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1375" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1375" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1375" s="19"/>
       <c r="F1375" s="19"/>
       <c r="G1375" s="19"/>
@@ -56398,7 +56529,10 @@
       <c r="U1375" s="7"/>
       <c r="V1375" s="42"/>
     </row>
-    <row r="1376" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1376" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1376" s="19"/>
       <c r="F1376" s="19"/>
       <c r="G1376" s="19"/>
@@ -56435,7 +56569,10 @@
       <c r="U1376" s="7"/>
       <c r="V1376" s="42"/>
     </row>
-    <row r="1377" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1377" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1377" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1377" s="19"/>
       <c r="F1377" s="19"/>
       <c r="G1377" s="19"/>
@@ -56470,7 +56607,10 @@
       <c r="U1377" s="7"/>
       <c r="V1377" s="42"/>
     </row>
-    <row r="1378" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1378" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1378" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1378" s="19"/>
       <c r="F1378" s="19"/>
       <c r="G1378" s="19"/>
@@ -56509,7 +56649,10 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="1379" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1379" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1379" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1379" s="19"/>
       <c r="F1379" s="19"/>
       <c r="G1379" s="19"/>
@@ -56548,7 +56691,10 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="1380" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1380" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1380" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1380" s="19"/>
       <c r="F1380" s="19"/>
       <c r="G1380" s="19"/>
@@ -56585,7 +56731,10 @@
       <c r="U1380" s="7"/>
       <c r="V1380" s="42"/>
     </row>
-    <row r="1381" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1381" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1381" s="19"/>
       <c r="F1381" s="19"/>
       <c r="G1381" s="19"/>
@@ -56620,7 +56769,10 @@
       <c r="U1381" s="7"/>
       <c r="V1381" s="42"/>
     </row>
-    <row r="1382" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1382" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1382" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1382" s="19"/>
       <c r="F1382" s="19"/>
       <c r="G1382" s="19"/>
@@ -56655,7 +56807,10 @@
       <c r="U1382" s="7"/>
       <c r="V1382" s="42"/>
     </row>
-    <row r="1383" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1383" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1383" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1383" s="19"/>
       <c r="F1383" s="19"/>
       <c r="G1383" s="19"/>
@@ -56692,7 +56847,10 @@
       <c r="U1383" s="7"/>
       <c r="V1383" s="42"/>
     </row>
-    <row r="1384" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1384" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1384" s="19"/>
       <c r="F1384" s="19"/>
       <c r="G1384" s="19"/>
@@ -56727,7 +56885,10 @@
       <c r="U1384" s="7"/>
       <c r="V1384" s="42"/>
     </row>
-    <row r="1385" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1385" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1385" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1385" s="19"/>
       <c r="F1385" s="19"/>
       <c r="G1385" s="19"/>
@@ -56762,7 +56923,10 @@
       <c r="U1385" s="7"/>
       <c r="V1385" s="42"/>
     </row>
-    <row r="1386" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1386" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1386" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1386" s="19"/>
       <c r="F1386" s="19"/>
       <c r="G1386" s="19"/>
@@ -56797,7 +56961,10 @@
       <c r="U1386" s="7"/>
       <c r="V1386" s="42"/>
     </row>
-    <row r="1387" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1387" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1387" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1387" s="19"/>
       <c r="F1387" s="19"/>
       <c r="G1387" s="19"/>
@@ -56834,7 +57001,10 @@
       <c r="U1387" s="7"/>
       <c r="V1387" s="42"/>
     </row>
-    <row r="1388" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1388" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1388" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1388" s="19"/>
       <c r="F1388" s="19"/>
       <c r="G1388" s="19"/>
@@ -56873,7 +57043,10 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="1389" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1389" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1389" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1389" s="19"/>
       <c r="F1389" s="19"/>
       <c r="G1389" s="19"/>
@@ -56908,7 +57081,10 @@
       <c r="U1389" s="7"/>
       <c r="V1389" s="42"/>
     </row>
-    <row r="1390" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1390" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1390" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1390" s="19"/>
       <c r="F1390" s="19"/>
       <c r="G1390" s="19"/>
@@ -56943,7 +57119,10 @@
       <c r="U1390" s="7"/>
       <c r="V1390" s="42"/>
     </row>
-    <row r="1391" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1391" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1391" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1391" s="19"/>
       <c r="F1391" s="19"/>
       <c r="G1391" s="19"/>
@@ -56980,7 +57159,10 @@
       </c>
       <c r="V1391" s="42"/>
     </row>
-    <row r="1392" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1392" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1392" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1392" s="19"/>
       <c r="F1392" s="19"/>
       <c r="G1392" s="19"/>
@@ -57015,7 +57197,10 @@
       <c r="U1392" s="7"/>
       <c r="V1392" s="42"/>
     </row>
-    <row r="1393" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1393" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1393" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1393" s="19"/>
       <c r="F1393" s="19"/>
       <c r="G1393" s="19"/>
@@ -57050,7 +57235,10 @@
       <c r="U1393" s="7"/>
       <c r="V1393" s="42"/>
     </row>
-    <row r="1394" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1394" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1394" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1394" s="19"/>
       <c r="F1394" s="19"/>
       <c r="G1394" s="19"/>
@@ -57086,7 +57274,10 @@
       <c r="U1394" s="7"/>
       <c r="V1394" s="42"/>
     </row>
-    <row r="1395" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1395" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1395" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1395" s="19"/>
       <c r="F1395" s="19"/>
       <c r="G1395" s="19"/>
@@ -57121,7 +57312,10 @@
       <c r="U1395" s="7"/>
       <c r="V1395" s="42"/>
     </row>
-    <row r="1396" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1396" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1396" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1396" s="19"/>
       <c r="F1396" s="19"/>
       <c r="G1396" s="19"/>
@@ -57156,7 +57350,10 @@
       <c r="U1396" s="7"/>
       <c r="V1396" s="42"/>
     </row>
-    <row r="1397" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1397" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1397" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1397" s="19"/>
       <c r="F1397" s="19"/>
       <c r="G1397" s="19"/>
@@ -57191,7 +57388,10 @@
       <c r="U1397" s="7"/>
       <c r="V1397" s="42"/>
     </row>
-    <row r="1398" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1398" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1398" s="19"/>
       <c r="F1398" s="19"/>
       <c r="G1398" s="19"/>
@@ -57232,7 +57432,10 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="1399" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1399" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1399" s="19"/>
       <c r="F1399" s="19"/>
       <c r="G1399" s="19"/>
@@ -57267,7 +57470,10 @@
       <c r="U1399" s="7"/>
       <c r="V1399" s="42"/>
     </row>
-    <row r="1400" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1400" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1400" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1400" s="19"/>
       <c r="F1400" s="19"/>
       <c r="G1400" s="19"/>
@@ -57302,7 +57508,10 @@
       <c r="U1400" s="7"/>
       <c r="V1400" s="42"/>
     </row>
-    <row r="1401" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1401" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1401" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1401" s="19"/>
       <c r="F1401" s="19"/>
       <c r="G1401" s="19"/>
@@ -57337,7 +57546,10 @@
       <c r="U1401" s="7"/>
       <c r="V1401" s="42"/>
     </row>
-    <row r="1402" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1402" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1402" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1402" s="19"/>
       <c r="F1402" s="19"/>
       <c r="G1402" s="19"/>
@@ -57376,7 +57588,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1403" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1403" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1403" s="19"/>
       <c r="F1403" s="19"/>
       <c r="G1403" s="19"/>
@@ -57413,7 +57628,10 @@
       <c r="U1403" s="7"/>
       <c r="V1403" s="42"/>
     </row>
-    <row r="1404" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1404" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1404" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1404" s="19"/>
       <c r="F1404" s="19"/>
       <c r="G1404" s="19"/>
@@ -57452,7 +57670,10 @@
       </c>
       <c r="V1404" s="42"/>
     </row>
-    <row r="1405" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1405" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1405" s="19"/>
       <c r="F1405" s="19"/>
       <c r="G1405" s="19"/>
@@ -57489,7 +57710,10 @@
       <c r="U1405" s="7"/>
       <c r="V1405" s="42"/>
     </row>
-    <row r="1406" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1406" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1406" s="19"/>
       <c r="F1406" s="19"/>
       <c r="G1406" s="19"/>
@@ -57526,7 +57750,10 @@
       <c r="U1406" s="7"/>
       <c r="V1406" s="42"/>
     </row>
-    <row r="1407" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1407" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1407" s="19"/>
       <c r="F1407" s="19"/>
       <c r="G1407" s="19"/>
@@ -57563,7 +57790,10 @@
       <c r="U1407" s="7"/>
       <c r="V1407" s="42"/>
     </row>
-    <row r="1408" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1408" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1408" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1408" s="19"/>
       <c r="F1408" s="19"/>
       <c r="G1408" s="19"/>
@@ -57604,7 +57834,10 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="1409" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1409" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1409" s="19"/>
       <c r="F1409" s="19"/>
       <c r="G1409" s="19"/>
@@ -57641,7 +57874,10 @@
       <c r="U1409" s="7"/>
       <c r="V1409" s="42"/>
     </row>
-    <row r="1410" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1410" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1410" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1410" s="19"/>
       <c r="F1410" s="19"/>
       <c r="G1410" s="19"/>
@@ -57678,7 +57914,10 @@
       <c r="U1410" s="7"/>
       <c r="V1410" s="42"/>
     </row>
-    <row r="1411" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1411" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1411" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1411" s="19"/>
       <c r="F1411" s="19"/>
       <c r="G1411" s="19"/>
@@ -57715,7 +57954,10 @@
       <c r="U1411" s="7"/>
       <c r="V1411" s="42"/>
     </row>
-    <row r="1412" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1412" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1412" s="19"/>
       <c r="F1412" s="19"/>
       <c r="G1412" s="19"/>
@@ -57752,7 +57994,10 @@
       <c r="U1412" s="7"/>
       <c r="V1412" s="42"/>
     </row>
-    <row r="1413" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1413" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1413" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1413" s="19"/>
       <c r="F1413" s="19"/>
       <c r="G1413" s="19"/>
@@ -57789,7 +58034,10 @@
       <c r="U1413" s="7"/>
       <c r="V1413" s="42"/>
     </row>
-    <row r="1414" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1414" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1414" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1414" s="19"/>
       <c r="F1414" s="19"/>
       <c r="G1414" s="19"/>
@@ -57828,7 +58076,10 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="1415" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1415" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1415" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1415" s="19"/>
       <c r="F1415" s="19"/>
       <c r="G1415" s="19"/>
@@ -57863,7 +58114,10 @@
       <c r="U1415" s="7"/>
       <c r="V1415" s="42"/>
     </row>
-    <row r="1416" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1416" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1416" s="19"/>
       <c r="F1416" s="19"/>
       <c r="G1416" s="19"/>
@@ -57900,7 +58154,10 @@
       <c r="U1416" s="7"/>
       <c r="V1416" s="42"/>
     </row>
-    <row r="1417" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1417" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1417" s="19"/>
       <c r="F1417" s="19"/>
       <c r="G1417" s="19"/>
@@ -57935,7 +58192,10 @@
       <c r="U1417" s="7"/>
       <c r="V1417" s="42"/>
     </row>
-    <row r="1418" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1418" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1418" s="19"/>
       <c r="F1418" s="19"/>
       <c r="G1418" s="19"/>
@@ -57974,7 +58234,10 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1419" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1419" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1419" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1419" s="19"/>
       <c r="F1419" s="19"/>
       <c r="G1419" s="19"/>
@@ -58013,7 +58276,10 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="1420" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1420" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1420" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1420" s="19"/>
       <c r="F1420" s="19"/>
       <c r="G1420" s="19"/>
@@ -58048,7 +58314,10 @@
       <c r="U1420" s="7"/>
       <c r="V1420" s="42"/>
     </row>
-    <row r="1421" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1421" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1421" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1421" s="19"/>
       <c r="F1421" s="19"/>
       <c r="G1421" s="19"/>
@@ -58083,7 +58352,10 @@
       <c r="U1421" s="7"/>
       <c r="V1421" s="42"/>
     </row>
-    <row r="1422" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1422" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1422" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1422" s="19"/>
       <c r="F1422" s="19"/>
       <c r="G1422" s="19"/>
@@ -58118,7 +58390,10 @@
       <c r="U1422" s="7"/>
       <c r="V1422" s="42"/>
     </row>
-    <row r="1423" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1423" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1423" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1423" s="19"/>
       <c r="F1423" s="19"/>
       <c r="G1423" s="19"/>
@@ -58155,7 +58430,10 @@
       </c>
       <c r="V1423" s="42"/>
     </row>
-    <row r="1424" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1424" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1424" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1424" s="19"/>
       <c r="F1424" s="19"/>
       <c r="G1424" s="19"/>
@@ -58190,7 +58468,10 @@
       <c r="U1424" s="7"/>
       <c r="V1424" s="42"/>
     </row>
-    <row r="1425" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1425" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1425" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1425" s="19"/>
       <c r="F1425" s="19"/>
       <c r="G1425" s="19"/>
@@ -58229,7 +58510,10 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="1426" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1426" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1426" s="19"/>
       <c r="F1426" s="19"/>
       <c r="G1426" s="19"/>
@@ -58264,7 +58548,10 @@
       <c r="U1426" s="7"/>
       <c r="V1426" s="42"/>
     </row>
-    <row r="1427" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1427" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1427" s="19"/>
       <c r="F1427" s="19"/>
       <c r="G1427" s="19"/>
@@ -58299,7 +58586,10 @@
       <c r="U1427" s="7"/>
       <c r="V1427" s="42"/>
     </row>
-    <row r="1428" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1428" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1428" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1428" s="19"/>
       <c r="F1428" s="19"/>
       <c r="G1428" s="19"/>
@@ -58338,7 +58628,10 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="1429" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1429" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1429" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1429" s="19"/>
       <c r="F1429" s="19"/>
       <c r="G1429" s="19"/>
@@ -58373,7 +58666,10 @@
       <c r="U1429" s="7"/>
       <c r="V1429" s="42"/>
     </row>
-    <row r="1430" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1430" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1430" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1430" s="19"/>
       <c r="F1430" s="19"/>
       <c r="G1430" s="19"/>
@@ -58408,7 +58704,10 @@
       <c r="U1430" s="7"/>
       <c r="V1430" s="42"/>
     </row>
-    <row r="1431" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1431" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1431" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="D1431" s="40"/>
       <c r="E1431" s="19"/>
       <c r="F1431" s="19"/>
@@ -58444,7 +58743,10 @@
       <c r="U1431" s="7"/>
       <c r="V1431" s="42"/>
     </row>
-    <row r="1432" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1432" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1432" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="D1432" s="40"/>
       <c r="E1432" s="19"/>
       <c r="F1432" s="19"/>
@@ -58482,7 +58784,10 @@
       <c r="U1432" s="7"/>
       <c r="V1432" s="42"/>
     </row>
-    <row r="1433" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1433" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1433" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1433" s="19"/>
       <c r="F1433" s="19"/>
       <c r="G1433" s="19"/>
@@ -58525,7 +58830,10 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="1434" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1434" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1434" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1434" s="19"/>
       <c r="F1434" s="19"/>
       <c r="G1434" s="19"/>
@@ -58562,7 +58870,10 @@
       <c r="U1434" s="7"/>
       <c r="V1434" s="42"/>
     </row>
-    <row r="1435" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1435" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1435" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1435" s="19"/>
       <c r="F1435" s="19"/>
       <c r="G1435" s="19"/>
@@ -58599,7 +58910,10 @@
       <c r="U1435" s="7"/>
       <c r="V1435" s="42"/>
     </row>
-    <row r="1436" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1436" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1436" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1436" s="19"/>
       <c r="F1436" s="19"/>
       <c r="G1436" s="19"/>
@@ -58640,7 +58954,10 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="1437" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1437" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1437" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1437" s="19"/>
       <c r="F1437" s="19"/>
       <c r="G1437" s="19"/>
@@ -58677,7 +58994,10 @@
       <c r="U1437" s="7"/>
       <c r="V1437" s="42"/>
     </row>
-    <row r="1438" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1438" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1438" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1438" s="19"/>
       <c r="F1438" s="19"/>
       <c r="G1438" s="19"/>
@@ -58716,7 +59036,10 @@
       <c r="U1438" s="7"/>
       <c r="V1438" s="42"/>
     </row>
-    <row r="1439" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1439" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1439" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1439" s="19"/>
       <c r="F1439" s="19"/>
       <c r="G1439" s="19"/>
@@ -58753,7 +59076,10 @@
       <c r="U1439" s="7"/>
       <c r="V1439" s="42"/>
     </row>
-    <row r="1440" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1440" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1440" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1440" s="19"/>
       <c r="F1440" s="19"/>
       <c r="G1440" s="19"/>
@@ -58790,7 +59116,10 @@
       <c r="U1440" s="7"/>
       <c r="V1440" s="42"/>
     </row>
-    <row r="1441" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1441" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1441" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1441" s="19"/>
       <c r="F1441" s="19"/>
       <c r="G1441" s="19"/>
@@ -58827,7 +59156,10 @@
       <c r="U1441" s="7"/>
       <c r="V1441" s="42"/>
     </row>
-    <row r="1442" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1442" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1442" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1442" s="19"/>
       <c r="F1442" s="19"/>
       <c r="G1442" s="19"/>
@@ -58864,7 +59196,10 @@
       <c r="U1442" s="7"/>
       <c r="V1442" s="42"/>
     </row>
-    <row r="1443" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1443" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1443" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1443" s="19"/>
       <c r="F1443" s="19"/>
       <c r="G1443" s="19"/>
@@ -58905,7 +59240,10 @@
       <c r="U1443" s="7"/>
       <c r="V1443" s="42"/>
     </row>
-    <row r="1444" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1444" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1444" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1444" s="19"/>
       <c r="F1444" s="19"/>
       <c r="G1444" s="19"/>
@@ -58943,7 +59281,10 @@
       <c r="U1444" s="7"/>
       <c r="V1444" s="42"/>
     </row>
-    <row r="1445" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1445" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1445" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1445" s="19"/>
       <c r="F1445" s="19"/>
       <c r="G1445" s="19"/>
@@ -58980,7 +59321,10 @@
       <c r="U1445" s="7"/>
       <c r="V1445" s="42"/>
     </row>
-    <row r="1446" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1446" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1446" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1446" s="19"/>
       <c r="F1446" s="19"/>
       <c r="G1446" s="19"/>
@@ -59017,7 +59361,10 @@
       <c r="U1446" s="7"/>
       <c r="V1446" s="42"/>
     </row>
-    <row r="1447" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1447" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1447" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1447" s="19"/>
       <c r="F1447" s="19"/>
       <c r="G1447" s="19"/>
@@ -59056,7 +59403,10 @@
       </c>
       <c r="V1447" s="42"/>
     </row>
-    <row r="1448" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1448" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1448" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1448" s="19"/>
       <c r="F1448" s="19"/>
       <c r="G1448" s="19"/>
@@ -59099,7 +59449,10 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="1449" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1449" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1449" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1449" s="19"/>
       <c r="F1449" s="19"/>
       <c r="G1449" s="19"/>
@@ -59134,7 +59487,10 @@
       <c r="U1449" s="7"/>
       <c r="V1449" s="42"/>
     </row>
-    <row r="1450" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1450" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1450" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1450" s="19"/>
       <c r="F1450" s="19"/>
       <c r="G1450" s="19"/>
@@ -59169,7 +59525,10 @@
       <c r="U1450" s="7"/>
       <c r="V1450" s="42"/>
     </row>
-    <row r="1451" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1451" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1451" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1451" s="19"/>
       <c r="F1451" s="19"/>
       <c r="G1451" s="19"/>
@@ -59204,7 +59563,10 @@
       <c r="U1451" s="7"/>
       <c r="V1451" s="42"/>
     </row>
-    <row r="1452" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1452" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1452" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1452" s="19"/>
       <c r="F1452" s="19"/>
       <c r="G1452" s="19"/>
@@ -59239,7 +59601,10 @@
       <c r="U1452" s="7"/>
       <c r="V1452" s="42"/>
     </row>
-    <row r="1453" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1453" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1453" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1453" s="19"/>
       <c r="F1453" s="19"/>
       <c r="G1453" s="19"/>
@@ -59274,7 +59639,10 @@
       <c r="U1453" s="7"/>
       <c r="V1453" s="42"/>
     </row>
-    <row r="1454" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1454" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1454" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1454" s="19"/>
       <c r="F1454" s="19"/>
       <c r="G1454" s="19"/>
@@ -59309,7 +59677,10 @@
       <c r="U1454" s="7"/>
       <c r="V1454" s="42"/>
     </row>
-    <row r="1455" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1455" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1455" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1455" s="19"/>
       <c r="F1455" s="19"/>
       <c r="G1455" s="19"/>
@@ -59346,7 +59717,10 @@
       <c r="U1455" s="7"/>
       <c r="V1455" s="42"/>
     </row>
-    <row r="1456" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1456" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1456" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1456" s="19"/>
       <c r="F1456" s="19"/>
       <c r="G1456" s="19"/>
@@ -59381,7 +59755,10 @@
       <c r="U1456" s="7"/>
       <c r="V1456" s="42"/>
     </row>
-    <row r="1457" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1457" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1457" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1457" s="19"/>
       <c r="F1457" s="19"/>
       <c r="G1457" s="19"/>
@@ -59422,7 +59799,10 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="1458" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1458" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1458" s="19"/>
       <c r="F1458" s="19"/>
       <c r="G1458" s="19"/>
@@ -59457,7 +59837,10 @@
       <c r="U1458" s="7"/>
       <c r="V1458" s="42"/>
     </row>
-    <row r="1459" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1459" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1459" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1459" s="19"/>
       <c r="F1459" s="19"/>
       <c r="G1459" s="38"/>
@@ -59492,7 +59875,10 @@
       <c r="U1459" s="7"/>
       <c r="V1459" s="42"/>
     </row>
-    <row r="1460" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1460" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1460" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1460" s="19"/>
       <c r="F1460" s="19"/>
       <c r="G1460" s="38"/>
@@ -59527,7 +59913,10 @@
       <c r="U1460" s="7"/>
       <c r="V1460" s="42"/>
     </row>
-    <row r="1461" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1461" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1461" s="38"/>
       <c r="F1461" s="19"/>
       <c r="G1461" s="38"/>
@@ -59566,7 +59955,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="1462" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1462" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1462" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1462" s="38"/>
       <c r="F1462" s="19"/>
       <c r="G1462" s="19"/>
@@ -59601,7 +59993,10 @@
       <c r="U1462" s="7"/>
       <c r="V1462" s="42"/>
     </row>
-    <row r="1463" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1463" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1463" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1463" s="19"/>
       <c r="F1463" s="19"/>
       <c r="G1463" s="19"/>
@@ -59636,7 +60031,10 @@
       <c r="U1463" s="7"/>
       <c r="V1463" s="42"/>
     </row>
-    <row r="1464" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1464" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1464" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1464" s="19"/>
       <c r="F1464" s="19"/>
       <c r="G1464" s="19"/>
@@ -59671,7 +60069,10 @@
       <c r="U1464" s="7"/>
       <c r="V1464" s="42"/>
     </row>
-    <row r="1465" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1465" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1465" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1465" s="19"/>
       <c r="F1465" s="19"/>
       <c r="G1465" s="19"/>
@@ -59706,7 +60107,10 @@
       <c r="U1465" s="7"/>
       <c r="V1465" s="42"/>
     </row>
-    <row r="1466" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1466" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1466" s="19"/>
       <c r="F1466" s="19"/>
       <c r="G1466" s="19"/>
@@ -59741,7 +60145,10 @@
       <c r="U1466" s="7"/>
       <c r="V1466" s="42"/>
     </row>
-    <row r="1467" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1467" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1467" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1467" s="19"/>
       <c r="F1467" s="19"/>
       <c r="G1467" s="19"/>
@@ -59776,7 +60183,10 @@
       <c r="U1467" s="7"/>
       <c r="V1467" s="42"/>
     </row>
-    <row r="1468" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1468" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1468" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1468" s="19"/>
       <c r="F1468" s="19"/>
       <c r="G1468" s="19"/>
@@ -59811,7 +60221,10 @@
       <c r="U1468" s="7"/>
       <c r="V1468" s="42"/>
     </row>
-    <row r="1469" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1469" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1469" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1469" s="19"/>
       <c r="F1469" s="19"/>
       <c r="G1469" s="19"/>
@@ -59846,7 +60259,10 @@
       <c r="U1469" s="7"/>
       <c r="V1469" s="42"/>
     </row>
-    <row r="1470" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1470" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1470" s="19"/>
       <c r="F1470" s="19"/>
       <c r="G1470" s="19"/>
@@ -59885,7 +60301,10 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="1471" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1471" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1471" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1471" s="19"/>
       <c r="F1471" s="19"/>
       <c r="G1471" s="19"/>
@@ -59924,7 +60343,10 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="1472" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1472" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1472" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1472" s="19"/>
       <c r="F1472" s="19"/>
       <c r="G1472" s="19"/>
@@ -59963,7 +60385,10 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="1473" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1473" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1473" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1473" s="19"/>
       <c r="F1473" s="19"/>
       <c r="G1473" s="19"/>
@@ -59998,7 +60423,10 @@
       <c r="U1473" s="7"/>
       <c r="V1473" s="42"/>
     </row>
-    <row r="1474" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1474" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1474" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1474" s="19"/>
       <c r="F1474" s="19"/>
       <c r="G1474" s="19"/>
@@ -60033,7 +60461,10 @@
       <c r="U1474" s="7"/>
       <c r="V1474" s="42"/>
     </row>
-    <row r="1475" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1475" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1475" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1475" s="19"/>
       <c r="F1475" s="19"/>
       <c r="G1475" s="19"/>
@@ -60072,7 +60503,10 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="1476" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1476" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1476" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1476" s="19"/>
       <c r="F1476" s="19"/>
       <c r="G1476" s="19"/>
@@ -60107,7 +60541,10 @@
       <c r="U1476" s="7"/>
       <c r="V1476" s="42"/>
     </row>
-    <row r="1477" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1477" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1477" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1477" s="19"/>
       <c r="F1477" s="19"/>
       <c r="G1477" s="19"/>
@@ -60142,7 +60579,10 @@
       <c r="U1477" s="7"/>
       <c r="V1477" s="42"/>
     </row>
-    <row r="1478" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1478" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1478" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1478" s="19"/>
       <c r="F1478" s="19"/>
       <c r="G1478" s="19"/>
@@ -60177,7 +60617,10 @@
       <c r="U1478" s="7"/>
       <c r="V1478" s="42"/>
     </row>
-    <row r="1479" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1479" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1479" s="19"/>
       <c r="F1479" s="19"/>
       <c r="G1479" s="19"/>
@@ -60212,7 +60655,10 @@
       <c r="U1479" s="7"/>
       <c r="V1479" s="42"/>
     </row>
-    <row r="1480" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1480" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1480" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1480" s="19"/>
       <c r="F1480" s="19"/>
       <c r="G1480" s="19"/>
@@ -60251,7 +60697,10 @@
       <c r="U1480" s="7"/>
       <c r="V1480" s="42"/>
     </row>
-    <row r="1481" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1481" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1481" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1481" s="19"/>
       <c r="F1481" s="19"/>
       <c r="G1481" s="19"/>
@@ -60286,7 +60735,10 @@
       <c r="U1481" s="7"/>
       <c r="V1481" s="42"/>
     </row>
-    <row r="1482" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1482" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1482" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1482" s="19"/>
       <c r="F1482" s="19"/>
       <c r="G1482" s="19"/>
@@ -60321,7 +60773,10 @@
       <c r="U1482" s="7"/>
       <c r="V1482" s="42"/>
     </row>
-    <row r="1483" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1483" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1483" s="38"/>
       <c r="F1483" s="19"/>
       <c r="G1483" s="19"/>
@@ -60356,7 +60811,10 @@
       <c r="U1483" s="7"/>
       <c r="V1483" s="42"/>
     </row>
-    <row r="1484" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1484" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1484" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1484" s="38"/>
       <c r="F1484" s="19"/>
       <c r="G1484" s="19"/>
@@ -60391,7 +60849,10 @@
       <c r="U1484" s="7"/>
       <c r="V1484" s="42"/>
     </row>
-    <row r="1485" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1485" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="D1485" s="40"/>
       <c r="E1485" s="19"/>
       <c r="F1485" s="19"/>
@@ -60426,7 +60887,10 @@
       <c r="T1485" s="7"/>
       <c r="V1485" s="42"/>
     </row>
-    <row r="1486" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1486" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1486" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1486" s="19"/>
       <c r="F1486" s="19"/>
       <c r="G1486" s="19"/>
@@ -60461,7 +60925,10 @@
       <c r="U1486" s="7"/>
       <c r="V1486" s="42"/>
     </row>
-    <row r="1487" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1487" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1487" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1487" s="19"/>
       <c r="F1487" s="19"/>
       <c r="G1487" s="19"/>
@@ -60496,7 +60963,10 @@
       <c r="U1487" s="7"/>
       <c r="V1487" s="42"/>
     </row>
-    <row r="1488" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1488" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1488" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1488" s="19"/>
       <c r="F1488" s="19"/>
       <c r="G1488" s="19"/>
@@ -60531,7 +61001,10 @@
       <c r="U1488" s="7"/>
       <c r="V1488" s="42"/>
     </row>
-    <row r="1489" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1489" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1489" s="19"/>
       <c r="F1489" s="19"/>
       <c r="G1489" s="19"/>
@@ -60566,7 +61039,10 @@
       <c r="U1489" s="7"/>
       <c r="V1489" s="42"/>
     </row>
-    <row r="1490" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1490" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1490" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1490" s="19"/>
       <c r="F1490" s="19"/>
       <c r="G1490" s="19"/>
@@ -60601,7 +61077,10 @@
       <c r="U1490" s="7"/>
       <c r="V1490" s="42"/>
     </row>
-    <row r="1491" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1491" s="62" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1491" s="19"/>
       <c r="F1491" s="19"/>
       <c r="G1491" s="19"/>
@@ -60640,7 +61119,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="1492" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1492" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1492" s="19"/>
       <c r="F1492" s="19"/>
       <c r="G1492" s="19"/>
@@ -60673,7 +61152,7 @@
       <c r="U1492" s="7"/>
       <c r="V1492" s="42"/>
     </row>
-    <row r="1493" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1493" s="19"/>
       <c r="F1493" s="19"/>
       <c r="G1493" s="19"/>
@@ -60708,7 +61187,7 @@
       <c r="U1493" s="7"/>
       <c r="V1493" s="42"/>
     </row>
-    <row r="1494" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1494" s="19"/>
       <c r="F1494" s="19"/>
       <c r="G1494" s="19"/>
@@ -60743,7 +61222,7 @@
       <c r="U1494" s="7"/>
       <c r="V1494" s="42"/>
     </row>
-    <row r="1495" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1495" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1495" s="19"/>
       <c r="F1495" s="19"/>
       <c r="G1495" s="19"/>
@@ -60778,7 +61257,7 @@
       <c r="U1495" s="7"/>
       <c r="V1495" s="42"/>
     </row>
-    <row r="1496" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1496" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1496" s="19"/>
       <c r="F1496" s="19"/>
       <c r="G1496" s="19"/>
@@ -60813,7 +61292,7 @@
       <c r="U1496" s="7"/>
       <c r="V1496" s="42"/>
     </row>
-    <row r="1497" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1497" s="19"/>
       <c r="F1497" s="19"/>
       <c r="G1497" s="19"/>
@@ -60848,7 +61327,7 @@
       <c r="U1497" s="7"/>
       <c r="V1497" s="42"/>
     </row>
-    <row r="1498" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1498" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D1498" s="40"/>
       <c r="E1498" s="19"/>
       <c r="F1498" s="19"/>
@@ -60885,7 +61364,7 @@
       <c r="T1498" s="7"/>
       <c r="V1498" s="42"/>
     </row>
-    <row r="1499" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1499" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1499" s="19"/>
       <c r="F1499" s="19"/>
       <c r="G1499" s="19"/>
@@ -60926,7 +61405,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="1500" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1500" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1500" s="19"/>
       <c r="F1500" s="19"/>
       <c r="G1500" s="19"/>
@@ -60967,7 +61446,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="1501" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1501" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1501" s="19"/>
       <c r="F1501" s="19"/>
       <c r="G1501" s="19"/>
@@ -61004,7 +61483,7 @@
       <c r="U1501" s="7"/>
       <c r="V1501" s="42"/>
     </row>
-    <row r="1502" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1502" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1502" s="19"/>
       <c r="F1502" s="19"/>
       <c r="G1502" s="19"/>
@@ -61041,7 +61520,7 @@
       <c r="U1502" s="7"/>
       <c r="V1502" s="42"/>
     </row>
-    <row r="1503" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1503" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1503" s="19"/>
       <c r="F1503" s="38"/>
       <c r="G1503" s="19"/>
@@ -61082,7 +61561,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="1504" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1504" s="19"/>
       <c r="F1504" s="38"/>
       <c r="G1504" s="19"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.4 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="1488">
   <si>
     <t>Passage</t>
   </si>
@@ -4497,13 +4497,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4662,182 +4668,185 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5125,10 +5134,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1736" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1800" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E1491" sqref="E1491"/>
+      <selection pane="bottomLeft" activeCell="C1649" sqref="C1649:C1811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -65752,7 +65761,7 @@
       </c>
       <c r="V1632" s="42"/>
     </row>
-    <row r="1633" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1633" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1633" s="47" t="s">
         <v>23</v>
       </c>
@@ -65776,7 +65785,7 @@
       </c>
       <c r="V1633" s="42"/>
     </row>
-    <row r="1634" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1634" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1634" s="47" t="s">
         <v>23</v>
       </c>
@@ -65806,7 +65815,7 @@
       </c>
       <c r="V1634" s="42"/>
     </row>
-    <row r="1635" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1635" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1635" s="47" t="s">
         <v>23</v>
       </c>
@@ -65830,7 +65839,7 @@
       </c>
       <c r="V1635" s="42"/>
     </row>
-    <row r="1636" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1636" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1636" s="47" t="s">
         <v>23</v>
       </c>
@@ -65854,7 +65863,7 @@
       </c>
       <c r="V1636" s="42"/>
     </row>
-    <row r="1637" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1637" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1637" s="47" t="s">
         <v>23</v>
       </c>
@@ -65881,7 +65890,7 @@
       </c>
       <c r="V1637" s="42"/>
     </row>
-    <row r="1638" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1638" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1638" s="47" t="s">
         <v>23</v>
       </c>
@@ -65910,7 +65919,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="1639" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1639" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1639" s="47" t="s">
         <v>23</v>
       </c>
@@ -65941,7 +65950,7 @@
       <c r="U1639" s="7"/>
       <c r="V1639" s="42"/>
     </row>
-    <row r="1640" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1640" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1640" s="47" t="s">
         <v>23</v>
       </c>
@@ -65965,7 +65974,7 @@
       </c>
       <c r="V1640" s="42"/>
     </row>
-    <row r="1641" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1641" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1641" s="47" t="s">
         <v>23</v>
       </c>
@@ -65992,7 +66001,7 @@
       </c>
       <c r="V1641" s="42"/>
     </row>
-    <row r="1642" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1642" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1642" s="47" t="s">
         <v>23</v>
       </c>
@@ -66016,7 +66025,7 @@
       </c>
       <c r="V1642" s="42"/>
     </row>
-    <row r="1643" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1643" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1643" s="47" t="s">
         <v>23</v>
       </c>
@@ -66040,7 +66049,7 @@
       </c>
       <c r="V1643" s="42"/>
     </row>
-    <row r="1644" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1644" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1644" s="47" t="s">
         <v>23</v>
       </c>
@@ -66064,7 +66073,7 @@
       </c>
       <c r="V1644" s="42"/>
     </row>
-    <row r="1645" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1645" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1645" s="47" t="s">
         <v>23</v>
       </c>
@@ -66091,7 +66100,7 @@
       </c>
       <c r="V1645" s="42"/>
     </row>
-    <row r="1646" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1646" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1646" s="47" t="s">
         <v>23</v>
       </c>
@@ -66115,7 +66124,7 @@
       </c>
       <c r="V1646" s="42"/>
     </row>
-    <row r="1647" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1647" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1647" s="47" t="s">
         <v>23</v>
       </c>
@@ -66144,7 +66153,10 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="1648" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1648" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1648" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1648" s="59" t="s">
         <v>141</v>
       </c>
@@ -66169,7 +66181,10 @@
       </c>
       <c r="V1648" s="42"/>
     </row>
-    <row r="1649" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1649" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1649" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1649" s="59" t="s">
         <v>141</v>
       </c>
@@ -66196,7 +66211,10 @@
       </c>
       <c r="V1649" s="42"/>
     </row>
-    <row r="1650" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1650" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1650" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1650" s="47" t="s">
         <v>22</v>
       </c>
@@ -66220,7 +66238,10 @@
       </c>
       <c r="V1650" s="42"/>
     </row>
-    <row r="1651" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1651" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1651" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1651" s="47" t="s">
         <v>22</v>
       </c>
@@ -66244,7 +66265,10 @@
       </c>
       <c r="V1651" s="42"/>
     </row>
-    <row r="1652" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1652" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1652" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1652" s="59" t="s">
         <v>142</v>
       </c>
@@ -66271,7 +66295,10 @@
       </c>
       <c r="V1652" s="42"/>
     </row>
-    <row r="1653" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1653" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1653" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1653" s="59" t="s">
         <v>142</v>
       </c>
@@ -66301,7 +66328,10 @@
       </c>
       <c r="V1653" s="42"/>
     </row>
-    <row r="1654" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1654" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1654" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1654" s="59" t="s">
         <v>142</v>
       </c>
@@ -66328,7 +66358,10 @@
       </c>
       <c r="V1654" s="42"/>
     </row>
-    <row r="1655" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1655" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1655" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1655" s="59" t="s">
         <v>142</v>
       </c>
@@ -66360,7 +66393,10 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="1656" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1656" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1656" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1656" s="47" t="s">
         <v>22</v>
       </c>
@@ -66389,7 +66425,10 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1657" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1657" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1657" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1657" s="47" t="s">
         <v>22</v>
       </c>
@@ -66413,7 +66452,10 @@
       </c>
       <c r="V1657" s="42"/>
     </row>
-    <row r="1658" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1658" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1658" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1658" s="47" t="s">
         <v>22</v>
       </c>
@@ -66440,7 +66482,10 @@
       </c>
       <c r="V1658" s="42"/>
     </row>
-    <row r="1659" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1659" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1659" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1659" s="47" t="s">
         <v>22</v>
       </c>
@@ -66464,7 +66509,10 @@
       </c>
       <c r="V1659" s="42"/>
     </row>
-    <row r="1660" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1660" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1660" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1660" s="47" t="s">
         <v>22</v>
       </c>
@@ -66493,7 +66541,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="1661" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1661" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1661" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1661" s="47" t="s">
         <v>22</v>
       </c>
@@ -66520,7 +66571,10 @@
       </c>
       <c r="V1661" s="42"/>
     </row>
-    <row r="1662" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1662" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1662" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1662" s="47" t="s">
         <v>22</v>
       </c>
@@ -66552,7 +66606,10 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1663" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1663" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1663" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1663" s="47" t="s">
         <v>22</v>
       </c>
@@ -66581,7 +66638,10 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="1664" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1664" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1664" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1664" s="47" t="s">
         <v>22</v>
       </c>
@@ -66605,7 +66665,10 @@
       </c>
       <c r="V1664" s="42"/>
     </row>
-    <row r="1665" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1665" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1665" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1665" s="47" t="s">
         <v>22</v>
       </c>
@@ -66629,7 +66692,10 @@
       </c>
       <c r="V1665" s="42"/>
     </row>
-    <row r="1666" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1666" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1666" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1666" s="47" t="s">
         <v>22</v>
       </c>
@@ -66658,7 +66724,10 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="1667" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1667" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1667" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1667" s="59" t="s">
         <v>143</v>
       </c>
@@ -66690,7 +66759,10 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="1668" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1668" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1668" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1668" s="59" t="s">
         <v>143</v>
       </c>
@@ -66717,7 +66789,10 @@
       </c>
       <c r="V1668" s="42"/>
     </row>
-    <row r="1669" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1669" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1669" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1669" s="59" t="s">
         <v>143</v>
       </c>
@@ -66744,7 +66819,10 @@
       </c>
       <c r="V1669" s="42"/>
     </row>
-    <row r="1670" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1670" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1670" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1670" s="59" t="s">
         <v>143</v>
       </c>
@@ -66774,7 +66852,10 @@
       </c>
       <c r="V1670" s="42"/>
     </row>
-    <row r="1671" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1671" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1671" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1671" s="59" t="s">
         <v>143</v>
       </c>
@@ -66802,7 +66883,10 @@
       <c r="U1671" s="7"/>
       <c r="V1671" s="42"/>
     </row>
-    <row r="1672" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1672" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1672" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1672" s="59" t="s">
         <v>143</v>
       </c>
@@ -66835,7 +66919,10 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1673" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1673" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1673" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1673" s="47" t="s">
         <v>22</v>
       </c>
@@ -66862,7 +66949,10 @@
       </c>
       <c r="V1673" s="42"/>
     </row>
-    <row r="1674" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1674" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1674" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1674" s="47" t="s">
         <v>22</v>
       </c>
@@ -66887,7 +66977,10 @@
       <c r="U1674" s="7"/>
       <c r="V1674" s="42"/>
     </row>
-    <row r="1675" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1675" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1675" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1675" s="47" t="s">
         <v>22</v>
       </c>
@@ -66911,7 +67004,10 @@
       </c>
       <c r="V1675" s="42"/>
     </row>
-    <row r="1676" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1676" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1676" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1676" s="47" t="s">
         <v>22</v>
       </c>
@@ -66940,7 +67036,10 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1677" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1677" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1677" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1677" s="47" t="s">
         <v>22</v>
       </c>
@@ -66969,7 +67068,10 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1678" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1678" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1678" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1678" s="47" t="s">
         <v>22</v>
       </c>
@@ -66993,7 +67095,10 @@
       </c>
       <c r="V1678" s="42"/>
     </row>
-    <row r="1679" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1679" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1679" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1679" s="47" t="s">
         <v>22</v>
       </c>
@@ -67017,7 +67122,10 @@
       </c>
       <c r="V1679" s="42"/>
     </row>
-    <row r="1680" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1680" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1680" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1680" s="47" t="s">
         <v>22</v>
       </c>
@@ -67046,7 +67154,10 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="1681" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1681" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1681" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1681" s="59" t="s">
         <v>144</v>
       </c>
@@ -67078,7 +67189,10 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1682" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1682" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1682" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1682" s="59" t="s">
         <v>144</v>
       </c>
@@ -67105,7 +67219,10 @@
       </c>
       <c r="V1682" s="42"/>
     </row>
-    <row r="1683" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1683" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1683" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1683" s="59" t="s">
         <v>144</v>
       </c>
@@ -67132,7 +67249,10 @@
       </c>
       <c r="V1683" s="42"/>
     </row>
-    <row r="1684" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1684" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1684" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1684" s="59" t="s">
         <v>144</v>
       </c>
@@ -67159,7 +67279,10 @@
       </c>
       <c r="V1684" s="42"/>
     </row>
-    <row r="1685" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1685" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1685" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1685" s="59" t="s">
         <v>144</v>
       </c>
@@ -67187,7 +67310,10 @@
       <c r="U1685" s="7"/>
       <c r="V1685" s="42"/>
     </row>
-    <row r="1686" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1686" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1686" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1686" s="47" t="s">
         <v>22</v>
       </c>
@@ -67219,7 +67345,10 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="1687" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1687" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1687" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1687" s="59" t="s">
         <v>145</v>
       </c>
@@ -67246,7 +67375,10 @@
       </c>
       <c r="V1687" s="42"/>
     </row>
-    <row r="1688" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1688" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1688" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1688" s="59" t="s">
         <v>145</v>
       </c>
@@ -67273,7 +67405,10 @@
       </c>
       <c r="V1688" s="42"/>
     </row>
-    <row r="1689" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1689" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1689" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1689" s="59" t="s">
         <v>145</v>
       </c>
@@ -67300,7 +67435,10 @@
       </c>
       <c r="V1689" s="42"/>
     </row>
-    <row r="1690" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1690" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1690" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1690" s="59" t="s">
         <v>145</v>
       </c>
@@ -67333,7 +67471,10 @@
       </c>
       <c r="V1690" s="42"/>
     </row>
-    <row r="1691" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1691" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1691" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1691" s="59" t="s">
         <v>145</v>
       </c>
@@ -67365,7 +67506,10 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="1692" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1692" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1692" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1692" s="47" t="s">
         <v>22</v>
       </c>
@@ -67394,7 +67538,10 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="1693" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1693" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1693" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1693" s="47" t="s">
         <v>22</v>
       </c>
@@ -67418,7 +67565,10 @@
       </c>
       <c r="V1693" s="42"/>
     </row>
-    <row r="1694" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1694" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1694" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1694" s="47" t="s">
         <v>22</v>
       </c>
@@ -67442,7 +67592,10 @@
       </c>
       <c r="V1694" s="42"/>
     </row>
-    <row r="1695" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1695" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1695" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1695" s="47" t="s">
         <v>22</v>
       </c>
@@ -67466,7 +67619,10 @@
       </c>
       <c r="V1695" s="42"/>
     </row>
-    <row r="1696" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1696" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1696" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1696" s="47" t="s">
         <v>22</v>
       </c>
@@ -67495,7 +67651,10 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="1697" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1697" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1697" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1697" s="47" t="s">
         <v>22</v>
       </c>
@@ -67524,7 +67683,10 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="1698" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1698" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1698" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1698" s="47" t="s">
         <v>21</v>
       </c>
@@ -67552,7 +67714,10 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="1699" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1699" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1699" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1699" s="59" t="s">
         <v>146</v>
       </c>
@@ -67579,7 +67744,10 @@
       </c>
       <c r="V1699" s="42"/>
     </row>
-    <row r="1700" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1700" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1700" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1700" s="59" t="s">
         <v>146</v>
       </c>
@@ -67606,7 +67774,10 @@
       </c>
       <c r="V1700" s="42"/>
     </row>
-    <row r="1701" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1701" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1701" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1701" s="59" t="s">
         <v>146</v>
       </c>
@@ -67638,7 +67809,10 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="1702" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1702" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1702" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1702" s="59" t="s">
         <v>146</v>
       </c>
@@ -67665,7 +67839,10 @@
       </c>
       <c r="V1702" s="42"/>
     </row>
-    <row r="1703" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1703" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1703" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1703" s="47" t="s">
         <v>21</v>
       </c>
@@ -67689,7 +67866,10 @@
       </c>
       <c r="V1703" s="42"/>
     </row>
-    <row r="1704" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1704" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1704" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1704" s="47" t="s">
         <v>21</v>
       </c>
@@ -67713,7 +67893,10 @@
       </c>
       <c r="V1704" s="42"/>
     </row>
-    <row r="1705" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1705" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1705" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1705" s="47" t="s">
         <v>21</v>
       </c>
@@ -67742,7 +67925,10 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="1706" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1706" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1706" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1706" s="47" t="s">
         <v>21</v>
       </c>
@@ -67767,7 +67953,10 @@
       <c r="U1706" s="7"/>
       <c r="V1706" s="42"/>
     </row>
-    <row r="1707" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1707" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1707" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1707" s="54" t="s">
         <v>21</v>
       </c>
@@ -67798,7 +67987,10 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="1708" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1708" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1708" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1708" s="47" t="s">
         <v>21</v>
       </c>
@@ -67823,7 +68015,10 @@
       <c r="U1708" s="7"/>
       <c r="V1708" s="42"/>
     </row>
-    <row r="1709" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1709" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1709" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1709" s="47" t="s">
         <v>21</v>
       </c>
@@ -67848,7 +68043,10 @@
       <c r="U1709" s="7"/>
       <c r="V1709" s="42"/>
     </row>
-    <row r="1710" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1710" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1710" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1710" s="47" t="s">
         <v>21</v>
       </c>
@@ -67872,7 +68070,10 @@
       </c>
       <c r="V1710" s="42"/>
     </row>
-    <row r="1711" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1711" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1711" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1711" s="47" t="s">
         <v>21</v>
       </c>
@@ -67901,7 +68102,10 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1712" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1712" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1712" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1712" s="47" t="s">
         <v>21</v>
       </c>
@@ -67928,7 +68132,10 @@
       </c>
       <c r="V1712" s="42"/>
     </row>
-    <row r="1713" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1713" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1713" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1713" s="47" t="s">
         <v>21</v>
       </c>
@@ -67957,7 +68164,10 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="1714" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1714" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1714" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1714" s="47" t="s">
         <v>21</v>
       </c>
@@ -67986,7 +68196,10 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="1715" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1715" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1715" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1715" s="47" t="s">
         <v>21</v>
       </c>
@@ -68021,7 +68234,10 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="1716" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1716" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1716" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1716" s="59" t="s">
         <v>147</v>
       </c>
@@ -68048,7 +68264,10 @@
       </c>
       <c r="V1716" s="42"/>
     </row>
-    <row r="1717" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1717" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1717" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1717" s="59" t="s">
         <v>147</v>
       </c>
@@ -68081,7 +68300,10 @@
       </c>
       <c r="V1717" s="42"/>
     </row>
-    <row r="1718" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1718" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1718" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1718" s="59" t="s">
         <v>147</v>
       </c>
@@ -68108,7 +68330,10 @@
       </c>
       <c r="V1718" s="42"/>
     </row>
-    <row r="1719" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1719" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1719" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1719" s="47" t="s">
         <v>21</v>
       </c>
@@ -68132,7 +68357,10 @@
       </c>
       <c r="V1719" s="42"/>
     </row>
-    <row r="1720" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1720" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1720" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1720" s="47" t="s">
         <v>21</v>
       </c>
@@ -68159,7 +68387,10 @@
       </c>
       <c r="V1720" s="42"/>
     </row>
-    <row r="1721" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1721" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1721" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1721" s="47" t="s">
         <v>21</v>
       </c>
@@ -68188,7 +68419,10 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1722" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1722" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1722" s="47" t="s">
         <v>21</v>
       </c>
@@ -68219,7 +68453,10 @@
       <c r="U1722" s="7"/>
       <c r="V1722" s="42"/>
     </row>
-    <row r="1723" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1723" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1723" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1723" s="47" t="s">
         <v>21</v>
       </c>
@@ -68246,7 +68483,10 @@
       <c r="U1723" s="7"/>
       <c r="V1723" s="42"/>
     </row>
-    <row r="1724" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1724" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1724" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1724" s="47" t="s">
         <v>21</v>
       </c>
@@ -68273,7 +68513,10 @@
       </c>
       <c r="V1724" s="42"/>
     </row>
-    <row r="1725" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1725" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1725" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1725" s="47" t="s">
         <v>21</v>
       </c>
@@ -68297,7 +68540,10 @@
       </c>
       <c r="V1725" s="42"/>
     </row>
-    <row r="1726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1726" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1726" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1726" s="47" t="s">
         <v>21</v>
       </c>
@@ -68321,7 +68567,10 @@
       </c>
       <c r="V1726" s="42"/>
     </row>
-    <row r="1727" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1727" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1727" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1727" s="47" t="s">
         <v>21</v>
       </c>
@@ -68345,7 +68594,10 @@
       </c>
       <c r="V1727" s="42"/>
     </row>
-    <row r="1728" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1728" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1728" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1728" s="47" t="s">
         <v>21</v>
       </c>
@@ -68372,7 +68624,10 @@
       </c>
       <c r="V1728" s="42"/>
     </row>
-    <row r="1729" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1729" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1729" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1729" s="47" t="s">
         <v>21</v>
       </c>
@@ -68396,7 +68651,10 @@
       </c>
       <c r="V1729" s="42"/>
     </row>
-    <row r="1730" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1730" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1730" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1730" s="47" t="s">
         <v>21</v>
       </c>
@@ -68425,7 +68683,10 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="1731" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1731" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1731" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1731" s="47" t="s">
         <v>21</v>
       </c>
@@ -68449,7 +68710,10 @@
       </c>
       <c r="V1731" s="42"/>
     </row>
-    <row r="1732" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1732" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1732" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1732" s="47" t="s">
         <v>21</v>
       </c>
@@ -68478,7 +68742,10 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1733" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1733" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1733" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1733" s="59" t="s">
         <v>148</v>
       </c>
@@ -68505,7 +68772,10 @@
       </c>
       <c r="V1733" s="42"/>
     </row>
-    <row r="1734" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1734" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1734" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1734" s="59" t="s">
         <v>148</v>
       </c>
@@ -68533,7 +68803,10 @@
       <c r="U1734" s="7"/>
       <c r="V1734" s="42"/>
     </row>
-    <row r="1735" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1735" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1735" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1735" s="59" t="s">
         <v>148</v>
       </c>
@@ -68563,7 +68836,10 @@
       </c>
       <c r="V1735" s="42"/>
     </row>
-    <row r="1736" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1736" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1736" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1736" s="59" t="s">
         <v>148</v>
       </c>
@@ -68598,7 +68874,10 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="1737" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1737" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1737" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1737" s="47" t="s">
         <v>21</v>
       </c>
@@ -68622,7 +68901,10 @@
       </c>
       <c r="V1737" s="42"/>
     </row>
-    <row r="1738" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1738" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1738" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1738" s="47" t="s">
         <v>21</v>
       </c>
@@ -68646,7 +68928,10 @@
       </c>
       <c r="V1738" s="42"/>
     </row>
-    <row r="1739" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1739" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1739" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1739" s="47" t="s">
         <v>21</v>
       </c>
@@ -68675,7 +68960,10 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1740" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1740" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1740" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1740" s="47" t="s">
         <v>21</v>
       </c>
@@ -68707,7 +68995,10 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1741" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1741" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1741" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1741" s="47" t="s">
         <v>21</v>
       </c>
@@ -68731,7 +69022,10 @@
       </c>
       <c r="V1741" s="42"/>
     </row>
-    <row r="1742" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1742" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1742" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1742" s="47" t="s">
         <v>21</v>
       </c>
@@ -68758,7 +69052,10 @@
       </c>
       <c r="V1742" s="42"/>
     </row>
-    <row r="1743" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1743" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1743" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1743" s="47" t="s">
         <v>21</v>
       </c>
@@ -68787,7 +69084,10 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="1744" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1744" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1744" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1744" s="47" t="s">
         <v>21</v>
       </c>
@@ -68811,7 +69111,10 @@
       </c>
       <c r="V1744" s="42"/>
     </row>
-    <row r="1745" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1745" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1745" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1745" s="47" t="s">
         <v>21</v>
       </c>
@@ -68838,7 +69141,10 @@
       </c>
       <c r="V1745" s="42"/>
     </row>
-    <row r="1746" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1746" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1746" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1746" s="47" t="s">
         <v>21</v>
       </c>
@@ -68865,7 +69171,10 @@
       </c>
       <c r="V1746" s="42"/>
     </row>
-    <row r="1747" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1747" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1747" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1747" s="47" t="s">
         <v>21</v>
       </c>
@@ -68889,7 +69198,10 @@
       </c>
       <c r="V1747" s="42"/>
     </row>
-    <row r="1748" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1748" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1748" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1748" s="47" t="s">
         <v>20</v>
       </c>
@@ -68915,7 +69227,10 @@
       </c>
       <c r="V1748" s="42"/>
     </row>
-    <row r="1749" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1749" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1749" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1749" s="47" t="s">
         <v>20</v>
       </c>
@@ -68944,7 +69259,10 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="1750" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1750" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1750" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1750" s="47" t="s">
         <v>20</v>
       </c>
@@ -68968,7 +69286,10 @@
       </c>
       <c r="V1750" s="42"/>
     </row>
-    <row r="1751" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1751" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1751" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1751" s="47" t="s">
         <v>20</v>
       </c>
@@ -68992,7 +69313,10 @@
       </c>
       <c r="V1751" s="42"/>
     </row>
-    <row r="1752" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1752" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1752" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1752" s="47" t="s">
         <v>20</v>
       </c>
@@ -69021,7 +69345,10 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1753" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1753" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1753" s="47" t="s">
         <v>20</v>
       </c>
@@ -69045,7 +69372,10 @@
       </c>
       <c r="V1753" s="42"/>
     </row>
-    <row r="1754" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1754" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1754" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1754" s="47" t="s">
         <v>20</v>
       </c>
@@ -69072,7 +69402,10 @@
       </c>
       <c r="V1754" s="42"/>
     </row>
-    <row r="1755" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1755" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1755" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1755" s="47" t="s">
         <v>20</v>
       </c>
@@ -69102,7 +69435,10 @@
       </c>
       <c r="V1755" s="42"/>
     </row>
-    <row r="1756" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1756" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1756" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1756" s="47" t="s">
         <v>20</v>
       </c>
@@ -69126,7 +69462,10 @@
       </c>
       <c r="V1756" s="42"/>
     </row>
-    <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1757" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1757" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1757" s="47" t="s">
         <v>20</v>
       </c>
@@ -69155,7 +69494,10 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="1758" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1758" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1758" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1758" s="47" t="s">
         <v>20</v>
       </c>
@@ -69179,7 +69521,10 @@
       </c>
       <c r="V1758" s="42"/>
     </row>
-    <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1759" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1759" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1759" s="47" t="s">
         <v>20</v>
       </c>
@@ -69206,7 +69551,10 @@
       </c>
       <c r="V1759" s="42"/>
     </row>
-    <row r="1760" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1760" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1760" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1760" s="47" t="s">
         <v>20</v>
       </c>
@@ -69235,7 +69583,10 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="1761" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1761" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1761" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1761" s="47" t="s">
         <v>20</v>
       </c>
@@ -69259,7 +69610,10 @@
       </c>
       <c r="V1761" s="42"/>
     </row>
-    <row r="1762" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1762" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1762" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1762" s="47" t="s">
         <v>20</v>
       </c>
@@ -69283,7 +69637,10 @@
       </c>
       <c r="V1762" s="42"/>
     </row>
-    <row r="1763" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1763" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1763" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1763" s="47" t="s">
         <v>20</v>
       </c>
@@ -69315,7 +69672,10 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1764" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1764" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1764" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1764" s="47" t="s">
         <v>20</v>
       </c>
@@ -69339,7 +69699,10 @@
       </c>
       <c r="V1764" s="42"/>
     </row>
-    <row r="1765" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1765" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1765" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1765" s="47" t="s">
         <v>20</v>
       </c>
@@ -69363,7 +69726,10 @@
       </c>
       <c r="V1765" s="42"/>
     </row>
-    <row r="1766" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1766" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1766" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1766" s="47" t="s">
         <v>20</v>
       </c>
@@ -69387,7 +69753,10 @@
       </c>
       <c r="V1766" s="42"/>
     </row>
-    <row r="1767" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1767" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1767" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1767" s="47" t="s">
         <v>20</v>
       </c>
@@ -69419,7 +69788,10 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="1768" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1768" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1768" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1768" s="59" t="s">
         <v>149</v>
       </c>
@@ -69447,7 +69819,10 @@
       <c r="U1768" s="7"/>
       <c r="V1768" s="42"/>
     </row>
-    <row r="1769" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1769" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1769" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1769" s="59" t="s">
         <v>149</v>
       </c>
@@ -69475,7 +69850,10 @@
       <c r="U1769" s="7"/>
       <c r="V1769" s="42"/>
     </row>
-    <row r="1770" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1770" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1770" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1770" s="59" t="s">
         <v>149</v>
       </c>
@@ -69505,7 +69883,10 @@
       </c>
       <c r="V1770" s="42"/>
     </row>
-    <row r="1771" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1771" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1771" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1771" s="59" t="s">
         <v>149</v>
       </c>
@@ -69532,7 +69913,10 @@
       </c>
       <c r="V1771" s="42"/>
     </row>
-    <row r="1772" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1772" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1772" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1772" s="59" t="s">
         <v>149</v>
       </c>
@@ -69559,7 +69943,10 @@
       </c>
       <c r="V1772" s="42"/>
     </row>
-    <row r="1773" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1773" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1773" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1773" s="47" t="s">
         <v>20</v>
       </c>
@@ -69584,7 +69971,10 @@
       <c r="U1773" s="7"/>
       <c r="V1773" s="42"/>
     </row>
-    <row r="1774" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1774" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1774" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1774" s="47" t="s">
         <v>20</v>
       </c>
@@ -69608,7 +69998,10 @@
       </c>
       <c r="V1774" s="42"/>
     </row>
-    <row r="1775" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1775" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1775" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1775" s="47" t="s">
         <v>20</v>
       </c>
@@ -69632,7 +70025,10 @@
       </c>
       <c r="V1775" s="42"/>
     </row>
-    <row r="1776" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1776" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1776" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1776" s="47" t="s">
         <v>20</v>
       </c>
@@ -69656,7 +70052,10 @@
       </c>
       <c r="V1776" s="42"/>
     </row>
-    <row r="1777" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1777" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1777" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1777" s="47" t="s">
         <v>20</v>
       </c>
@@ -69688,7 +70087,10 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="1778" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1778" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1778" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1778" s="47" t="s">
         <v>20</v>
       </c>
@@ -69712,7 +70114,10 @@
       </c>
       <c r="V1778" s="42"/>
     </row>
-    <row r="1779" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1779" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1779" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1779" s="47" t="s">
         <v>20</v>
       </c>
@@ -69736,7 +70141,10 @@
       </c>
       <c r="V1779" s="42"/>
     </row>
-    <row r="1780" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1780" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1780" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1780" s="47" t="s">
         <v>20</v>
       </c>
@@ -69760,7 +70168,10 @@
       </c>
       <c r="V1780" s="42"/>
     </row>
-    <row r="1781" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1781" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1781" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1781" s="47" t="s">
         <v>20</v>
       </c>
@@ -69784,7 +70195,10 @@
       </c>
       <c r="V1781" s="42"/>
     </row>
-    <row r="1782" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1782" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1782" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1782" s="47" t="s">
         <v>20</v>
       </c>
@@ -69808,7 +70222,10 @@
       </c>
       <c r="V1782" s="42"/>
     </row>
-    <row r="1783" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1783" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1783" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1783" s="47" t="s">
         <v>20</v>
       </c>
@@ -69832,7 +70249,10 @@
       </c>
       <c r="V1783" s="42"/>
     </row>
-    <row r="1784" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1784" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1784" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1784" s="47" t="s">
         <v>20</v>
       </c>
@@ -69856,7 +70276,10 @@
       </c>
       <c r="V1784" s="42"/>
     </row>
-    <row r="1785" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1785" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1785" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1785" s="47" t="s">
         <v>20</v>
       </c>
@@ -69888,7 +70311,10 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="1786" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1786" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1786" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1786" s="47" t="s">
         <v>20</v>
       </c>
@@ -69913,7 +70339,10 @@
       <c r="U1786" s="7"/>
       <c r="V1786" s="42"/>
     </row>
-    <row r="1787" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1787" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1787" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1787" s="47" t="s">
         <v>20</v>
       </c>
@@ -69937,7 +70366,10 @@
       </c>
       <c r="V1787" s="42"/>
     </row>
-    <row r="1788" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1788" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1788" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1788" s="47" t="s">
         <v>20</v>
       </c>
@@ -69964,7 +70396,10 @@
       </c>
       <c r="V1788" s="42"/>
     </row>
-    <row r="1789" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1789" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1789" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1789" s="47" t="s">
         <v>20</v>
       </c>
@@ -69988,7 +70423,10 @@
       </c>
       <c r="V1789" s="42"/>
     </row>
-    <row r="1790" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1790" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1790" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1790" s="47" t="s">
         <v>20</v>
       </c>
@@ -70012,7 +70450,10 @@
       </c>
       <c r="V1790" s="42"/>
     </row>
-    <row r="1791" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1791" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1791" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1791" s="47" t="s">
         <v>20</v>
       </c>
@@ -70041,7 +70482,10 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="1792" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1792" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1792" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1792" s="47" t="s">
         <v>20</v>
       </c>
@@ -70070,7 +70514,10 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="1793" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1793" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1793" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1793" s="47" t="s">
         <v>20</v>
       </c>
@@ -70099,7 +70546,10 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1794" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1794" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1794" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1794" s="47" t="s">
         <v>20</v>
       </c>
@@ -70131,7 +70581,10 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1795" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1795" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1795" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1795" s="47" t="s">
         <v>20</v>
       </c>
@@ -70155,7 +70608,10 @@
       </c>
       <c r="V1795" s="42"/>
     </row>
-    <row r="1796" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1796" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1796" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1796" s="47" t="s">
         <v>20</v>
       </c>
@@ -70179,7 +70635,10 @@
       </c>
       <c r="V1796" s="42"/>
     </row>
-    <row r="1797" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1797" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1797" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1797" s="47" t="s">
         <v>20</v>
       </c>
@@ -70206,7 +70665,10 @@
       </c>
       <c r="V1797" s="42"/>
     </row>
-    <row r="1798" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1798" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1798" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1798" s="47" t="s">
         <v>20</v>
       </c>
@@ -70233,7 +70695,10 @@
       </c>
       <c r="V1798" s="42"/>
     </row>
-    <row r="1799" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1799" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1799" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1799" s="47" t="s">
         <v>20</v>
       </c>
@@ -70257,7 +70722,10 @@
       </c>
       <c r="V1799" s="42"/>
     </row>
-    <row r="1800" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1800" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1800" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1800" s="47" t="s">
         <v>20</v>
       </c>
@@ -70281,7 +70749,10 @@
       </c>
       <c r="V1800" s="42"/>
     </row>
-    <row r="1801" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1801" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1801" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1801" s="47" t="s">
         <v>20</v>
       </c>
@@ -70305,7 +70776,10 @@
       </c>
       <c r="V1801" s="42"/>
     </row>
-    <row r="1802" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1802" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1802" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1802" s="47" t="s">
         <v>20</v>
       </c>
@@ -70334,7 +70808,10 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="1803" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1803" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1803" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1803" s="47" t="s">
         <v>20</v>
       </c>
@@ -70358,7 +70835,10 @@
       </c>
       <c r="V1803" s="42"/>
     </row>
-    <row r="1804" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1804" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1804" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1804" s="47" t="s">
         <v>20</v>
       </c>
@@ -70382,7 +70862,10 @@
       </c>
       <c r="V1804" s="42"/>
     </row>
-    <row r="1805" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1805" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1805" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1805" s="47" t="s">
         <v>20</v>
       </c>
@@ -70414,7 +70897,10 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="1806" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1806" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1806" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1806" s="59" t="s">
         <v>150</v>
       </c>
@@ -70441,7 +70927,10 @@
       </c>
       <c r="V1806" s="42"/>
     </row>
-    <row r="1807" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1807" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1807" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1807" s="59" t="s">
         <v>150</v>
       </c>
@@ -70471,7 +70960,10 @@
       </c>
       <c r="V1807" s="42"/>
     </row>
-    <row r="1808" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1808" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1808" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1808" s="59" t="s">
         <v>150</v>
       </c>
@@ -70498,7 +70990,10 @@
       </c>
       <c r="V1808" s="42"/>
     </row>
-    <row r="1809" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1809" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1809" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1809" s="59" t="s">
         <v>150</v>
       </c>
@@ -70525,7 +71020,10 @@
       </c>
       <c r="V1809" s="42"/>
     </row>
-    <row r="1810" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1810" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1810" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1810" s="59" t="s">
         <v>150</v>
       </c>
@@ -70555,7 +71053,10 @@
       </c>
       <c r="V1810" s="42"/>
     </row>
-    <row r="1811" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1811" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1811" s="63" t="s">
+        <v>1487</v>
+      </c>
       <c r="H1811" s="59" t="s">
         <v>150</v>
       </c>
@@ -70587,7 +71088,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="1812" spans="8:22" x14ac:dyDescent="0.25">
+    <row r="1812" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P1812" s="7"/>
     </row>
   </sheetData>
